--- a/Electrolyser/Text/Txt creator(hourly).xlsx
+++ b/Electrolyser/Text/Txt creator(hourly).xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sayfa2" sheetId="2" r:id="rId2"/>
     <sheet name="Sayfa3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>#1</t>
   </si>
@@ -47,15 +47,23 @@
   <si>
     <t>gas_demand</t>
   </si>
+  <si>
+    <t>double tab1(31,2)</t>
+  </si>
+  <si>
+    <t>heat demand</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,6 +78,12 @@
       <family val="2"/>
       <charset val="162"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="162"/>
     </font>
   </fonts>
   <fills count="3">
@@ -94,11 +108,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -109,9 +124,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Nötr" xfId="1" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -411,19 +429,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T34"/>
+  <dimension ref="A1:Y72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="X6" sqref="X6"/>
+    <sheetView tabSelected="1" topLeftCell="C24" workbookViewId="0">
+      <selection activeCell="N49" sqref="N49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="6" max="6" width="11.5546875" customWidth="1"/>
     <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -453,7 +473,7 @@
       </c>
       <c r="T1" s="4"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -476,8 +496,11 @@
       <c r="S2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="V2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -498,10 +521,16 @@
         <v>8</v>
       </c>
       <c r="S3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="V3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y3">
+        <v>1086.9559999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>0</v>
       </c>
@@ -541,11 +570,25 @@
       <c r="S4">
         <v>0</v>
       </c>
-      <c r="T4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T4" s="7">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <f>T4/1086.956</f>
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <f>W4*1086.956</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3600</v>
       </c>
@@ -585,11 +628,25 @@
       <c r="S5">
         <v>10</v>
       </c>
-      <c r="T5" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T5" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="U5">
+        <f t="shared" ref="U5:U34" si="0">T5/1086.956</f>
+        <v>9.2000044160021209E-7</v>
+      </c>
+      <c r="V5">
+        <v>10</v>
+      </c>
+      <c r="W5">
+        <v>1E-3</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" ref="Y5:Y34" si="1">W5*1086.956</f>
+        <v>1.086956</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>7200</v>
       </c>
@@ -629,11 +686,25 @@
       <c r="S6">
         <v>20</v>
       </c>
-      <c r="T6" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T6" s="7">
+        <v>3.7860300000000001E-3</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="0"/>
+        <v>3.4831492719116508E-6</v>
+      </c>
+      <c r="V6">
+        <v>20</v>
+      </c>
+      <c r="W6">
+        <v>1E-3</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="1"/>
+        <v>1.086956</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>10800</v>
       </c>
@@ -673,11 +744,25 @@
       <c r="S7">
         <v>30</v>
       </c>
-      <c r="T7" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T7" s="7">
+        <v>3.782465E-3</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="0"/>
+        <v>3.479869470337346E-6</v>
+      </c>
+      <c r="V7">
+        <v>30</v>
+      </c>
+      <c r="W7">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="1"/>
+        <v>1.1956515999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>14400</v>
       </c>
@@ -717,11 +802,25 @@
       <c r="S8">
         <v>40</v>
       </c>
-      <c r="T8" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T8" s="7">
+        <v>3.7682050000000002E-3</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="0"/>
+        <v>3.4667502640401273E-6</v>
+      </c>
+      <c r="V8">
+        <v>40</v>
+      </c>
+      <c r="W8">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="1"/>
+        <v>1.3043471999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>18000</v>
       </c>
@@ -761,11 +860,25 @@
       <c r="S9">
         <v>50</v>
       </c>
-      <c r="T9" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T9" s="7">
+        <v>3.7503800000000002E-3</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>3.4503512561686034E-6</v>
+      </c>
+      <c r="V9">
+        <v>50</v>
+      </c>
+      <c r="W9">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="1"/>
+        <v>1.3043471999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>21600</v>
       </c>
@@ -805,11 +918,25 @@
       <c r="S10">
         <v>60</v>
       </c>
-      <c r="T10" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T10" s="7">
+        <v>3.739685E-3</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="0"/>
+        <v>3.4405118514456891E-6</v>
+      </c>
+      <c r="V10">
+        <v>60</v>
+      </c>
+      <c r="W10">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="1"/>
+        <v>1.6304339999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>25200</v>
       </c>
@@ -849,11 +976,25 @@
       <c r="S11">
         <v>70</v>
       </c>
-      <c r="T11" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T11" s="7">
+        <v>3.7147300000000003E-3</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="0"/>
+        <v>3.417553240425556E-6</v>
+      </c>
+      <c r="V11">
+        <v>70</v>
+      </c>
+      <c r="W11">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="1"/>
+        <v>1.7391295999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>28800</v>
       </c>
@@ -893,11 +1034,25 @@
       <c r="S12">
         <v>80</v>
       </c>
-      <c r="T12" s="1">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T12" s="7">
+        <v>3.7076000000000001E-3</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="0"/>
+        <v>3.4109936372769465E-6</v>
+      </c>
+      <c r="V12">
+        <v>80</v>
+      </c>
+      <c r="W12">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="1"/>
+        <v>1.7391295999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>32400</v>
       </c>
@@ -937,11 +1092,25 @@
       <c r="S13">
         <v>90</v>
       </c>
-      <c r="T13" s="1">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T13" s="7">
+        <v>3.7646400000000001E-3</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="0"/>
+        <v>3.4634704624658226E-6</v>
+      </c>
+      <c r="V13">
+        <v>90</v>
+      </c>
+      <c r="W13">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="1"/>
+        <v>1.7391295999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>36000</v>
       </c>
@@ -981,11 +1150,25 @@
       <c r="S14">
         <v>100</v>
       </c>
-      <c r="T14" s="1">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T14" s="7">
+        <v>3.7860300000000001E-3</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="0"/>
+        <v>3.4831492719116508E-6</v>
+      </c>
+      <c r="V14">
+        <v>100</v>
+      </c>
+      <c r="W14">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="1"/>
+        <v>1.7391295999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>39600</v>
       </c>
@@ -1025,11 +1208,25 @@
       <c r="S15">
         <v>110</v>
       </c>
-      <c r="T15" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T15" s="7">
+        <v>3.7895950000000002E-3</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="0"/>
+        <v>3.4864290734859556E-6</v>
+      </c>
+      <c r="V15">
+        <v>110</v>
+      </c>
+      <c r="W15">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="1"/>
+        <v>1.7391295999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>43200</v>
       </c>
@@ -1069,11 +1266,25 @@
       <c r="S16">
         <v>120</v>
       </c>
-      <c r="T16" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T16" s="7">
+        <v>3.7753350000000003E-3</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="0"/>
+        <v>3.4733098671887369E-6</v>
+      </c>
+      <c r="V16">
+        <v>120</v>
+      </c>
+      <c r="W16">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="1"/>
+        <v>1.7391295999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>46800</v>
       </c>
@@ -1113,11 +1324,25 @@
       <c r="S17">
         <v>130</v>
       </c>
-      <c r="T17" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T17" s="7">
+        <v>3.7503800000000002E-3</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="0"/>
+        <v>3.4503512561686034E-6</v>
+      </c>
+      <c r="V17">
+        <v>130</v>
+      </c>
+      <c r="W17">
+        <v>1.8E-3</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="1"/>
+        <v>1.9565207999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>50400</v>
       </c>
@@ -1157,11 +1382,25 @@
       <c r="S18">
         <v>140</v>
       </c>
-      <c r="T18" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T18" s="7">
+        <v>3.739685E-3</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="0"/>
+        <v>3.4405118514456891E-6</v>
+      </c>
+      <c r="V18">
+        <v>140</v>
+      </c>
+      <c r="W18">
+        <v>1.8E-3</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="1"/>
+        <v>1.9565207999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>54000</v>
       </c>
@@ -1201,11 +1440,25 @@
       <c r="S19">
         <v>150</v>
       </c>
-      <c r="T19" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T19" s="7">
+        <v>3.72186E-3</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="0"/>
+        <v>3.4241128435741652E-6</v>
+      </c>
+      <c r="V19">
+        <v>150</v>
+      </c>
+      <c r="W19">
+        <v>1.8E-3</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="1"/>
+        <v>1.9565207999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>57600</v>
       </c>
@@ -1245,11 +1498,25 @@
       <c r="S20">
         <v>160</v>
       </c>
-      <c r="T20" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T20" s="7">
+        <v>3.72186E-3</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="0"/>
+        <v>3.4241128435741652E-6</v>
+      </c>
+      <c r="V20">
+        <v>160</v>
+      </c>
+      <c r="W20">
+        <v>1.9E-3</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="1"/>
+        <v>2.0652163999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>61200</v>
       </c>
@@ -1289,11 +1556,25 @@
       <c r="S21">
         <v>170</v>
       </c>
-      <c r="T21" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T21" s="7">
+        <v>3.7361199999999999E-3</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="0"/>
+        <v>3.4372320498713843E-6</v>
+      </c>
+      <c r="V21">
+        <v>170</v>
+      </c>
+      <c r="W21">
+        <v>1.9E-3</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="1"/>
+        <v>2.0652163999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>64800</v>
       </c>
@@ -1333,11 +1614,25 @@
       <c r="S22">
         <v>180</v>
       </c>
-      <c r="T22" s="1">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T22" s="7">
+        <v>3.7503800000000002E-3</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="0"/>
+        <v>3.4503512561686034E-6</v>
+      </c>
+      <c r="V22">
+        <v>180</v>
+      </c>
+      <c r="W22">
+        <v>2E-3</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="1"/>
+        <v>2.1739120000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>68400</v>
       </c>
@@ -1377,11 +1672,25 @@
       <c r="S23">
         <v>190</v>
       </c>
-      <c r="T23" s="1">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T23" s="7">
+        <v>3.7717700000000002E-3</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="0"/>
+        <v>3.4700300656144321E-6</v>
+      </c>
+      <c r="V23">
+        <v>190</v>
+      </c>
+      <c r="W23">
+        <v>2E-3</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="1"/>
+        <v>2.1739120000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>72000</v>
       </c>
@@ -1421,11 +1730,25 @@
       <c r="S24">
         <v>200</v>
       </c>
-      <c r="T24" s="1">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T24" s="7">
+        <v>3.7789E-3</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="0"/>
+        <v>3.4765896687630413E-6</v>
+      </c>
+      <c r="V24">
+        <v>200</v>
+      </c>
+      <c r="W24">
+        <v>2E-3</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="1"/>
+        <v>2.1739120000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>75600</v>
       </c>
@@ -1465,11 +1788,25 @@
       <c r="S25">
         <v>210</v>
       </c>
-      <c r="T25" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T25">
+        <v>3.782465E-3</v>
+      </c>
+      <c r="U25">
+        <f>T27/1086.956</f>
+        <v>3.4929886766345652E-6</v>
+      </c>
+      <c r="V25">
+        <v>210</v>
+      </c>
+      <c r="W25">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="1"/>
+        <v>1.6304339999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>79200</v>
       </c>
@@ -1509,11 +1846,25 @@
       <c r="S26">
         <v>220</v>
       </c>
-      <c r="T26" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T26">
+        <v>3.7895950000000002E-3</v>
+      </c>
+      <c r="U26">
+        <f>T28/1086.956</f>
+        <v>3.4962684782088704E-6</v>
+      </c>
+      <c r="V26">
+        <v>220</v>
+      </c>
+      <c r="W26">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="1"/>
+        <v>1.6304339999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>82800</v>
       </c>
@@ -1553,11 +1904,25 @@
       <c r="S27">
         <v>230</v>
       </c>
-      <c r="T27" s="1">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T27" s="7">
+        <v>3.7967249999999999E-3</v>
+      </c>
+      <c r="U27">
+        <f>T29/1086.956</f>
+        <v>3.4995482797831747E-6</v>
+      </c>
+      <c r="V27">
+        <v>230</v>
+      </c>
+      <c r="W27">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="1"/>
+        <v>1.6304339999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="1"/>
       <c r="M28">
@@ -1575,60 +1940,622 @@
       <c r="S28">
         <v>240</v>
       </c>
-      <c r="T28" s="1">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T28" s="7">
+        <v>3.8002900000000004E-3</v>
+      </c>
+      <c r="U28">
+        <f>T30/1086.956</f>
+        <v>3.4962684782088704E-6</v>
+      </c>
+      <c r="V28">
+        <v>240</v>
+      </c>
+      <c r="W28">
+        <v>1E-3</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="1"/>
+        <v>1.086956</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="S29">
         <v>250</v>
       </c>
-      <c r="T29" s="1">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T29" s="7">
+        <v>3.8038550000000001E-3</v>
+      </c>
+      <c r="U29">
+        <f>T31/1086.956</f>
+        <v>3.4995482797831747E-6</v>
+      </c>
+      <c r="V29">
+        <v>250</v>
+      </c>
+      <c r="W29">
+        <v>1E-3</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="1"/>
+        <v>1.086956</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="S30">
         <v>260</v>
       </c>
-      <c r="T30" s="1">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T30" s="7">
+        <v>3.8002900000000004E-3</v>
+      </c>
+      <c r="U30">
+        <f>T32/1086.956</f>
+        <v>3.4962684782088704E-6</v>
+      </c>
+      <c r="V30">
+        <v>260</v>
+      </c>
+      <c r="W30">
+        <v>1E-3</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="1"/>
+        <v>1.086956</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="S31">
         <v>270</v>
       </c>
-      <c r="T31" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T31" s="7">
+        <v>3.8038550000000001E-3</v>
+      </c>
+      <c r="U31">
+        <f>T33/1086.956</f>
+        <v>3.4995482797831747E-6</v>
+      </c>
+      <c r="V31">
+        <v>270</v>
+      </c>
+      <c r="W31">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="1"/>
+        <v>1.7391295999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="S32">
         <v>280</v>
       </c>
-      <c r="T32" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="19:20" x14ac:dyDescent="0.3">
+      <c r="T32" s="7">
+        <v>3.8002900000000004E-3</v>
+      </c>
+      <c r="U32">
+        <f>T34/1086.956</f>
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>280</v>
+      </c>
+      <c r="W32">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" si="1"/>
+        <v>1.7391295999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="5:25" x14ac:dyDescent="0.3">
+      <c r="G33">
+        <v>1.7391296000000001</v>
+      </c>
       <c r="S33">
         <v>290</v>
       </c>
-      <c r="T33" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="19:20" x14ac:dyDescent="0.3">
+      <c r="T33" s="7">
+        <v>3.8038550000000001E-3</v>
+      </c>
+      <c r="U33" t="e">
+        <f>#REF!/1086.956</f>
+        <v>#REF!</v>
+      </c>
+      <c r="V33">
+        <v>290</v>
+      </c>
+      <c r="W33">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" si="1"/>
+        <v>1.7391295999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="5:25" x14ac:dyDescent="0.3">
       <c r="S34">
         <v>200000</v>
       </c>
-      <c r="T34" s="1">
-        <v>1</v>
+      <c r="T34" s="7"/>
+      <c r="U34" t="e">
+        <f>#REF!/1086.956</f>
+        <v>#REF!</v>
+      </c>
+      <c r="V34">
+        <v>200000</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="5:25" x14ac:dyDescent="0.3">
+      <c r="G35">
+        <f>G33/0.388218</f>
+        <v>4.4797757960733406</v>
+      </c>
+    </row>
+    <row r="39" spans="5:25" x14ac:dyDescent="0.3">
+      <c r="E39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="5:25" x14ac:dyDescent="0.3">
+      <c r="E40" t="s">
+        <v>0</v>
+      </c>
+      <c r="J40" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="5:25" x14ac:dyDescent="0.3">
+      <c r="E41" t="s">
+        <v>10</v>
+      </c>
+      <c r="J41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="5:25" x14ac:dyDescent="0.3">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42" s="6">
+        <v>4.82</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42" s="6">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="43" spans="5:25" x14ac:dyDescent="0.3">
+      <c r="E43">
+        <v>10</v>
+      </c>
+      <c r="F43" s="6">
+        <v>4.8100000000000005</v>
+      </c>
+      <c r="J43">
+        <v>10</v>
+      </c>
+      <c r="K43" s="6">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="44" spans="5:25" x14ac:dyDescent="0.3">
+      <c r="E44">
+        <v>20</v>
+      </c>
+      <c r="F44" s="6">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="J44">
+        <v>20</v>
+      </c>
+      <c r="K44" s="6">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="45" spans="5:25" x14ac:dyDescent="0.3">
+      <c r="E45">
+        <v>30</v>
+      </c>
+      <c r="F45" s="6">
+        <v>4.72</v>
+      </c>
+      <c r="J45">
+        <v>30</v>
+      </c>
+      <c r="K45" s="6">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="46" spans="5:25" x14ac:dyDescent="0.3">
+      <c r="E46">
+        <v>40</v>
+      </c>
+      <c r="F46" s="6">
+        <v>4.6899999999999995</v>
+      </c>
+      <c r="J46">
+        <v>40</v>
+      </c>
+      <c r="K46" s="6">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="47" spans="5:25" x14ac:dyDescent="0.3">
+      <c r="E47">
+        <v>50</v>
+      </c>
+      <c r="F47" s="6">
+        <v>4.62</v>
+      </c>
+      <c r="J47">
+        <v>50</v>
+      </c>
+      <c r="K47" s="6">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="48" spans="5:25" x14ac:dyDescent="0.3">
+      <c r="E48">
+        <v>60</v>
+      </c>
+      <c r="F48" s="6">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J48">
+        <v>60</v>
+      </c>
+      <c r="K48" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E49">
+        <v>70</v>
+      </c>
+      <c r="F49" s="6">
+        <v>4.76</v>
+      </c>
+      <c r="J49">
+        <v>70</v>
+      </c>
+      <c r="K49" s="6">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="50" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E50">
+        <v>80</v>
+      </c>
+      <c r="F50" s="6">
+        <v>4.82</v>
+      </c>
+      <c r="J50">
+        <v>80</v>
+      </c>
+      <c r="K50" s="6">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="51" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E51">
+        <v>90</v>
+      </c>
+      <c r="F51" s="6">
+        <v>4.83</v>
+      </c>
+      <c r="J51">
+        <v>90</v>
+      </c>
+      <c r="K51" s="6">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="52" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E52">
+        <v>100</v>
+      </c>
+      <c r="F52" s="6">
+        <v>4.79</v>
+      </c>
+      <c r="J52">
+        <v>100</v>
+      </c>
+      <c r="K52" s="6">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="53" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E53">
+        <v>110</v>
+      </c>
+      <c r="F53" s="6">
+        <v>4.72</v>
+      </c>
+      <c r="J53">
+        <v>110</v>
+      </c>
+      <c r="K53" s="6">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="54" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E54">
+        <v>120</v>
+      </c>
+      <c r="F54" s="6">
+        <v>4.6899999999999995</v>
+      </c>
+      <c r="J54">
+        <v>120</v>
+      </c>
+      <c r="K54" s="6">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="55" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E55">
+        <v>130</v>
+      </c>
+      <c r="F55" s="6">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="J55">
+        <v>130</v>
+      </c>
+      <c r="K55" s="6">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="56" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E56">
+        <v>140</v>
+      </c>
+      <c r="F56" s="6">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="J56">
+        <v>140</v>
+      </c>
+      <c r="K56" s="6">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="57" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E57">
+        <v>150</v>
+      </c>
+      <c r="F57" s="6">
+        <v>4.68</v>
+      </c>
+      <c r="J57">
+        <v>150</v>
+      </c>
+      <c r="K57" s="6">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="58" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E58">
+        <v>160</v>
+      </c>
+      <c r="F58" s="6">
+        <v>4.72</v>
+      </c>
+      <c r="J58">
+        <v>160</v>
+      </c>
+      <c r="K58" s="6">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="59" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E59">
+        <v>170</v>
+      </c>
+      <c r="F59" s="6">
+        <v>4.78</v>
+      </c>
+      <c r="J59">
+        <v>170</v>
+      </c>
+      <c r="K59" s="6">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="60" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E60">
+        <v>180</v>
+      </c>
+      <c r="F60" s="6">
+        <v>4.8</v>
+      </c>
+      <c r="J60">
+        <v>180</v>
+      </c>
+      <c r="K60" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E61">
+        <v>190</v>
+      </c>
+      <c r="F61" s="6">
+        <v>4.8100000000000005</v>
+      </c>
+      <c r="J61">
+        <v>190</v>
+      </c>
+      <c r="K61" s="6">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="62" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E62">
+        <v>200</v>
+      </c>
+      <c r="F62" s="6">
+        <v>4.83</v>
+      </c>
+      <c r="J62">
+        <v>200</v>
+      </c>
+      <c r="K62" s="6">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="63" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E63">
+        <v>210</v>
+      </c>
+      <c r="F63" s="6">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="J63">
+        <v>210</v>
+      </c>
+      <c r="K63" s="6">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="64" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E64">
+        <v>220</v>
+      </c>
+      <c r="F64" s="6">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="J64">
+        <v>220</v>
+      </c>
+      <c r="K64" s="6">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="65" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E65">
+        <v>230</v>
+      </c>
+      <c r="F65" s="6">
+        <v>4.87</v>
+      </c>
+      <c r="J65">
+        <v>230</v>
+      </c>
+      <c r="K65" s="6">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="66" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E66">
+        <v>240</v>
+      </c>
+      <c r="F66" s="6">
+        <v>4.87</v>
+      </c>
+      <c r="J66">
+        <v>240</v>
+      </c>
+      <c r="K66" s="6">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="67" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E67">
+        <v>250</v>
+      </c>
+      <c r="F67" s="6">
+        <v>4.87</v>
+      </c>
+      <c r="J67">
+        <v>250</v>
+      </c>
+      <c r="K67" s="6">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="68" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E68">
+        <v>260</v>
+      </c>
+      <c r="F68" s="6">
+        <v>4.87</v>
+      </c>
+      <c r="J68">
+        <v>260</v>
+      </c>
+      <c r="K68" s="6">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="69" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E69">
+        <v>270</v>
+      </c>
+      <c r="F69" s="6">
+        <v>4.87</v>
+      </c>
+      <c r="J69">
+        <v>270</v>
+      </c>
+      <c r="K69" s="6">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="70" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E70">
+        <v>280</v>
+      </c>
+      <c r="F70" s="6">
+        <v>4.87</v>
+      </c>
+      <c r="J70">
+        <v>280</v>
+      </c>
+      <c r="K70" s="6">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="71" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E71">
+        <v>290</v>
+      </c>
+      <c r="F71" s="6">
+        <v>4.87</v>
+      </c>
+      <c r="J71">
+        <v>290</v>
+      </c>
+      <c r="K71" s="6">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="72" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E72">
+        <v>200000</v>
+      </c>
+      <c r="F72" s="6">
+        <v>4.87</v>
+      </c>
+      <c r="J72">
+        <v>200000</v>
+      </c>
+      <c r="K72" s="6">
+        <v>6.3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="E39:F39"/>
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="A1:B1"/>
@@ -1638,6 +2565,7 @@
     <mergeCell ref="M1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Electrolyser/Text/Txt creator(hourly).xlsx
+++ b/Electrolyser/Text/Txt creator(hourly).xlsx
@@ -11,12 +11,29 @@
     <sheet name="Sayfa2" sheetId="2" r:id="rId2"/>
     <sheet name="Sayfa3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="heat_demand" localSheetId="1">Sayfa2!$A$1:$C$194</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="heat_demand" type="6" refreshedVersion="4" background="1" saveData="1">
+    <textPr codePage="857" sourceFile="C:\Users\Caner\Desktop\Multi-Energy-Systems-Thesis-Project\Co_simulation\heat_demand.txt" space="1" comma="1" semicolon="1" consecutive="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="22">
   <si>
     <t>#1</t>
   </si>
@@ -70,6 +87,18 @@
   </si>
   <si>
     <t>PV farm</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>tab1(192</t>
+  </si>
+  <si>
+    <t>2)</t>
+  </si>
+  <si>
+    <t>Flexibility</t>
   </si>
 </sst>
 </file>
@@ -162,6 +191,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="heat_demand" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -451,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF269"/>
+  <dimension ref="A1:AF656"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A231" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M260" sqref="M260"/>
+    <sheetView tabSelected="1" topLeftCell="A616" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G272" sqref="G272:H656"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16093,8 +16126,5972 @@
         <v>691200</v>
       </c>
     </row>
+    <row r="271" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="D271" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E271" s="9"/>
+    </row>
+    <row r="272" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="D272" t="s">
+        <v>0</v>
+      </c>
+      <c r="G272" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D273" t="s">
+        <v>12</v>
+      </c>
+      <c r="G273" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="274" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B274" s="7">
+        <v>0</v>
+      </c>
+      <c r="D274">
+        <v>0</v>
+      </c>
+      <c r="E274" s="6">
+        <v>3.7860300000000001E-3</v>
+      </c>
+      <c r="F274" s="7">
+        <v>0</v>
+      </c>
+      <c r="G274">
+        <v>0</v>
+      </c>
+      <c r="H274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B275" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D275">
+        <v>3600</v>
+      </c>
+      <c r="E275" s="6">
+        <v>3.782465E-3</v>
+      </c>
+      <c r="F275" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="G275">
+        <v>1800</v>
+      </c>
+      <c r="H275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B276" s="7">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="D276">
+        <v>7200</v>
+      </c>
+      <c r="E276" s="6">
+        <v>3.7682050000000002E-3</v>
+      </c>
+      <c r="F276" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G276">
+        <v>3600</v>
+      </c>
+      <c r="H276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B277" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="D277">
+        <v>10800</v>
+      </c>
+      <c r="E277" s="6">
+        <v>3.7503800000000002E-3</v>
+      </c>
+      <c r="F277" s="7">
+        <v>6.25E-2</v>
+      </c>
+      <c r="G277">
+        <v>5400</v>
+      </c>
+      <c r="H277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B278" s="7">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="D278">
+        <v>14400</v>
+      </c>
+      <c r="E278" s="6">
+        <v>3.739685E-3</v>
+      </c>
+      <c r="F278" s="7">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="G278">
+        <v>7200</v>
+      </c>
+      <c r="H278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B279" s="7">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="D279">
+        <v>18000</v>
+      </c>
+      <c r="E279" s="6">
+        <v>3.7147300000000003E-3</v>
+      </c>
+      <c r="F279" s="7">
+        <v>0.104166666666667</v>
+      </c>
+      <c r="G279">
+        <v>9000</v>
+      </c>
+      <c r="H279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B280" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="D280">
+        <v>21600</v>
+      </c>
+      <c r="E280" s="6">
+        <v>3.7076000000000001E-3</v>
+      </c>
+      <c r="F280" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="G280">
+        <v>10800</v>
+      </c>
+      <c r="H280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B281" s="7">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="D281">
+        <v>25200</v>
+      </c>
+      <c r="E281" s="6">
+        <v>3.7646400000000001E-3</v>
+      </c>
+      <c r="F281" s="7">
+        <v>0.14583333333333301</v>
+      </c>
+      <c r="G281">
+        <v>12600</v>
+      </c>
+      <c r="H281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B282" s="7">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="D282">
+        <v>28800</v>
+      </c>
+      <c r="E282" s="6">
+        <v>3.7860300000000001E-3</v>
+      </c>
+      <c r="F282" s="7">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="G282">
+        <v>14400</v>
+      </c>
+      <c r="H282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B283" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="D283">
+        <v>32400</v>
+      </c>
+      <c r="E283" s="6">
+        <v>3.7895950000000002E-3</v>
+      </c>
+      <c r="F283" s="7">
+        <v>0.1875</v>
+      </c>
+      <c r="G283">
+        <v>16200</v>
+      </c>
+      <c r="H283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B284" s="7">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="D284">
+        <v>36000</v>
+      </c>
+      <c r="E284" s="6">
+        <v>3.7753350000000003E-3</v>
+      </c>
+      <c r="F284" s="7">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="G284">
+        <v>18000</v>
+      </c>
+      <c r="H284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B285" s="7">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="D285">
+        <v>39600</v>
+      </c>
+      <c r="E285" s="6">
+        <v>3.7503800000000002E-3</v>
+      </c>
+      <c r="F285" s="7">
+        <v>0.22916666666666699</v>
+      </c>
+      <c r="G285">
+        <v>19800</v>
+      </c>
+      <c r="H285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B286" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D286">
+        <v>43200</v>
+      </c>
+      <c r="E286" s="6">
+        <v>3.739685E-3</v>
+      </c>
+      <c r="F286" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="G286">
+        <v>21600</v>
+      </c>
+      <c r="H286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B287" s="7">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="D287">
+        <v>46800</v>
+      </c>
+      <c r="E287" s="6">
+        <v>3.72186E-3</v>
+      </c>
+      <c r="F287" s="7">
+        <v>0.27083333333333298</v>
+      </c>
+      <c r="G287">
+        <v>23400</v>
+      </c>
+      <c r="H287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B288" s="7">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="D288">
+        <v>50400</v>
+      </c>
+      <c r="E288" s="6">
+        <v>3.72186E-3</v>
+      </c>
+      <c r="F288" s="7">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G288">
+        <v>25200</v>
+      </c>
+      <c r="H288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B289" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="D289">
+        <v>54000</v>
+      </c>
+      <c r="E289" s="6">
+        <v>3.7361199999999999E-3</v>
+      </c>
+      <c r="F289" s="7">
+        <v>0.3125</v>
+      </c>
+      <c r="G289">
+        <v>27000</v>
+      </c>
+      <c r="H289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B290" s="7">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D290">
+        <v>57600</v>
+      </c>
+      <c r="E290" s="6">
+        <v>3.7503800000000002E-3</v>
+      </c>
+      <c r="F290" s="7">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="G290">
+        <v>28800</v>
+      </c>
+      <c r="H290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B291" s="7">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="D291">
+        <v>61200</v>
+      </c>
+      <c r="E291" s="6">
+        <v>3.7717700000000002E-3</v>
+      </c>
+      <c r="F291" s="7">
+        <v>0.35416666666666702</v>
+      </c>
+      <c r="G291">
+        <v>30600</v>
+      </c>
+      <c r="H291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B292" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D292">
+        <v>64800</v>
+      </c>
+      <c r="E292" s="6">
+        <v>3.7789E-3</v>
+      </c>
+      <c r="F292" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="G292">
+        <v>32400</v>
+      </c>
+      <c r="H292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B293" s="7">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="D293">
+        <v>68400</v>
+      </c>
+      <c r="E293" s="6">
+        <v>3.782465E-3</v>
+      </c>
+      <c r="F293" s="7">
+        <v>0.39583333333333298</v>
+      </c>
+      <c r="G293">
+        <v>34200</v>
+      </c>
+      <c r="H293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B294" s="7">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="D294">
+        <v>72000</v>
+      </c>
+      <c r="E294" s="6">
+        <v>3.7895950000000002E-3</v>
+      </c>
+      <c r="F294" s="7">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="G294">
+        <v>36000</v>
+      </c>
+      <c r="H294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B295" s="7">
+        <v>0.875</v>
+      </c>
+      <c r="D295">
+        <v>75600</v>
+      </c>
+      <c r="E295" s="6">
+        <v>3.7967249999999999E-3</v>
+      </c>
+      <c r="F295" s="7">
+        <v>0.4375</v>
+      </c>
+      <c r="G295">
+        <v>37800</v>
+      </c>
+      <c r="H295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B296" s="7">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="D296">
+        <v>79200</v>
+      </c>
+      <c r="E296" s="6">
+        <v>3.8002900000000004E-3</v>
+      </c>
+      <c r="F296" s="7">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="G296">
+        <v>39600</v>
+      </c>
+      <c r="H296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B297" s="7">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="D297">
+        <v>82800</v>
+      </c>
+      <c r="E297" s="6">
+        <v>3.8038550000000001E-3</v>
+      </c>
+      <c r="F297" s="7">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="G297">
+        <v>41400</v>
+      </c>
+      <c r="H297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B298" s="7">
+        <v>0</v>
+      </c>
+      <c r="D298">
+        <v>86400</v>
+      </c>
+      <c r="E298" s="6">
+        <v>3.72186E-3</v>
+      </c>
+      <c r="F298" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G298">
+        <v>43200</v>
+      </c>
+      <c r="H298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B299" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D299">
+        <v>90000</v>
+      </c>
+      <c r="E299" s="6">
+        <v>3.7147300000000003E-3</v>
+      </c>
+      <c r="F299" s="7">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="G299">
+        <v>45000</v>
+      </c>
+      <c r="H299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B300" s="7">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="D300">
+        <v>93600</v>
+      </c>
+      <c r="E300" s="6">
+        <v>3.7147300000000003E-3</v>
+      </c>
+      <c r="F300" s="7">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="G300">
+        <v>46800</v>
+      </c>
+      <c r="H300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B301" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="D301">
+        <v>97200</v>
+      </c>
+      <c r="E301" s="6">
+        <v>3.7182949999999999E-3</v>
+      </c>
+      <c r="F301" s="7">
+        <v>0.5625</v>
+      </c>
+      <c r="G301">
+        <v>48600</v>
+      </c>
+      <c r="H301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B302" s="7">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="D302">
+        <v>100800</v>
+      </c>
+      <c r="E302" s="6">
+        <v>3.7182949999999999E-3</v>
+      </c>
+      <c r="F302" s="7">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="G302">
+        <v>50400</v>
+      </c>
+      <c r="H302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B303" s="7">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="D303">
+        <v>104400</v>
+      </c>
+      <c r="E303" s="6">
+        <v>3.7076000000000001E-3</v>
+      </c>
+      <c r="F303" s="7">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="G303">
+        <v>52200</v>
+      </c>
+      <c r="H303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B304" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="D304">
+        <v>108000</v>
+      </c>
+      <c r="E304" s="6">
+        <v>3.70047E-3</v>
+      </c>
+      <c r="F304" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="G304">
+        <v>54000</v>
+      </c>
+      <c r="H304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B305" s="7">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="D305">
+        <v>111600</v>
+      </c>
+      <c r="E305" s="6">
+        <v>3.7040350000000001E-3</v>
+      </c>
+      <c r="F305" s="7">
+        <v>0.64583333333333304</v>
+      </c>
+      <c r="G305">
+        <v>55800</v>
+      </c>
+      <c r="H305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B306" s="7">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="D306">
+        <v>115200</v>
+      </c>
+      <c r="E306" s="6">
+        <v>3.6969050000000003E-3</v>
+      </c>
+      <c r="F306" s="7">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="G306">
+        <v>57600</v>
+      </c>
+      <c r="H306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B307" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="D307">
+        <v>118800</v>
+      </c>
+      <c r="E307" s="6">
+        <v>3.6933400000000003E-3</v>
+      </c>
+      <c r="F307" s="7">
+        <v>0.6875</v>
+      </c>
+      <c r="G307">
+        <v>59400</v>
+      </c>
+      <c r="H307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B308" s="7">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="D308">
+        <v>122400</v>
+      </c>
+      <c r="E308" s="6">
+        <v>3.6969050000000003E-3</v>
+      </c>
+      <c r="F308" s="7">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="G308">
+        <v>61200</v>
+      </c>
+      <c r="H308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B309" s="7">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="D309">
+        <v>126000</v>
+      </c>
+      <c r="E309" s="6">
+        <v>3.6933400000000003E-3</v>
+      </c>
+      <c r="F309" s="7">
+        <v>0.72916666666666696</v>
+      </c>
+      <c r="G309">
+        <v>63000</v>
+      </c>
+      <c r="H309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B310" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D310">
+        <v>129600</v>
+      </c>
+      <c r="E310" s="6">
+        <v>3.7040350000000001E-3</v>
+      </c>
+      <c r="F310" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G310">
+        <v>64800</v>
+      </c>
+      <c r="H310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B311" s="7">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="D311">
+        <v>133200</v>
+      </c>
+      <c r="E311" s="6">
+        <v>3.682645E-3</v>
+      </c>
+      <c r="F311" s="7">
+        <v>0.77083333333333304</v>
+      </c>
+      <c r="G311">
+        <v>66600</v>
+      </c>
+      <c r="H311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B312" s="7">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="D312">
+        <v>136800</v>
+      </c>
+      <c r="E312" s="6">
+        <v>3.6755149999999999E-3</v>
+      </c>
+      <c r="F312" s="7">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="G312">
+        <v>68400</v>
+      </c>
+      <c r="H312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B313" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="D313">
+        <v>140400</v>
+      </c>
+      <c r="E313" s="6">
+        <v>3.6755149999999999E-3</v>
+      </c>
+      <c r="F313" s="7">
+        <v>0.8125</v>
+      </c>
+      <c r="G313">
+        <v>70200</v>
+      </c>
+      <c r="H313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B314" s="7">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D314">
+        <v>144000</v>
+      </c>
+      <c r="E314" s="6">
+        <v>3.6933400000000003E-3</v>
+      </c>
+      <c r="F314" s="7">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="G314">
+        <v>72000</v>
+      </c>
+      <c r="H314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B315" s="7">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="D315">
+        <v>147600</v>
+      </c>
+      <c r="E315" s="6">
+        <v>3.70047E-3</v>
+      </c>
+      <c r="F315" s="7">
+        <v>0.85416666666666696</v>
+      </c>
+      <c r="G315">
+        <v>73800</v>
+      </c>
+      <c r="H315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B316" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D316">
+        <v>151200</v>
+      </c>
+      <c r="E316" s="6">
+        <v>3.7361199999999999E-3</v>
+      </c>
+      <c r="F316" s="7">
+        <v>0.875</v>
+      </c>
+      <c r="G316">
+        <v>75600</v>
+      </c>
+      <c r="H316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B317" s="7">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="D317">
+        <v>154800</v>
+      </c>
+      <c r="E317" s="6">
+        <v>3.7717700000000002E-3</v>
+      </c>
+      <c r="F317" s="7">
+        <v>0.89583333333333304</v>
+      </c>
+      <c r="G317">
+        <v>77400</v>
+      </c>
+      <c r="H317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B318" s="7">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="D318">
+        <v>158400</v>
+      </c>
+      <c r="E318" s="6">
+        <v>3.782465E-3</v>
+      </c>
+      <c r="F318" s="7">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="G318">
+        <v>79200</v>
+      </c>
+      <c r="H318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B319" s="7">
+        <v>0.875</v>
+      </c>
+      <c r="D319">
+        <v>162000</v>
+      </c>
+      <c r="E319" s="6">
+        <v>3.7967249999999999E-3</v>
+      </c>
+      <c r="F319" s="7">
+        <v>0.9375</v>
+      </c>
+      <c r="G319">
+        <v>81000</v>
+      </c>
+      <c r="H319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B320" s="7">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="D320">
+        <v>165600</v>
+      </c>
+      <c r="E320" s="6">
+        <v>3.82168E-3</v>
+      </c>
+      <c r="F320" s="7">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="G320">
+        <v>82800</v>
+      </c>
+      <c r="H320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B321" s="7">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="D321">
+        <v>169200</v>
+      </c>
+      <c r="E321" s="6">
+        <v>3.8466350000000002E-3</v>
+      </c>
+      <c r="F321" s="7">
+        <v>0.97916666666666696</v>
+      </c>
+      <c r="G321">
+        <v>84600</v>
+      </c>
+      <c r="H321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B322" s="7">
+        <v>0</v>
+      </c>
+      <c r="D322">
+        <v>172800</v>
+      </c>
+      <c r="E322" s="6">
+        <v>3.839505E-3</v>
+      </c>
+      <c r="F322" s="7">
+        <v>1</v>
+      </c>
+      <c r="G322">
+        <v>86400</v>
+      </c>
+      <c r="H322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B323" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D323">
+        <v>176400</v>
+      </c>
+      <c r="E323" s="6">
+        <v>3.8323750000000003E-3</v>
+      </c>
+      <c r="F323" s="7">
+        <v>1.0208333333333299</v>
+      </c>
+      <c r="G323">
+        <v>88200</v>
+      </c>
+      <c r="H323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B324" s="7">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="D324">
+        <v>180000</v>
+      </c>
+      <c r="E324" s="6">
+        <v>3.8502000000000007E-3</v>
+      </c>
+      <c r="F324" s="7">
+        <v>1.0416666666666701</v>
+      </c>
+      <c r="G324">
+        <v>90000</v>
+      </c>
+      <c r="H324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B325" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="D325">
+        <v>183600</v>
+      </c>
+      <c r="E325" s="6">
+        <v>3.8466350000000002E-3</v>
+      </c>
+      <c r="F325" s="7">
+        <v>1.0625</v>
+      </c>
+      <c r="G325">
+        <v>91800</v>
+      </c>
+      <c r="H325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B326" s="7">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="D326">
+        <v>187200</v>
+      </c>
+      <c r="E326" s="6">
+        <v>3.8537649999999999E-3</v>
+      </c>
+      <c r="F326" s="7">
+        <v>1.0833333333333299</v>
+      </c>
+      <c r="G326">
+        <v>93600</v>
+      </c>
+      <c r="H326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B327" s="7">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="D327">
+        <v>190800</v>
+      </c>
+      <c r="E327" s="6">
+        <v>3.8537649999999999E-3</v>
+      </c>
+      <c r="F327" s="7">
+        <v>1.1041666666666701</v>
+      </c>
+      <c r="G327">
+        <v>95400</v>
+      </c>
+      <c r="H327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B328" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="D328">
+        <v>194400</v>
+      </c>
+      <c r="E328" s="6">
+        <v>3.839505E-3</v>
+      </c>
+      <c r="F328" s="7">
+        <v>1.125</v>
+      </c>
+      <c r="G328">
+        <v>97200</v>
+      </c>
+      <c r="H328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B329" s="7">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="D329">
+        <v>198000</v>
+      </c>
+      <c r="E329" s="6">
+        <v>3.8109850000000002E-3</v>
+      </c>
+      <c r="F329" s="7">
+        <v>1.1458333333333299</v>
+      </c>
+      <c r="G329">
+        <v>99000</v>
+      </c>
+      <c r="H329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B330" s="7">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="D330">
+        <v>201600</v>
+      </c>
+      <c r="E330" s="6">
+        <v>3.74325E-3</v>
+      </c>
+      <c r="F330" s="7">
+        <v>1.1666666666666701</v>
+      </c>
+      <c r="G330">
+        <v>100800</v>
+      </c>
+      <c r="H330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B331" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="D331">
+        <v>205200</v>
+      </c>
+      <c r="E331" s="6">
+        <v>3.6969050000000003E-3</v>
+      </c>
+      <c r="F331" s="7">
+        <v>1.1875</v>
+      </c>
+      <c r="G331">
+        <v>102600</v>
+      </c>
+      <c r="H331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B332" s="7">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="D332">
+        <v>208800</v>
+      </c>
+      <c r="E332" s="6">
+        <v>3.6184750000000003E-3</v>
+      </c>
+      <c r="F332" s="7">
+        <v>1.2083333333333299</v>
+      </c>
+      <c r="G332">
+        <v>104400</v>
+      </c>
+      <c r="H332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B333" s="7">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="D333">
+        <v>212400</v>
+      </c>
+      <c r="E333" s="6">
+        <v>3.661255E-3</v>
+      </c>
+      <c r="F333" s="7">
+        <v>1.2291666666666701</v>
+      </c>
+      <c r="G333">
+        <v>106200</v>
+      </c>
+      <c r="H333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B334" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D334">
+        <v>216000</v>
+      </c>
+      <c r="E334" s="6">
+        <v>3.582825E-3</v>
+      </c>
+      <c r="F334" s="7">
+        <v>1.25</v>
+      </c>
+      <c r="G334">
+        <v>108000</v>
+      </c>
+      <c r="H334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B335" s="7">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="D335">
+        <v>219600</v>
+      </c>
+      <c r="E335" s="6">
+        <v>3.5471750000000001E-3</v>
+      </c>
+      <c r="F335" s="7">
+        <v>1.2708333333333299</v>
+      </c>
+      <c r="G335">
+        <v>109800</v>
+      </c>
+      <c r="H335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B336" s="7">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="D336">
+        <v>223200</v>
+      </c>
+      <c r="E336" s="6">
+        <v>3.5756950000000003E-3</v>
+      </c>
+      <c r="F336" s="7">
+        <v>1.2916666666666701</v>
+      </c>
+      <c r="G336">
+        <v>111600</v>
+      </c>
+      <c r="H336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B337" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="D337">
+        <v>226800</v>
+      </c>
+      <c r="E337" s="6">
+        <v>3.5293500000000001E-3</v>
+      </c>
+      <c r="F337" s="7">
+        <v>1.3125</v>
+      </c>
+      <c r="G337">
+        <v>113400</v>
+      </c>
+      <c r="H337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B338" s="7">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D338">
+        <v>230400</v>
+      </c>
+      <c r="E338" s="6">
+        <v>3.5079600000000001E-3</v>
+      </c>
+      <c r="F338" s="7">
+        <v>1.3333333333333299</v>
+      </c>
+      <c r="G338">
+        <v>115200</v>
+      </c>
+      <c r="H338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B339" s="7">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="D339">
+        <v>234000</v>
+      </c>
+      <c r="E339" s="6">
+        <v>3.5150900000000002E-3</v>
+      </c>
+      <c r="F339" s="7">
+        <v>1.3541666666666701</v>
+      </c>
+      <c r="G339">
+        <v>117000</v>
+      </c>
+      <c r="H339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B340" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D340">
+        <v>237600</v>
+      </c>
+      <c r="E340" s="6">
+        <v>3.5079600000000001E-3</v>
+      </c>
+      <c r="F340" s="7">
+        <v>1.375</v>
+      </c>
+      <c r="G340">
+        <v>118800</v>
+      </c>
+      <c r="H340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B341" s="7">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="D341">
+        <v>241200</v>
+      </c>
+      <c r="E341" s="6">
+        <v>3.525785E-3</v>
+      </c>
+      <c r="F341" s="7">
+        <v>1.3958333333333299</v>
+      </c>
+      <c r="G341">
+        <v>120600</v>
+      </c>
+      <c r="H341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B342" s="7">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="D342">
+        <v>244800</v>
+      </c>
+      <c r="E342" s="6">
+        <v>3.5471750000000001E-3</v>
+      </c>
+      <c r="F342" s="7">
+        <v>1.4166666666666701</v>
+      </c>
+      <c r="G342">
+        <v>122400</v>
+      </c>
+      <c r="H342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B343" s="7">
+        <v>0.875</v>
+      </c>
+      <c r="D343">
+        <v>248400</v>
+      </c>
+      <c r="E343" s="6">
+        <v>3.5935200000000002E-3</v>
+      </c>
+      <c r="F343" s="7">
+        <v>1.4375</v>
+      </c>
+      <c r="G343">
+        <v>124200</v>
+      </c>
+      <c r="H343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B344" s="7">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="D344">
+        <v>252000</v>
+      </c>
+      <c r="E344" s="6">
+        <v>3.6291700000000001E-3</v>
+      </c>
+      <c r="F344" s="7">
+        <v>1.4583333333333299</v>
+      </c>
+      <c r="G344">
+        <v>126000</v>
+      </c>
+      <c r="H344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B345" s="7">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="D345">
+        <v>255600</v>
+      </c>
+      <c r="E345" s="6">
+        <v>3.6327350000000002E-3</v>
+      </c>
+      <c r="F345" s="7">
+        <v>1.4791666666666701</v>
+      </c>
+      <c r="G345">
+        <v>127800</v>
+      </c>
+      <c r="H345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B346" s="7">
+        <v>0</v>
+      </c>
+      <c r="D346">
+        <v>259200</v>
+      </c>
+      <c r="E346" s="6">
+        <v>3.4366600000000002E-3</v>
+      </c>
+      <c r="F346" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="G346">
+        <v>129600</v>
+      </c>
+      <c r="H346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B347" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D347">
+        <v>262800</v>
+      </c>
+      <c r="E347" s="6">
+        <v>3.4223999999999999E-3</v>
+      </c>
+      <c r="F347" s="7">
+        <v>1.5208333333333299</v>
+      </c>
+      <c r="G347">
+        <v>131400</v>
+      </c>
+      <c r="H347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B348" s="7">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="D348">
+        <v>266400</v>
+      </c>
+      <c r="E348" s="6">
+        <v>3.4366600000000002E-3</v>
+      </c>
+      <c r="F348" s="7">
+        <v>1.5416666666666701</v>
+      </c>
+      <c r="G348">
+        <v>133200</v>
+      </c>
+      <c r="H348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B349" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="D349">
+        <v>270000</v>
+      </c>
+      <c r="E349" s="6">
+        <v>3.4580500000000003E-3</v>
+      </c>
+      <c r="F349" s="7">
+        <v>1.5625</v>
+      </c>
+      <c r="G349">
+        <v>135000</v>
+      </c>
+      <c r="H349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B350" s="7">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="D350">
+        <v>273600</v>
+      </c>
+      <c r="E350" s="6">
+        <v>3.4758750000000002E-3</v>
+      </c>
+      <c r="F350" s="7">
+        <v>1.5833333333333299</v>
+      </c>
+      <c r="G350">
+        <v>136800</v>
+      </c>
+      <c r="H350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B351" s="7">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="D351">
+        <v>277200</v>
+      </c>
+      <c r="E351" s="6">
+        <v>3.4937000000000002E-3</v>
+      </c>
+      <c r="F351" s="7">
+        <v>1.6041666666666701</v>
+      </c>
+      <c r="G351">
+        <v>138600</v>
+      </c>
+      <c r="H351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B352" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="D352">
+        <v>280800</v>
+      </c>
+      <c r="E352" s="6">
+        <v>3.4972650000000003E-3</v>
+      </c>
+      <c r="F352" s="7">
+        <v>1.625</v>
+      </c>
+      <c r="G352">
+        <v>140400</v>
+      </c>
+      <c r="H352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B353" s="7">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="D353">
+        <v>284400</v>
+      </c>
+      <c r="E353" s="6">
+        <v>3.447355E-3</v>
+      </c>
+      <c r="F353" s="7">
+        <v>1.6458333333333299</v>
+      </c>
+      <c r="G353">
+        <v>142200</v>
+      </c>
+      <c r="H353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B354" s="7">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="D354">
+        <v>288000</v>
+      </c>
+      <c r="E354" s="6">
+        <v>3.3938800000000002E-3</v>
+      </c>
+      <c r="F354" s="7">
+        <v>1.6666666666666701</v>
+      </c>
+      <c r="G354">
+        <v>144000</v>
+      </c>
+      <c r="H354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B355" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="D355">
+        <v>291600</v>
+      </c>
+      <c r="E355" s="6">
+        <v>3.3190150000000002E-3</v>
+      </c>
+      <c r="F355" s="7">
+        <v>1.6875</v>
+      </c>
+      <c r="G355">
+        <v>145800</v>
+      </c>
+      <c r="H355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B356" s="7">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="D356">
+        <v>295200</v>
+      </c>
+      <c r="E356" s="6">
+        <v>3.2370200000000002E-3</v>
+      </c>
+      <c r="F356" s="7">
+        <v>1.7083333333333299</v>
+      </c>
+      <c r="G356">
+        <v>147600</v>
+      </c>
+      <c r="H356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B357" s="7">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="D357">
+        <v>298800</v>
+      </c>
+      <c r="E357" s="6">
+        <v>3.1585900000000002E-3</v>
+      </c>
+      <c r="F357" s="7">
+        <v>1.7291666666666701</v>
+      </c>
+      <c r="G357">
+        <v>149400</v>
+      </c>
+      <c r="H357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B358" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D358">
+        <v>302400</v>
+      </c>
+      <c r="E358" s="6">
+        <v>3.1978050000000002E-3</v>
+      </c>
+      <c r="F358" s="7">
+        <v>1.75</v>
+      </c>
+      <c r="G358">
+        <v>151200</v>
+      </c>
+      <c r="H358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B359" s="7">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="D359">
+        <v>306000</v>
+      </c>
+      <c r="E359" s="6">
+        <v>3.2156300000000001E-3</v>
+      </c>
+      <c r="F359" s="7">
+        <v>1.7708333333333299</v>
+      </c>
+      <c r="G359">
+        <v>153000</v>
+      </c>
+      <c r="H359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B360" s="7">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="D360">
+        <v>309600</v>
+      </c>
+      <c r="E360" s="6">
+        <v>3.1657200000000003E-3</v>
+      </c>
+      <c r="F360" s="7">
+        <v>1.7916666666666701</v>
+      </c>
+      <c r="G360">
+        <v>154800</v>
+      </c>
+      <c r="H360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B361" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="D361">
+        <v>313200</v>
+      </c>
+      <c r="E361" s="6">
+        <v>3.1728500000000001E-3</v>
+      </c>
+      <c r="F361" s="7">
+        <v>1.8125</v>
+      </c>
+      <c r="G361">
+        <v>156600</v>
+      </c>
+      <c r="H361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B362" s="7">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D362">
+        <v>316800</v>
+      </c>
+      <c r="E362" s="6">
+        <v>3.1372000000000001E-3</v>
+      </c>
+      <c r="F362" s="7">
+        <v>1.8333333333333299</v>
+      </c>
+      <c r="G362">
+        <v>158400</v>
+      </c>
+      <c r="H362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B363" s="7">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="D363">
+        <v>320400</v>
+      </c>
+      <c r="E363" s="6">
+        <v>3.1372000000000001E-3</v>
+      </c>
+      <c r="F363" s="7">
+        <v>1.8541666666666701</v>
+      </c>
+      <c r="G363">
+        <v>160200</v>
+      </c>
+      <c r="H363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B364" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D364">
+        <v>324000</v>
+      </c>
+      <c r="E364" s="6">
+        <v>3.1372000000000001E-3</v>
+      </c>
+      <c r="F364" s="7">
+        <v>1.875</v>
+      </c>
+      <c r="G364">
+        <v>162000</v>
+      </c>
+      <c r="H364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B365" s="7">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="D365">
+        <v>327600</v>
+      </c>
+      <c r="E365" s="6">
+        <v>3.1372000000000001E-3</v>
+      </c>
+      <c r="F365" s="7">
+        <v>1.8958333333333299</v>
+      </c>
+      <c r="G365">
+        <v>163800</v>
+      </c>
+      <c r="H365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B366" s="7">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="D366">
+        <v>331200</v>
+      </c>
+      <c r="E366" s="6">
+        <v>3.1372000000000001E-3</v>
+      </c>
+      <c r="F366" s="7">
+        <v>1.9166666666666701</v>
+      </c>
+      <c r="G366">
+        <v>165600</v>
+      </c>
+      <c r="H366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B367" s="7">
+        <v>0.875</v>
+      </c>
+      <c r="D367">
+        <v>334800</v>
+      </c>
+      <c r="E367" s="6">
+        <v>3.1372000000000001E-3</v>
+      </c>
+      <c r="F367" s="7">
+        <v>1.9375</v>
+      </c>
+      <c r="G367">
+        <v>167400</v>
+      </c>
+      <c r="H367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B368" s="7">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="D368">
+        <v>338400</v>
+      </c>
+      <c r="E368" s="6">
+        <v>3.1407650000000002E-3</v>
+      </c>
+      <c r="F368" s="7">
+        <v>1.9583333333333299</v>
+      </c>
+      <c r="G368">
+        <v>169200</v>
+      </c>
+      <c r="H368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B369" s="7">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="D369">
+        <v>342000</v>
+      </c>
+      <c r="E369" s="6">
+        <v>3.1657200000000003E-3</v>
+      </c>
+      <c r="F369" s="7">
+        <v>1.9791666666666701</v>
+      </c>
+      <c r="G369">
+        <v>171000</v>
+      </c>
+      <c r="H369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B370" s="7">
+        <v>0</v>
+      </c>
+      <c r="D370">
+        <v>345600</v>
+      </c>
+      <c r="E370" s="6">
+        <v>3.36536E-3</v>
+      </c>
+      <c r="F370" s="7">
+        <v>2</v>
+      </c>
+      <c r="G370">
+        <v>172800</v>
+      </c>
+      <c r="H370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B371" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D371">
+        <v>349200</v>
+      </c>
+      <c r="E371" s="6">
+        <v>3.3617950000000003E-3</v>
+      </c>
+      <c r="F371" s="7">
+        <v>2.0208333333333299</v>
+      </c>
+      <c r="G371">
+        <v>174600</v>
+      </c>
+      <c r="H371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B372" s="7">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="D372">
+        <v>352800</v>
+      </c>
+      <c r="E372" s="6">
+        <v>3.3724900000000001E-3</v>
+      </c>
+      <c r="F372" s="7">
+        <v>2.0416666666666701</v>
+      </c>
+      <c r="G372">
+        <v>176400</v>
+      </c>
+      <c r="H372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B373" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="D373">
+        <v>356400</v>
+      </c>
+      <c r="E373" s="6">
+        <v>3.368925E-3</v>
+      </c>
+      <c r="F373" s="7">
+        <v>2.0625</v>
+      </c>
+      <c r="G373">
+        <v>178200</v>
+      </c>
+      <c r="H373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B374" s="7">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="D374">
+        <v>360000</v>
+      </c>
+      <c r="E374" s="6">
+        <v>3.3760550000000002E-3</v>
+      </c>
+      <c r="F374" s="7">
+        <v>2.0833333333333299</v>
+      </c>
+      <c r="G374">
+        <v>180000</v>
+      </c>
+      <c r="H374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B375" s="7">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="D375">
+        <v>363600</v>
+      </c>
+      <c r="E375" s="6">
+        <v>3.38675E-3</v>
+      </c>
+      <c r="F375" s="7">
+        <v>2.1041666666666701</v>
+      </c>
+      <c r="G375">
+        <v>181800</v>
+      </c>
+      <c r="H375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B376" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="D376">
+        <v>367200</v>
+      </c>
+      <c r="E376" s="6">
+        <v>3.38675E-3</v>
+      </c>
+      <c r="F376" s="7">
+        <v>2.125</v>
+      </c>
+      <c r="G376">
+        <v>183600</v>
+      </c>
+      <c r="H376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B377" s="7">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="D377">
+        <v>370800</v>
+      </c>
+      <c r="E377" s="6">
+        <v>3.4152700000000002E-3</v>
+      </c>
+      <c r="F377" s="7">
+        <v>2.1458333333333299</v>
+      </c>
+      <c r="G377">
+        <v>185400</v>
+      </c>
+      <c r="H377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B378" s="7">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="D378">
+        <v>374400</v>
+      </c>
+      <c r="E378" s="6">
+        <v>3.3831849999999999E-3</v>
+      </c>
+      <c r="F378" s="7">
+        <v>2.1666666666666701</v>
+      </c>
+      <c r="G378">
+        <v>187200</v>
+      </c>
+      <c r="H378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B379" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="D379">
+        <v>378000</v>
+      </c>
+      <c r="E379" s="6">
+        <v>3.3617950000000003E-3</v>
+      </c>
+      <c r="F379" s="7">
+        <v>2.1875</v>
+      </c>
+      <c r="G379">
+        <v>189000</v>
+      </c>
+      <c r="H379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B380" s="7">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="D380">
+        <v>381600</v>
+      </c>
+      <c r="E380" s="6">
+        <v>3.3439700000000004E-3</v>
+      </c>
+      <c r="F380" s="7">
+        <v>2.2083333333333299</v>
+      </c>
+      <c r="G380">
+        <v>190800</v>
+      </c>
+      <c r="H380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B381" s="7">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="D381">
+        <v>385200</v>
+      </c>
+      <c r="E381" s="6">
+        <v>3.3118850000000001E-3</v>
+      </c>
+      <c r="F381" s="7">
+        <v>2.2291666666666701</v>
+      </c>
+      <c r="G381">
+        <v>192600</v>
+      </c>
+      <c r="H381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B382" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D382">
+        <v>388800</v>
+      </c>
+      <c r="E382" s="6">
+        <v>3.3011900000000003E-3</v>
+      </c>
+      <c r="F382" s="7">
+        <v>2.25</v>
+      </c>
+      <c r="G382">
+        <v>194400</v>
+      </c>
+      <c r="H382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B383" s="7">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="D383">
+        <v>392400</v>
+      </c>
+      <c r="E383" s="6">
+        <v>3.3974450000000002E-3</v>
+      </c>
+      <c r="F383" s="7">
+        <v>2.2708333333333299</v>
+      </c>
+      <c r="G383">
+        <v>196200</v>
+      </c>
+      <c r="H383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B384" s="7">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="D384">
+        <v>396000</v>
+      </c>
+      <c r="E384" s="6">
+        <v>3.3118850000000001E-3</v>
+      </c>
+      <c r="F384" s="7">
+        <v>2.2916666666666701</v>
+      </c>
+      <c r="G384">
+        <v>198000</v>
+      </c>
+      <c r="H384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B385" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="D385">
+        <v>399600</v>
+      </c>
+      <c r="E385" s="6">
+        <v>3.2548450000000001E-3</v>
+      </c>
+      <c r="F385" s="7">
+        <v>2.3125</v>
+      </c>
+      <c r="G385">
+        <v>199800</v>
+      </c>
+      <c r="H385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B386" s="7">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D386">
+        <v>403200</v>
+      </c>
+      <c r="E386" s="6">
+        <v>3.2512800000000001E-3</v>
+      </c>
+      <c r="F386" s="7">
+        <v>2.3333333333333299</v>
+      </c>
+      <c r="G386">
+        <v>201600</v>
+      </c>
+      <c r="H386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B387" s="7">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="D387">
+        <v>406800</v>
+      </c>
+      <c r="E387" s="6">
+        <v>3.247715E-3</v>
+      </c>
+      <c r="F387" s="7">
+        <v>2.3541666666666701</v>
+      </c>
+      <c r="G387">
+        <v>203400</v>
+      </c>
+      <c r="H387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B388" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D388">
+        <v>410400</v>
+      </c>
+      <c r="E388" s="6">
+        <v>3.2619750000000003E-3</v>
+      </c>
+      <c r="F388" s="7">
+        <v>2.375</v>
+      </c>
+      <c r="G388">
+        <v>205200</v>
+      </c>
+      <c r="H388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B389" s="7">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="D389">
+        <v>414000</v>
+      </c>
+      <c r="E389" s="6">
+        <v>3.28693E-3</v>
+      </c>
+      <c r="F389" s="7">
+        <v>2.3958333333333299</v>
+      </c>
+      <c r="G389">
+        <v>207000</v>
+      </c>
+      <c r="H389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B390" s="7">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="D390">
+        <v>417600</v>
+      </c>
+      <c r="E390" s="6">
+        <v>3.3225800000000003E-3</v>
+      </c>
+      <c r="F390" s="7">
+        <v>2.4166666666666701</v>
+      </c>
+      <c r="G390">
+        <v>208800</v>
+      </c>
+      <c r="H390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B391" s="7">
+        <v>0.875</v>
+      </c>
+      <c r="D391">
+        <v>421200</v>
+      </c>
+      <c r="E391" s="6">
+        <v>3.3511000000000001E-3</v>
+      </c>
+      <c r="F391" s="7">
+        <v>2.4375</v>
+      </c>
+      <c r="G391">
+        <v>210600</v>
+      </c>
+      <c r="H391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B392" s="7">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="D392">
+        <v>424800</v>
+      </c>
+      <c r="E392" s="6">
+        <v>3.3511000000000001E-3</v>
+      </c>
+      <c r="F392" s="7">
+        <v>2.4583333333333299</v>
+      </c>
+      <c r="G392">
+        <v>212400</v>
+      </c>
+      <c r="H392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B393" s="7">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="D393">
+        <v>428400</v>
+      </c>
+      <c r="E393" s="6">
+        <v>3.3546650000000002E-3</v>
+      </c>
+      <c r="F393" s="7">
+        <v>2.4791666666666701</v>
+      </c>
+      <c r="G393">
+        <v>214200</v>
+      </c>
+      <c r="H393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B394" s="7">
+        <v>0</v>
+      </c>
+      <c r="D394">
+        <v>432000</v>
+      </c>
+      <c r="E394" s="6">
+        <v>3.4544850000000002E-3</v>
+      </c>
+      <c r="F394" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="G394">
+        <v>216000</v>
+      </c>
+      <c r="H394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B395" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D395">
+        <v>435600</v>
+      </c>
+      <c r="E395" s="6">
+        <v>3.4580500000000003E-3</v>
+      </c>
+      <c r="F395" s="7">
+        <v>2.5208333333333299</v>
+      </c>
+      <c r="G395">
+        <v>217800</v>
+      </c>
+      <c r="H395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B396" s="7">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="D396">
+        <v>439200</v>
+      </c>
+      <c r="E396" s="6">
+        <v>3.4616150000000004E-3</v>
+      </c>
+      <c r="F396" s="7">
+        <v>2.5416666666666701</v>
+      </c>
+      <c r="G396">
+        <v>219600</v>
+      </c>
+      <c r="H396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B397" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="D397">
+        <v>442800</v>
+      </c>
+      <c r="E397" s="6">
+        <v>3.4616150000000004E-3</v>
+      </c>
+      <c r="F397" s="7">
+        <v>2.5625</v>
+      </c>
+      <c r="G397">
+        <v>221400</v>
+      </c>
+      <c r="H397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B398" s="7">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="D398">
+        <v>446400</v>
+      </c>
+      <c r="E398" s="6">
+        <v>3.46518E-3</v>
+      </c>
+      <c r="F398" s="7">
+        <v>2.5833333333333299</v>
+      </c>
+      <c r="G398">
+        <v>223200</v>
+      </c>
+      <c r="H398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B399" s="7">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="D399">
+        <v>450000</v>
+      </c>
+      <c r="E399" s="6">
+        <v>3.4687450000000001E-3</v>
+      </c>
+      <c r="F399" s="7">
+        <v>2.6041666666666701</v>
+      </c>
+      <c r="G399">
+        <v>225000</v>
+      </c>
+      <c r="H399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B400" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="D400">
+        <v>453600</v>
+      </c>
+      <c r="E400" s="6">
+        <v>3.46518E-3</v>
+      </c>
+      <c r="F400" s="7">
+        <v>2.625</v>
+      </c>
+      <c r="G400">
+        <v>226800</v>
+      </c>
+      <c r="H400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B401" s="7">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="D401">
+        <v>457200</v>
+      </c>
+      <c r="E401" s="6">
+        <v>3.4687450000000001E-3</v>
+      </c>
+      <c r="F401" s="7">
+        <v>2.6458333333333299</v>
+      </c>
+      <c r="G401">
+        <v>228600</v>
+      </c>
+      <c r="H401">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B402" s="7">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="D402">
+        <v>460800</v>
+      </c>
+      <c r="E402" s="6">
+        <v>3.4687450000000001E-3</v>
+      </c>
+      <c r="F402" s="7">
+        <v>2.6666666666666701</v>
+      </c>
+      <c r="G402">
+        <v>230400</v>
+      </c>
+      <c r="H402">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B403" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="D403">
+        <v>464400</v>
+      </c>
+      <c r="E403" s="6">
+        <v>3.4687450000000001E-3</v>
+      </c>
+      <c r="F403" s="7">
+        <v>2.6875</v>
+      </c>
+      <c r="G403">
+        <v>232200</v>
+      </c>
+      <c r="H403">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B404" s="7">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="D404">
+        <v>468000</v>
+      </c>
+      <c r="E404" s="6">
+        <v>3.4580500000000003E-3</v>
+      </c>
+      <c r="F404" s="7">
+        <v>2.7083333333333299</v>
+      </c>
+      <c r="G404">
+        <v>234000</v>
+      </c>
+      <c r="H404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B405" s="7">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="D405">
+        <v>471600</v>
+      </c>
+      <c r="E405" s="6">
+        <v>3.4544850000000002E-3</v>
+      </c>
+      <c r="F405" s="7">
+        <v>2.7291666666666701</v>
+      </c>
+      <c r="G405">
+        <v>235800</v>
+      </c>
+      <c r="H405">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B406" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D406">
+        <v>475200</v>
+      </c>
+      <c r="E406" s="6">
+        <v>3.3974450000000002E-3</v>
+      </c>
+      <c r="F406" s="7">
+        <v>2.75</v>
+      </c>
+      <c r="G406">
+        <v>237600</v>
+      </c>
+      <c r="H406">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B407" s="7">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="D407">
+        <v>478800</v>
+      </c>
+      <c r="E407" s="6">
+        <v>3.4295300000000001E-3</v>
+      </c>
+      <c r="F407" s="7">
+        <v>2.7708333333333299</v>
+      </c>
+      <c r="G407">
+        <v>239400</v>
+      </c>
+      <c r="H407">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B408" s="7">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="D408">
+        <v>482400</v>
+      </c>
+      <c r="E408" s="6">
+        <v>3.3903150000000001E-3</v>
+      </c>
+      <c r="F408" s="7">
+        <v>2.7916666666666701</v>
+      </c>
+      <c r="G408">
+        <v>241200</v>
+      </c>
+      <c r="H408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B409" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="D409">
+        <v>486000</v>
+      </c>
+      <c r="E409" s="6">
+        <v>3.347535E-3</v>
+      </c>
+      <c r="F409" s="7">
+        <v>2.8125</v>
+      </c>
+      <c r="G409">
+        <v>243000</v>
+      </c>
+      <c r="H409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B410" s="7">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D410">
+        <v>489600</v>
+      </c>
+      <c r="E410" s="6">
+        <v>3.347535E-3</v>
+      </c>
+      <c r="F410" s="7">
+        <v>2.8333333333333299</v>
+      </c>
+      <c r="G410">
+        <v>244800</v>
+      </c>
+      <c r="H410">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B411" s="7">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="D411">
+        <v>493200</v>
+      </c>
+      <c r="E411" s="6">
+        <v>3.3724900000000001E-3</v>
+      </c>
+      <c r="F411" s="7">
+        <v>2.8541666666666701</v>
+      </c>
+      <c r="G411">
+        <v>246600</v>
+      </c>
+      <c r="H411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B412" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D412">
+        <v>496800</v>
+      </c>
+      <c r="E412" s="6">
+        <v>3.36536E-3</v>
+      </c>
+      <c r="F412" s="7">
+        <v>2.875</v>
+      </c>
+      <c r="G412">
+        <v>248400</v>
+      </c>
+      <c r="H412">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B413" s="7">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="D413">
+        <v>500400</v>
+      </c>
+      <c r="E413" s="6">
+        <v>3.404575E-3</v>
+      </c>
+      <c r="F413" s="7">
+        <v>2.8958333333333299</v>
+      </c>
+      <c r="G413">
+        <v>250200</v>
+      </c>
+      <c r="H413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B414" s="7">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="D414">
+        <v>504000</v>
+      </c>
+      <c r="E414" s="6">
+        <v>3.4723100000000002E-3</v>
+      </c>
+      <c r="F414" s="7">
+        <v>2.9166666666666701</v>
+      </c>
+      <c r="G414">
+        <v>252000</v>
+      </c>
+      <c r="H414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B415" s="7">
+        <v>0.875</v>
+      </c>
+      <c r="D415">
+        <v>507600</v>
+      </c>
+      <c r="E415" s="6">
+        <v>3.4937000000000002E-3</v>
+      </c>
+      <c r="F415" s="7">
+        <v>2.9375</v>
+      </c>
+      <c r="G415">
+        <v>253800</v>
+      </c>
+      <c r="H415">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B416" s="7">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="D416">
+        <v>511200</v>
+      </c>
+      <c r="E416" s="6">
+        <v>3.5364800000000003E-3</v>
+      </c>
+      <c r="F416" s="7">
+        <v>2.9583333333333299</v>
+      </c>
+      <c r="G416">
+        <v>255600</v>
+      </c>
+      <c r="H416">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B417" s="7">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="D417">
+        <v>514800</v>
+      </c>
+      <c r="E417" s="6">
+        <v>3.46518E-3</v>
+      </c>
+      <c r="F417" s="7">
+        <v>2.9791666666666701</v>
+      </c>
+      <c r="G417">
+        <v>257400</v>
+      </c>
+      <c r="H417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B418" s="7">
+        <v>0</v>
+      </c>
+      <c r="D418">
+        <v>518400</v>
+      </c>
+      <c r="E418" s="6">
+        <v>3.7753350000000003E-3</v>
+      </c>
+      <c r="F418" s="7">
+        <v>3</v>
+      </c>
+      <c r="G418">
+        <v>259200</v>
+      </c>
+      <c r="H418">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B419" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D419">
+        <v>522000</v>
+      </c>
+      <c r="E419" s="6">
+        <v>3.7860300000000001E-3</v>
+      </c>
+      <c r="F419" s="7">
+        <v>3.0208333333333299</v>
+      </c>
+      <c r="G419">
+        <v>261000</v>
+      </c>
+      <c r="H419">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B420" s="7">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="D420">
+        <v>525600</v>
+      </c>
+      <c r="E420" s="6">
+        <v>3.8109850000000002E-3</v>
+      </c>
+      <c r="F420" s="7">
+        <v>3.0416666666666701</v>
+      </c>
+      <c r="G420">
+        <v>262800</v>
+      </c>
+      <c r="H420">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B421" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="D421">
+        <v>529200</v>
+      </c>
+      <c r="E421" s="6">
+        <v>3.8074200000000002E-3</v>
+      </c>
+      <c r="F421" s="7">
+        <v>3.0625</v>
+      </c>
+      <c r="G421">
+        <v>264600</v>
+      </c>
+      <c r="H421">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B422" s="7">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="D422">
+        <v>532800</v>
+      </c>
+      <c r="E422" s="6">
+        <v>3.8109850000000002E-3</v>
+      </c>
+      <c r="F422" s="7">
+        <v>3.0833333333333299</v>
+      </c>
+      <c r="G422">
+        <v>266400</v>
+      </c>
+      <c r="H422">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B423" s="7">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="D423">
+        <v>536400</v>
+      </c>
+      <c r="E423" s="6">
+        <v>3.7717700000000002E-3</v>
+      </c>
+      <c r="F423" s="7">
+        <v>3.1041666666666701</v>
+      </c>
+      <c r="G423">
+        <v>268200</v>
+      </c>
+      <c r="H423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B424" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="D424">
+        <v>540000</v>
+      </c>
+      <c r="E424" s="6">
+        <v>3.7575099999999999E-3</v>
+      </c>
+      <c r="F424" s="7">
+        <v>3.125</v>
+      </c>
+      <c r="G424">
+        <v>270000</v>
+      </c>
+      <c r="H424">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B425" s="7">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="D425">
+        <v>543600</v>
+      </c>
+      <c r="E425" s="6">
+        <v>3.74325E-3</v>
+      </c>
+      <c r="F425" s="7">
+        <v>3.1458333333333299</v>
+      </c>
+      <c r="G425">
+        <v>271800</v>
+      </c>
+      <c r="H425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B426" s="7">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="D426">
+        <v>547200</v>
+      </c>
+      <c r="E426" s="6">
+        <v>3.7539450000000003E-3</v>
+      </c>
+      <c r="F426" s="7">
+        <v>3.1666666666666701</v>
+      </c>
+      <c r="G426">
+        <v>273600</v>
+      </c>
+      <c r="H426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B427" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="D427">
+        <v>550800</v>
+      </c>
+      <c r="E427" s="6">
+        <v>3.7325550000000002E-3</v>
+      </c>
+      <c r="F427" s="7">
+        <v>3.1875</v>
+      </c>
+      <c r="G427">
+        <v>275400</v>
+      </c>
+      <c r="H427">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B428" s="7">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="D428">
+        <v>554400</v>
+      </c>
+      <c r="E428" s="6">
+        <v>3.7182949999999999E-3</v>
+      </c>
+      <c r="F428" s="7">
+        <v>3.2083333333333299</v>
+      </c>
+      <c r="G428">
+        <v>277200</v>
+      </c>
+      <c r="H428">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B429" s="7">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="D429">
+        <v>558000</v>
+      </c>
+      <c r="E429" s="6">
+        <v>3.7182949999999999E-3</v>
+      </c>
+      <c r="F429" s="7">
+        <v>3.2291666666666701</v>
+      </c>
+      <c r="G429">
+        <v>279000</v>
+      </c>
+      <c r="H429">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B430" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D430">
+        <v>561600</v>
+      </c>
+      <c r="E430" s="6">
+        <v>3.7182949999999999E-3</v>
+      </c>
+      <c r="F430" s="7">
+        <v>3.25</v>
+      </c>
+      <c r="G430">
+        <v>280800</v>
+      </c>
+      <c r="H430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B431" s="7">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="D431">
+        <v>565200</v>
+      </c>
+      <c r="E431" s="6">
+        <v>3.7325550000000002E-3</v>
+      </c>
+      <c r="F431" s="7">
+        <v>3.2708333333333299</v>
+      </c>
+      <c r="G431">
+        <v>282600</v>
+      </c>
+      <c r="H431">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B432" s="7">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="D432">
+        <v>568800</v>
+      </c>
+      <c r="E432" s="6">
+        <v>3.7289900000000002E-3</v>
+      </c>
+      <c r="F432" s="7">
+        <v>3.2916666666666701</v>
+      </c>
+      <c r="G432">
+        <v>284400</v>
+      </c>
+      <c r="H432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B433" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="D433">
+        <v>572400</v>
+      </c>
+      <c r="E433" s="6">
+        <v>3.739685E-3</v>
+      </c>
+      <c r="F433" s="7">
+        <v>3.3125</v>
+      </c>
+      <c r="G433">
+        <v>286200</v>
+      </c>
+      <c r="H433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B434" s="7">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D434">
+        <v>576000</v>
+      </c>
+      <c r="E434" s="6">
+        <v>3.7325550000000002E-3</v>
+      </c>
+      <c r="F434" s="7">
+        <v>3.3333333333333299</v>
+      </c>
+      <c r="G434">
+        <v>288000</v>
+      </c>
+      <c r="H434">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B435" s="7">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="D435">
+        <v>579600</v>
+      </c>
+      <c r="E435" s="6">
+        <v>3.7147300000000003E-3</v>
+      </c>
+      <c r="F435" s="7">
+        <v>3.3541666666666701</v>
+      </c>
+      <c r="G435">
+        <v>289800</v>
+      </c>
+      <c r="H435">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B436" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D436">
+        <v>583200</v>
+      </c>
+      <c r="E436" s="6">
+        <v>3.70047E-3</v>
+      </c>
+      <c r="F436" s="7">
+        <v>3.375</v>
+      </c>
+      <c r="G436">
+        <v>291600</v>
+      </c>
+      <c r="H436">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B437" s="7">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="D437">
+        <v>586800</v>
+      </c>
+      <c r="E437" s="6">
+        <v>3.7468150000000001E-3</v>
+      </c>
+      <c r="F437" s="7">
+        <v>3.3958333333333299</v>
+      </c>
+      <c r="G437">
+        <v>293400</v>
+      </c>
+      <c r="H437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B438" s="7">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="D438">
+        <v>590400</v>
+      </c>
+      <c r="E438" s="6">
+        <v>3.7646400000000001E-3</v>
+      </c>
+      <c r="F438" s="7">
+        <v>3.4166666666666701</v>
+      </c>
+      <c r="G438">
+        <v>295200</v>
+      </c>
+      <c r="H438">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B439" s="7">
+        <v>0.875</v>
+      </c>
+      <c r="D439">
+        <v>594000</v>
+      </c>
+      <c r="E439" s="6">
+        <v>3.7717700000000002E-3</v>
+      </c>
+      <c r="F439" s="7">
+        <v>3.4375</v>
+      </c>
+      <c r="G439">
+        <v>297000</v>
+      </c>
+      <c r="H439">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B440" s="7">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="D440">
+        <v>597600</v>
+      </c>
+      <c r="E440" s="6">
+        <v>3.782465E-3</v>
+      </c>
+      <c r="F440" s="7">
+        <v>3.4583333333333299</v>
+      </c>
+      <c r="G440">
+        <v>298800</v>
+      </c>
+      <c r="H440">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B441" s="7">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="D441">
+        <v>601200</v>
+      </c>
+      <c r="E441" s="6">
+        <v>3.7967249999999999E-3</v>
+      </c>
+      <c r="F441" s="7">
+        <v>3.4791666666666701</v>
+      </c>
+      <c r="G441">
+        <v>300600</v>
+      </c>
+      <c r="H441">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B442" s="7">
+        <v>0</v>
+      </c>
+      <c r="D442">
+        <v>604800</v>
+      </c>
+      <c r="E442" s="6">
+        <v>3.72186E-3</v>
+      </c>
+      <c r="F442" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="G442">
+        <v>302400</v>
+      </c>
+      <c r="H442">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B443" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D443">
+        <v>608400</v>
+      </c>
+      <c r="E443" s="6">
+        <v>3.7182949999999999E-3</v>
+      </c>
+      <c r="F443" s="7">
+        <v>3.5208333333333299</v>
+      </c>
+      <c r="G443">
+        <v>304200</v>
+      </c>
+      <c r="H443">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B444" s="7">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="D444">
+        <v>612000</v>
+      </c>
+      <c r="E444" s="6">
+        <v>3.7111650000000002E-3</v>
+      </c>
+      <c r="F444" s="7">
+        <v>3.5416666666666701</v>
+      </c>
+      <c r="G444">
+        <v>306000</v>
+      </c>
+      <c r="H444">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B445" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="D445">
+        <v>615600</v>
+      </c>
+      <c r="E445" s="6">
+        <v>3.7182949999999999E-3</v>
+      </c>
+      <c r="F445" s="7">
+        <v>3.5625</v>
+      </c>
+      <c r="G445">
+        <v>307800</v>
+      </c>
+      <c r="H445">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B446" s="7">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="D446">
+        <v>619200</v>
+      </c>
+      <c r="E446" s="6">
+        <v>3.7289900000000002E-3</v>
+      </c>
+      <c r="F446" s="7">
+        <v>3.5833333333333299</v>
+      </c>
+      <c r="G446">
+        <v>309600</v>
+      </c>
+      <c r="H446">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B447" s="7">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="D447">
+        <v>622800</v>
+      </c>
+      <c r="E447" s="6">
+        <v>3.7361199999999999E-3</v>
+      </c>
+      <c r="F447" s="7">
+        <v>3.6041666666666701</v>
+      </c>
+      <c r="G447">
+        <v>311400</v>
+      </c>
+      <c r="H447">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B448" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="D448">
+        <v>626400</v>
+      </c>
+      <c r="E448" s="6">
+        <v>3.7289900000000002E-3</v>
+      </c>
+      <c r="F448" s="7">
+        <v>3.625</v>
+      </c>
+      <c r="G448">
+        <v>313200</v>
+      </c>
+      <c r="H448">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B449" s="7">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="D449">
+        <v>630000</v>
+      </c>
+      <c r="E449" s="6">
+        <v>3.761075E-3</v>
+      </c>
+      <c r="F449" s="7">
+        <v>3.6458333333333299</v>
+      </c>
+      <c r="G449">
+        <v>315000</v>
+      </c>
+      <c r="H449">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B450" s="7">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="D450">
+        <v>633600</v>
+      </c>
+      <c r="E450" s="6">
+        <v>3.7646400000000001E-3</v>
+      </c>
+      <c r="F450" s="7">
+        <v>3.6666666666666701</v>
+      </c>
+      <c r="G450">
+        <v>316800</v>
+      </c>
+      <c r="H450">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B451" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="D451">
+        <v>637200</v>
+      </c>
+      <c r="E451" s="6">
+        <v>3.7325550000000002E-3</v>
+      </c>
+      <c r="F451" s="7">
+        <v>3.6875</v>
+      </c>
+      <c r="G451">
+        <v>318600</v>
+      </c>
+      <c r="H451">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B452" s="7">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="D452">
+        <v>640800</v>
+      </c>
+      <c r="E452" s="6">
+        <v>3.739685E-3</v>
+      </c>
+      <c r="F452" s="7">
+        <v>3.7083333333333299</v>
+      </c>
+      <c r="G452">
+        <v>320400</v>
+      </c>
+      <c r="H452">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B453" s="7">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="D453">
+        <v>644400</v>
+      </c>
+      <c r="E453" s="6">
+        <v>3.7325550000000002E-3</v>
+      </c>
+      <c r="F453" s="7">
+        <v>3.7291666666666701</v>
+      </c>
+      <c r="G453">
+        <v>322200</v>
+      </c>
+      <c r="H453">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B454" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D454">
+        <v>648000</v>
+      </c>
+      <c r="E454" s="6">
+        <v>3.7254250000000001E-3</v>
+      </c>
+      <c r="F454" s="7">
+        <v>3.75</v>
+      </c>
+      <c r="G454">
+        <v>324000</v>
+      </c>
+      <c r="H454">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B455" s="7">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="D455">
+        <v>651600</v>
+      </c>
+      <c r="E455" s="6">
+        <v>3.7147300000000003E-3</v>
+      </c>
+      <c r="F455" s="7">
+        <v>3.7708333333333299</v>
+      </c>
+      <c r="G455">
+        <v>325800</v>
+      </c>
+      <c r="H455">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B456" s="7">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="D456">
+        <v>655200</v>
+      </c>
+      <c r="E456" s="6">
+        <v>3.7147300000000003E-3</v>
+      </c>
+      <c r="F456" s="7">
+        <v>3.7916666666666701</v>
+      </c>
+      <c r="G456">
+        <v>327600</v>
+      </c>
+      <c r="H456">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B457" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="D457">
+        <v>658800</v>
+      </c>
+      <c r="E457" s="6">
+        <v>3.7111650000000002E-3</v>
+      </c>
+      <c r="F457" s="7">
+        <v>3.8125</v>
+      </c>
+      <c r="G457">
+        <v>329400</v>
+      </c>
+      <c r="H457">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B458" s="7">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D458">
+        <v>662400</v>
+      </c>
+      <c r="E458" s="6">
+        <v>3.7289900000000002E-3</v>
+      </c>
+      <c r="F458" s="7">
+        <v>3.8333333333333299</v>
+      </c>
+      <c r="G458">
+        <v>331200</v>
+      </c>
+      <c r="H458">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B459" s="7">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="D459">
+        <v>666000</v>
+      </c>
+      <c r="E459" s="6">
+        <v>3.7289900000000002E-3</v>
+      </c>
+      <c r="F459" s="7">
+        <v>3.8541666666666701</v>
+      </c>
+      <c r="G459">
+        <v>333000</v>
+      </c>
+      <c r="H459">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B460" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D460">
+        <v>669600</v>
+      </c>
+      <c r="E460" s="6">
+        <v>3.7361199999999999E-3</v>
+      </c>
+      <c r="F460" s="7">
+        <v>3.875</v>
+      </c>
+      <c r="G460">
+        <v>334800</v>
+      </c>
+      <c r="H460">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B461" s="7">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="D461">
+        <v>673200</v>
+      </c>
+      <c r="E461" s="6">
+        <v>3.739685E-3</v>
+      </c>
+      <c r="F461" s="7">
+        <v>3.8958333333333299</v>
+      </c>
+      <c r="G461">
+        <v>336600</v>
+      </c>
+      <c r="H461">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B462" s="7">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="D462">
+        <v>676800</v>
+      </c>
+      <c r="E462" s="6">
+        <v>3.7254250000000001E-3</v>
+      </c>
+      <c r="F462" s="7">
+        <v>3.9166666666666701</v>
+      </c>
+      <c r="G462">
+        <v>338400</v>
+      </c>
+      <c r="H462">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B463" s="7">
+        <v>0.875</v>
+      </c>
+      <c r="D463">
+        <v>680400</v>
+      </c>
+      <c r="E463" s="6">
+        <v>3.7076000000000001E-3</v>
+      </c>
+      <c r="F463" s="7">
+        <v>3.9375</v>
+      </c>
+      <c r="G463">
+        <v>340200</v>
+      </c>
+      <c r="H463">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B464" s="7">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="D464">
+        <v>684000</v>
+      </c>
+      <c r="E464" s="6">
+        <v>3.72186E-3</v>
+      </c>
+      <c r="F464" s="7">
+        <v>3.9583333333333299</v>
+      </c>
+      <c r="G464">
+        <v>342000</v>
+      </c>
+      <c r="H464">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B465" s="7">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="D465">
+        <v>687600</v>
+      </c>
+      <c r="E465" s="6">
+        <v>3.74325E-3</v>
+      </c>
+      <c r="F465" s="7">
+        <v>3.9791666666666701</v>
+      </c>
+      <c r="G465">
+        <v>343800</v>
+      </c>
+      <c r="H465">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F466" s="7">
+        <v>4</v>
+      </c>
+      <c r="G466">
+        <v>345600</v>
+      </c>
+      <c r="H466">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F467" s="7">
+        <v>4.0208333333333304</v>
+      </c>
+      <c r="G467">
+        <v>347400</v>
+      </c>
+      <c r="H467">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F468" s="7">
+        <v>4.0416666666666696</v>
+      </c>
+      <c r="G468">
+        <v>349200</v>
+      </c>
+      <c r="H468">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F469" s="7">
+        <v>4.0625</v>
+      </c>
+      <c r="G469">
+        <v>351000</v>
+      </c>
+      <c r="H469">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F470" s="7">
+        <v>4.0833333333333304</v>
+      </c>
+      <c r="G470">
+        <v>352800</v>
+      </c>
+      <c r="H470">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F471" s="7">
+        <v>4.1041666666666696</v>
+      </c>
+      <c r="G471">
+        <v>354600</v>
+      </c>
+      <c r="H471">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F472" s="7">
+        <v>4.125</v>
+      </c>
+      <c r="G472">
+        <v>356400</v>
+      </c>
+      <c r="H472">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F473" s="7">
+        <v>4.1458333333333304</v>
+      </c>
+      <c r="G473">
+        <v>358200</v>
+      </c>
+      <c r="H473">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F474" s="7">
+        <v>4.1666666666666696</v>
+      </c>
+      <c r="G474">
+        <v>360000</v>
+      </c>
+      <c r="H474">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F475" s="7">
+        <v>4.1875</v>
+      </c>
+      <c r="G475">
+        <v>361800</v>
+      </c>
+      <c r="H475">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F476" s="7">
+        <v>4.2083333333333304</v>
+      </c>
+      <c r="G476">
+        <v>363600</v>
+      </c>
+      <c r="H476">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F477" s="7">
+        <v>4.2291666666666696</v>
+      </c>
+      <c r="G477">
+        <v>365400</v>
+      </c>
+      <c r="H477">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F478" s="7">
+        <v>4.25</v>
+      </c>
+      <c r="G478">
+        <v>367200</v>
+      </c>
+      <c r="H478">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F479" s="7">
+        <v>4.2708333333333304</v>
+      </c>
+      <c r="G479">
+        <v>369000</v>
+      </c>
+      <c r="H479">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F480" s="7">
+        <v>4.2916666666666696</v>
+      </c>
+      <c r="G480">
+        <v>370800</v>
+      </c>
+      <c r="H480">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F481" s="7">
+        <v>4.3125</v>
+      </c>
+      <c r="G481">
+        <v>372600</v>
+      </c>
+      <c r="H481">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F482" s="7">
+        <v>4.3333333333333304</v>
+      </c>
+      <c r="G482">
+        <v>374400</v>
+      </c>
+      <c r="H482">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F483" s="7">
+        <v>4.3541666666666696</v>
+      </c>
+      <c r="G483">
+        <v>376200</v>
+      </c>
+      <c r="H483">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F484" s="7">
+        <v>4.375</v>
+      </c>
+      <c r="G484">
+        <v>378000</v>
+      </c>
+      <c r="H484">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F485" s="7">
+        <v>4.3958333333333304</v>
+      </c>
+      <c r="G485">
+        <v>379800</v>
+      </c>
+      <c r="H485">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F486" s="7">
+        <v>4.4166666666666696</v>
+      </c>
+      <c r="G486">
+        <v>381600</v>
+      </c>
+      <c r="H486">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F487" s="7">
+        <v>4.4375</v>
+      </c>
+      <c r="G487">
+        <v>383400</v>
+      </c>
+      <c r="H487">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F488" s="7">
+        <v>4.4583333333333304</v>
+      </c>
+      <c r="G488">
+        <v>385200</v>
+      </c>
+      <c r="H488">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F489" s="7">
+        <v>4.4791666666666696</v>
+      </c>
+      <c r="G489">
+        <v>387000</v>
+      </c>
+      <c r="H489">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F490" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="G490">
+        <v>388800</v>
+      </c>
+      <c r="H490">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F491" s="7">
+        <v>4.5208333333333304</v>
+      </c>
+      <c r="G491">
+        <v>390600</v>
+      </c>
+      <c r="H491">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F492" s="7">
+        <v>4.5416666666666696</v>
+      </c>
+      <c r="G492">
+        <v>392400</v>
+      </c>
+      <c r="H492">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F493" s="7">
+        <v>4.5625</v>
+      </c>
+      <c r="G493">
+        <v>394200</v>
+      </c>
+      <c r="H493">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F494" s="7">
+        <v>4.5833333333333304</v>
+      </c>
+      <c r="G494">
+        <v>396000</v>
+      </c>
+      <c r="H494">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F495" s="7">
+        <v>4.6041666666666696</v>
+      </c>
+      <c r="G495">
+        <v>397800</v>
+      </c>
+      <c r="H495">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F496" s="7">
+        <v>4.625</v>
+      </c>
+      <c r="G496">
+        <v>399600</v>
+      </c>
+      <c r="H496">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F497" s="7">
+        <v>4.6458333333333304</v>
+      </c>
+      <c r="G497">
+        <v>401400</v>
+      </c>
+      <c r="H497">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F498" s="7">
+        <v>4.6666666666666696</v>
+      </c>
+      <c r="G498">
+        <v>403200</v>
+      </c>
+      <c r="H498">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F499" s="7">
+        <v>4.6875</v>
+      </c>
+      <c r="G499">
+        <v>405000</v>
+      </c>
+      <c r="H499">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F500" s="7">
+        <v>4.7083333333333304</v>
+      </c>
+      <c r="G500">
+        <v>406800</v>
+      </c>
+      <c r="H500">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F501" s="7">
+        <v>4.7291666666666696</v>
+      </c>
+      <c r="G501">
+        <v>408600</v>
+      </c>
+      <c r="H501">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F502" s="7">
+        <v>4.75</v>
+      </c>
+      <c r="G502">
+        <v>410400</v>
+      </c>
+      <c r="H502">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F503" s="7">
+        <v>4.7708333333333304</v>
+      </c>
+      <c r="G503">
+        <v>412200</v>
+      </c>
+      <c r="H503">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F504" s="7">
+        <v>4.7916666666666696</v>
+      </c>
+      <c r="G504">
+        <v>414000</v>
+      </c>
+      <c r="H504">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F505" s="7">
+        <v>4.8125</v>
+      </c>
+      <c r="G505">
+        <v>415800</v>
+      </c>
+      <c r="H505">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F506" s="7">
+        <v>4.8333333333333304</v>
+      </c>
+      <c r="G506">
+        <v>417600</v>
+      </c>
+      <c r="H506">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F507" s="7">
+        <v>4.8541666666666696</v>
+      </c>
+      <c r="G507">
+        <v>419400</v>
+      </c>
+      <c r="H507">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F508" s="7">
+        <v>4.875</v>
+      </c>
+      <c r="G508">
+        <v>421200</v>
+      </c>
+      <c r="H508">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F509" s="7">
+        <v>4.8958333333333304</v>
+      </c>
+      <c r="G509">
+        <v>423000</v>
+      </c>
+      <c r="H509">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F510" s="7">
+        <v>4.9166666666666696</v>
+      </c>
+      <c r="G510">
+        <v>424800</v>
+      </c>
+      <c r="H510">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F511" s="7">
+        <v>4.9375</v>
+      </c>
+      <c r="G511">
+        <v>426600</v>
+      </c>
+      <c r="H511">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F512" s="7">
+        <v>4.9583333333333304</v>
+      </c>
+      <c r="G512">
+        <v>428400</v>
+      </c>
+      <c r="H512">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F513" s="7">
+        <v>4.9791666666666696</v>
+      </c>
+      <c r="G513">
+        <v>430200</v>
+      </c>
+      <c r="H513">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F514" s="7">
+        <v>5</v>
+      </c>
+      <c r="G514">
+        <v>432000</v>
+      </c>
+      <c r="H514">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F515" s="7">
+        <v>5.0208333333333304</v>
+      </c>
+      <c r="G515">
+        <v>433800</v>
+      </c>
+      <c r="H515">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F516" s="7">
+        <v>5.0416666666666696</v>
+      </c>
+      <c r="G516">
+        <v>435600</v>
+      </c>
+      <c r="H516">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F517" s="7">
+        <v>5.0625</v>
+      </c>
+      <c r="G517">
+        <v>437400</v>
+      </c>
+      <c r="H517">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F518" s="7">
+        <v>5.0833333333333304</v>
+      </c>
+      <c r="G518">
+        <v>439200</v>
+      </c>
+      <c r="H518">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F519" s="7">
+        <v>5.1041666666666696</v>
+      </c>
+      <c r="G519">
+        <v>441000</v>
+      </c>
+      <c r="H519">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F520" s="7">
+        <v>5.125</v>
+      </c>
+      <c r="G520">
+        <v>442800</v>
+      </c>
+      <c r="H520">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F521" s="7">
+        <v>5.1458333333333304</v>
+      </c>
+      <c r="G521">
+        <v>444600</v>
+      </c>
+      <c r="H521">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F522" s="7">
+        <v>5.1666666666666696</v>
+      </c>
+      <c r="G522">
+        <v>446400</v>
+      </c>
+      <c r="H522">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F523" s="7">
+        <v>5.1875</v>
+      </c>
+      <c r="G523">
+        <v>448200</v>
+      </c>
+      <c r="H523">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F524" s="7">
+        <v>5.2083333333333304</v>
+      </c>
+      <c r="G524">
+        <v>450000</v>
+      </c>
+      <c r="H524">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F525" s="7">
+        <v>5.2291666666666696</v>
+      </c>
+      <c r="G525">
+        <v>451800</v>
+      </c>
+      <c r="H525">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F526" s="7">
+        <v>5.25</v>
+      </c>
+      <c r="G526">
+        <v>453600</v>
+      </c>
+      <c r="H526">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F527" s="7">
+        <v>5.2708333333333304</v>
+      </c>
+      <c r="G527">
+        <v>455400</v>
+      </c>
+      <c r="H527">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F528" s="7">
+        <v>5.2916666666666696</v>
+      </c>
+      <c r="G528">
+        <v>457200</v>
+      </c>
+      <c r="H528">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F529" s="7">
+        <v>5.3125</v>
+      </c>
+      <c r="G529">
+        <v>459000</v>
+      </c>
+      <c r="H529">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F530" s="7">
+        <v>5.3333333333333304</v>
+      </c>
+      <c r="G530">
+        <v>460800</v>
+      </c>
+      <c r="H530">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F531" s="7">
+        <v>5.3541666666666696</v>
+      </c>
+      <c r="G531">
+        <v>462600</v>
+      </c>
+      <c r="H531">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F532" s="7">
+        <v>5.375</v>
+      </c>
+      <c r="G532">
+        <v>464400</v>
+      </c>
+      <c r="H532">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F533" s="7">
+        <v>5.3958333333333304</v>
+      </c>
+      <c r="G533">
+        <v>466200</v>
+      </c>
+      <c r="H533">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F534" s="7">
+        <v>5.4166666666666696</v>
+      </c>
+      <c r="G534">
+        <v>468000</v>
+      </c>
+      <c r="H534">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F535" s="7">
+        <v>5.4375</v>
+      </c>
+      <c r="G535">
+        <v>469800</v>
+      </c>
+      <c r="H535">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F536" s="7">
+        <v>5.4583333333333304</v>
+      </c>
+      <c r="G536">
+        <v>471600</v>
+      </c>
+      <c r="H536">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F537" s="7">
+        <v>5.4791666666666696</v>
+      </c>
+      <c r="G537">
+        <v>473400</v>
+      </c>
+      <c r="H537">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F538" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="G538">
+        <v>475200</v>
+      </c>
+      <c r="H538">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F539" s="7">
+        <v>5.5208333333333304</v>
+      </c>
+      <c r="G539">
+        <v>477000</v>
+      </c>
+      <c r="H539">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F540" s="7">
+        <v>5.5416666666666696</v>
+      </c>
+      <c r="G540">
+        <v>478800</v>
+      </c>
+      <c r="H540">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F541" s="7">
+        <v>5.5625</v>
+      </c>
+      <c r="G541">
+        <v>480600</v>
+      </c>
+      <c r="H541">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F542" s="7">
+        <v>5.5833333333333304</v>
+      </c>
+      <c r="G542">
+        <v>482400</v>
+      </c>
+      <c r="H542">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F543" s="7">
+        <v>5.6041666666666696</v>
+      </c>
+      <c r="G543">
+        <v>484200</v>
+      </c>
+      <c r="H543">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F544" s="7">
+        <v>5.625</v>
+      </c>
+      <c r="G544">
+        <v>486000</v>
+      </c>
+      <c r="H544">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F545" s="7">
+        <v>5.6458333333333304</v>
+      </c>
+      <c r="G545">
+        <v>487800</v>
+      </c>
+      <c r="H545">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F546" s="7">
+        <v>5.6666666666666696</v>
+      </c>
+      <c r="G546">
+        <v>489600</v>
+      </c>
+      <c r="H546">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F547" s="7">
+        <v>5.6875</v>
+      </c>
+      <c r="G547">
+        <v>491400</v>
+      </c>
+      <c r="H547">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F548" s="7">
+        <v>5.7083333333333304</v>
+      </c>
+      <c r="G548">
+        <v>493200</v>
+      </c>
+      <c r="H548">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F549" s="7">
+        <v>5.7291666666666696</v>
+      </c>
+      <c r="G549">
+        <v>495000</v>
+      </c>
+      <c r="H549">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F550" s="7">
+        <v>5.75</v>
+      </c>
+      <c r="G550">
+        <v>496800</v>
+      </c>
+      <c r="H550">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F551" s="7">
+        <v>5.7708333333333304</v>
+      </c>
+      <c r="G551">
+        <v>498600</v>
+      </c>
+      <c r="H551">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F552" s="7">
+        <v>5.7916666666666696</v>
+      </c>
+      <c r="G552">
+        <v>500400</v>
+      </c>
+      <c r="H552">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="553" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F553" s="7">
+        <v>5.8125</v>
+      </c>
+      <c r="G553">
+        <v>502200</v>
+      </c>
+      <c r="H553">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="554" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F554" s="7">
+        <v>5.8333333333333304</v>
+      </c>
+      <c r="G554">
+        <v>504000</v>
+      </c>
+      <c r="H554">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="555" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F555" s="7">
+        <v>5.8541666666666696</v>
+      </c>
+      <c r="G555">
+        <v>505800</v>
+      </c>
+      <c r="H555">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="556" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F556" s="7">
+        <v>5.875</v>
+      </c>
+      <c r="G556">
+        <v>507600</v>
+      </c>
+      <c r="H556">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="557" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F557" s="7">
+        <v>5.8958333333333304</v>
+      </c>
+      <c r="G557">
+        <v>509400</v>
+      </c>
+      <c r="H557">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F558" s="7">
+        <v>5.9166666666666696</v>
+      </c>
+      <c r="G558">
+        <v>511200</v>
+      </c>
+      <c r="H558">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F559" s="7">
+        <v>5.9375</v>
+      </c>
+      <c r="G559">
+        <v>513000</v>
+      </c>
+      <c r="H559">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="560" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F560" s="7">
+        <v>5.9583333333333304</v>
+      </c>
+      <c r="G560">
+        <v>514800</v>
+      </c>
+      <c r="H560">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="561" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F561" s="7">
+        <v>5.9791666666666696</v>
+      </c>
+      <c r="G561">
+        <v>516600</v>
+      </c>
+      <c r="H561">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F562" s="7">
+        <v>6</v>
+      </c>
+      <c r="G562">
+        <v>518400</v>
+      </c>
+      <c r="H562">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F563" s="7">
+        <v>6.0208333333333304</v>
+      </c>
+      <c r="G563">
+        <v>520200</v>
+      </c>
+      <c r="H563">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="564" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F564" s="7">
+        <v>6.0416666666666696</v>
+      </c>
+      <c r="G564">
+        <v>522000</v>
+      </c>
+      <c r="H564">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F565" s="7">
+        <v>6.0625</v>
+      </c>
+      <c r="G565">
+        <v>523800</v>
+      </c>
+      <c r="H565">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F566" s="7">
+        <v>6.0833333333333304</v>
+      </c>
+      <c r="G566">
+        <v>525600</v>
+      </c>
+      <c r="H566">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="567" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F567" s="7">
+        <v>6.1041666666666696</v>
+      </c>
+      <c r="G567">
+        <v>527400</v>
+      </c>
+      <c r="H567">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F568" s="7">
+        <v>6.125</v>
+      </c>
+      <c r="G568">
+        <v>529200</v>
+      </c>
+      <c r="H568">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="569" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F569" s="7">
+        <v>6.1458333333333304</v>
+      </c>
+      <c r="G569">
+        <v>531000</v>
+      </c>
+      <c r="H569">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="570" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F570" s="7">
+        <v>6.1666666666666696</v>
+      </c>
+      <c r="G570">
+        <v>532800</v>
+      </c>
+      <c r="H570">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="571" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F571" s="7">
+        <v>6.1875</v>
+      </c>
+      <c r="G571">
+        <v>534600</v>
+      </c>
+      <c r="H571">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="572" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F572" s="7">
+        <v>6.2083333333333304</v>
+      </c>
+      <c r="G572">
+        <v>536400</v>
+      </c>
+      <c r="H572">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F573" s="7">
+        <v>6.2291666666666696</v>
+      </c>
+      <c r="G573">
+        <v>538200</v>
+      </c>
+      <c r="H573">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F574" s="7">
+        <v>6.25</v>
+      </c>
+      <c r="G574">
+        <v>540000</v>
+      </c>
+      <c r="H574">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="575" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F575" s="7">
+        <v>6.2708333333333304</v>
+      </c>
+      <c r="G575">
+        <v>541800</v>
+      </c>
+      <c r="H575">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="576" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F576" s="7">
+        <v>6.2916666666666696</v>
+      </c>
+      <c r="G576">
+        <v>543600</v>
+      </c>
+      <c r="H576">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="577" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F577" s="7">
+        <v>6.3125</v>
+      </c>
+      <c r="G577">
+        <v>545400</v>
+      </c>
+      <c r="H577">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="578" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F578" s="7">
+        <v>6.3333333333333304</v>
+      </c>
+      <c r="G578">
+        <v>547200</v>
+      </c>
+      <c r="H578">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F579" s="7">
+        <v>6.3541666666666696</v>
+      </c>
+      <c r="G579">
+        <v>549000</v>
+      </c>
+      <c r="H579">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="580" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F580" s="7">
+        <v>6.375</v>
+      </c>
+      <c r="G580">
+        <v>550800</v>
+      </c>
+      <c r="H580">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="581" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F581" s="7">
+        <v>6.3958333333333304</v>
+      </c>
+      <c r="G581">
+        <v>552600</v>
+      </c>
+      <c r="H581">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="582" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F582" s="7">
+        <v>6.4166666666666696</v>
+      </c>
+      <c r="G582">
+        <v>554400</v>
+      </c>
+      <c r="H582">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="583" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F583" s="7">
+        <v>6.4375</v>
+      </c>
+      <c r="G583">
+        <v>556200</v>
+      </c>
+      <c r="H583">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="584" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F584" s="7">
+        <v>6.4583333333333304</v>
+      </c>
+      <c r="G584">
+        <v>558000</v>
+      </c>
+      <c r="H584">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="585" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F585" s="7">
+        <v>6.4791666666666696</v>
+      </c>
+      <c r="G585">
+        <v>559800</v>
+      </c>
+      <c r="H585">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="586" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F586" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="G586">
+        <v>561600</v>
+      </c>
+      <c r="H586">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="587" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F587" s="7">
+        <v>6.5208333333333304</v>
+      </c>
+      <c r="G587">
+        <v>563400</v>
+      </c>
+      <c r="H587">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="588" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F588" s="7">
+        <v>6.5416666666666696</v>
+      </c>
+      <c r="G588">
+        <v>565200</v>
+      </c>
+      <c r="H588">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="589" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F589" s="7">
+        <v>6.5625</v>
+      </c>
+      <c r="G589">
+        <v>567000</v>
+      </c>
+      <c r="H589">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="590" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F590" s="7">
+        <v>6.5833333333333304</v>
+      </c>
+      <c r="G590">
+        <v>568800</v>
+      </c>
+      <c r="H590">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="591" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F591" s="7">
+        <v>6.6041666666666696</v>
+      </c>
+      <c r="G591">
+        <v>570600</v>
+      </c>
+      <c r="H591">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="592" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F592" s="7">
+        <v>6.625</v>
+      </c>
+      <c r="G592">
+        <v>572400</v>
+      </c>
+      <c r="H592">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="593" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F593" s="7">
+        <v>6.6458333333333304</v>
+      </c>
+      <c r="G593">
+        <v>574200</v>
+      </c>
+      <c r="H593">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="594" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F594" s="7">
+        <v>6.6666666666666696</v>
+      </c>
+      <c r="G594">
+        <v>576000</v>
+      </c>
+      <c r="H594">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F595" s="7">
+        <v>6.6875</v>
+      </c>
+      <c r="G595">
+        <v>577800</v>
+      </c>
+      <c r="H595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="596" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F596" s="7">
+        <v>6.7083333333333304</v>
+      </c>
+      <c r="G596">
+        <v>579600</v>
+      </c>
+      <c r="H596">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="597" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F597" s="7">
+        <v>6.7291666666666696</v>
+      </c>
+      <c r="G597">
+        <v>581400</v>
+      </c>
+      <c r="H597">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="598" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F598" s="7">
+        <v>6.75</v>
+      </c>
+      <c r="G598">
+        <v>583200</v>
+      </c>
+      <c r="H598">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="599" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F599" s="7">
+        <v>6.7708333333333304</v>
+      </c>
+      <c r="G599">
+        <v>585000</v>
+      </c>
+      <c r="H599">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="600" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F600" s="7">
+        <v>6.7916666666666696</v>
+      </c>
+      <c r="G600">
+        <v>586800</v>
+      </c>
+      <c r="H600">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="601" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F601" s="7">
+        <v>6.8125</v>
+      </c>
+      <c r="G601">
+        <v>588600</v>
+      </c>
+      <c r="H601">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="602" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F602" s="7">
+        <v>6.8333333333333304</v>
+      </c>
+      <c r="G602">
+        <v>590400</v>
+      </c>
+      <c r="H602">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="603" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F603" s="7">
+        <v>6.8541666666666696</v>
+      </c>
+      <c r="G603">
+        <v>592200</v>
+      </c>
+      <c r="H603">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="604" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F604" s="7">
+        <v>6.875</v>
+      </c>
+      <c r="G604">
+        <v>594000</v>
+      </c>
+      <c r="H604">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="605" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F605" s="7">
+        <v>6.8958333333333304</v>
+      </c>
+      <c r="G605">
+        <v>595800</v>
+      </c>
+      <c r="H605">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="606" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F606" s="7">
+        <v>6.9166666666666696</v>
+      </c>
+      <c r="G606">
+        <v>597600</v>
+      </c>
+      <c r="H606">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="607" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F607" s="7">
+        <v>6.9375</v>
+      </c>
+      <c r="G607">
+        <v>599400</v>
+      </c>
+      <c r="H607">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="608" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F608" s="7">
+        <v>6.9583333333333304</v>
+      </c>
+      <c r="G608">
+        <v>601200</v>
+      </c>
+      <c r="H608">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="609" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F609" s="7">
+        <v>6.9791666666666696</v>
+      </c>
+      <c r="G609">
+        <v>603000</v>
+      </c>
+      <c r="H609">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="610" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F610" s="7">
+        <v>7</v>
+      </c>
+      <c r="G610">
+        <v>604800</v>
+      </c>
+      <c r="H610">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="611" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F611" s="7">
+        <v>7.0208333333333304</v>
+      </c>
+      <c r="G611">
+        <v>606600</v>
+      </c>
+      <c r="H611">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="612" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F612" s="7">
+        <v>7.0416666666666696</v>
+      </c>
+      <c r="G612">
+        <v>608400</v>
+      </c>
+      <c r="H612">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="613" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F613" s="7">
+        <v>7.0625</v>
+      </c>
+      <c r="G613">
+        <v>610200</v>
+      </c>
+      <c r="H613">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="614" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F614" s="7">
+        <v>7.0833333333333304</v>
+      </c>
+      <c r="G614">
+        <v>612000</v>
+      </c>
+      <c r="H614">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="615" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F615" s="7">
+        <v>7.1041666666666696</v>
+      </c>
+      <c r="G615">
+        <v>613800</v>
+      </c>
+      <c r="H615">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="616" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F616" s="7">
+        <v>7.125</v>
+      </c>
+      <c r="G616">
+        <v>615600</v>
+      </c>
+      <c r="H616">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="617" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F617" s="7">
+        <v>7.1458333333333304</v>
+      </c>
+      <c r="G617">
+        <v>617400</v>
+      </c>
+      <c r="H617">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="618" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F618" s="7">
+        <v>7.1666666666666696</v>
+      </c>
+      <c r="G618">
+        <v>619200</v>
+      </c>
+      <c r="H618">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="619" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F619" s="7">
+        <v>7.1875</v>
+      </c>
+      <c r="G619">
+        <v>621000</v>
+      </c>
+      <c r="H619">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="620" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F620" s="7">
+        <v>7.2083333333333304</v>
+      </c>
+      <c r="G620">
+        <v>622800</v>
+      </c>
+      <c r="H620">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="621" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F621" s="7">
+        <v>7.2291666666666696</v>
+      </c>
+      <c r="G621">
+        <v>624600</v>
+      </c>
+      <c r="H621">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="622" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F622" s="7">
+        <v>7.25</v>
+      </c>
+      <c r="G622">
+        <v>626400</v>
+      </c>
+      <c r="H622">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="623" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F623" s="7">
+        <v>7.2708333333333304</v>
+      </c>
+      <c r="G623">
+        <v>628200</v>
+      </c>
+      <c r="H623">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="624" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F624" s="7">
+        <v>7.2916666666666696</v>
+      </c>
+      <c r="G624">
+        <v>630000</v>
+      </c>
+      <c r="H624">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="625" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F625" s="7">
+        <v>7.3125</v>
+      </c>
+      <c r="G625">
+        <v>631800</v>
+      </c>
+      <c r="H625">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="626" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F626" s="7">
+        <v>7.3333333333333304</v>
+      </c>
+      <c r="G626">
+        <v>633600</v>
+      </c>
+      <c r="H626">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="627" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F627" s="7">
+        <v>7.3541666666666696</v>
+      </c>
+      <c r="G627">
+        <v>635400</v>
+      </c>
+      <c r="H627">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="628" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F628" s="7">
+        <v>7.375</v>
+      </c>
+      <c r="G628">
+        <v>637200</v>
+      </c>
+      <c r="H628">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="629" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F629" s="7">
+        <v>7.3958333333333304</v>
+      </c>
+      <c r="G629">
+        <v>639000</v>
+      </c>
+      <c r="H629">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="630" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F630" s="7">
+        <v>7.4166666666666696</v>
+      </c>
+      <c r="G630">
+        <v>640800</v>
+      </c>
+      <c r="H630">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="631" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F631" s="7">
+        <v>7.4375</v>
+      </c>
+      <c r="G631">
+        <v>642600</v>
+      </c>
+      <c r="H631">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="632" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F632" s="7">
+        <v>7.4583333333333304</v>
+      </c>
+      <c r="G632">
+        <v>644400</v>
+      </c>
+      <c r="H632">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="633" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F633" s="7">
+        <v>7.4791666666666696</v>
+      </c>
+      <c r="G633">
+        <v>646200</v>
+      </c>
+      <c r="H633">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="634" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F634" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="G634">
+        <v>648000</v>
+      </c>
+      <c r="H634">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="635" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F635" s="7">
+        <v>7.5208333333333304</v>
+      </c>
+      <c r="G635">
+        <v>649800</v>
+      </c>
+      <c r="H635">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="636" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F636" s="7">
+        <v>7.5416666666666696</v>
+      </c>
+      <c r="G636">
+        <v>651600</v>
+      </c>
+      <c r="H636">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="637" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F637" s="7">
+        <v>7.5625</v>
+      </c>
+      <c r="G637">
+        <v>653400</v>
+      </c>
+      <c r="H637">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="638" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F638" s="7">
+        <v>7.5833333333333304</v>
+      </c>
+      <c r="G638">
+        <v>655200</v>
+      </c>
+      <c r="H638">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="639" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F639" s="7">
+        <v>7.6041666666666696</v>
+      </c>
+      <c r="G639">
+        <v>657000</v>
+      </c>
+      <c r="H639">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="640" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F640" s="7">
+        <v>7.625</v>
+      </c>
+      <c r="G640">
+        <v>658800</v>
+      </c>
+      <c r="H640">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="641" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F641" s="7">
+        <v>7.6458333333333304</v>
+      </c>
+      <c r="G641">
+        <v>660600</v>
+      </c>
+      <c r="H641">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="642" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F642" s="7">
+        <v>7.6666666666666696</v>
+      </c>
+      <c r="G642">
+        <v>662400</v>
+      </c>
+      <c r="H642">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="643" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F643" s="7">
+        <v>7.6875</v>
+      </c>
+      <c r="G643">
+        <v>664200</v>
+      </c>
+      <c r="H643">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="644" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F644" s="7">
+        <v>7.7083333333333304</v>
+      </c>
+      <c r="G644">
+        <v>666000</v>
+      </c>
+      <c r="H644">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="645" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F645" s="7">
+        <v>7.7291666666666696</v>
+      </c>
+      <c r="G645">
+        <v>667800</v>
+      </c>
+      <c r="H645">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="646" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F646" s="7">
+        <v>7.75</v>
+      </c>
+      <c r="G646">
+        <v>669600</v>
+      </c>
+      <c r="H646">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="647" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F647" s="7">
+        <v>7.7708333333333304</v>
+      </c>
+      <c r="G647">
+        <v>671400</v>
+      </c>
+      <c r="H647">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="648" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F648" s="7">
+        <v>7.7916666666666696</v>
+      </c>
+      <c r="G648">
+        <v>673200</v>
+      </c>
+      <c r="H648">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="649" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F649" s="7">
+        <v>7.8125</v>
+      </c>
+      <c r="G649">
+        <v>675000</v>
+      </c>
+      <c r="H649">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="650" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F650" s="7">
+        <v>7.8333333333333304</v>
+      </c>
+      <c r="G650">
+        <v>676800</v>
+      </c>
+      <c r="H650">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="651" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F651" s="7">
+        <v>7.8541666666666696</v>
+      </c>
+      <c r="G651">
+        <v>678600</v>
+      </c>
+      <c r="H651">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="652" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F652" s="7">
+        <v>7.875</v>
+      </c>
+      <c r="G652">
+        <v>680400</v>
+      </c>
+      <c r="H652">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="653" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F653" s="7">
+        <v>7.8958333333333304</v>
+      </c>
+      <c r="G653">
+        <v>682200</v>
+      </c>
+      <c r="H653">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="654" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F654" s="7">
+        <v>7.9166666666666696</v>
+      </c>
+      <c r="G654">
+        <v>684000</v>
+      </c>
+      <c r="H654">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="655" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F655" s="7">
+        <v>7.9375</v>
+      </c>
+      <c r="G655">
+        <v>685800</v>
+      </c>
+      <c r="H655">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="656" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F656" s="7">
+        <v>7.9583333333333304</v>
+      </c>
+      <c r="G656">
+        <v>687600</v>
+      </c>
+      <c r="H656">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
+    <mergeCell ref="D271:E271"/>
     <mergeCell ref="AA74:AB74"/>
     <mergeCell ref="AE74:AF74"/>
     <mergeCell ref="A1:B1"/>
@@ -16116,12 +22113,1572 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C194"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="2.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>3.91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3600</v>
+      </c>
+      <c r="B4">
+        <v>3.9049999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>7200</v>
+      </c>
+      <c r="B5">
+        <v>3.8849999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>10800</v>
+      </c>
+      <c r="B6">
+        <v>3.86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>14400</v>
+      </c>
+      <c r="B7">
+        <v>3.8450000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>18000</v>
+      </c>
+      <c r="B8">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>21600</v>
+      </c>
+      <c r="B9">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>25200</v>
+      </c>
+      <c r="B10">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>28800</v>
+      </c>
+      <c r="B11">
+        <v>3.91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>32400</v>
+      </c>
+      <c r="B12">
+        <v>3.915</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>36000</v>
+      </c>
+      <c r="B13">
+        <v>3.895</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>39600</v>
+      </c>
+      <c r="B14">
+        <v>3.86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>43200</v>
+      </c>
+      <c r="B15">
+        <v>3.8450000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>46800</v>
+      </c>
+      <c r="B16">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>50400</v>
+      </c>
+      <c r="B17">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>54000</v>
+      </c>
+      <c r="B18">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>57600</v>
+      </c>
+      <c r="B19">
+        <v>3.86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>61200</v>
+      </c>
+      <c r="B20">
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>64800</v>
+      </c>
+      <c r="B21">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>68400</v>
+      </c>
+      <c r="B22">
+        <v>3.9049999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>72000</v>
+      </c>
+      <c r="B23">
+        <v>3.915</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>75600</v>
+      </c>
+      <c r="B24">
+        <v>3.9249999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>79200</v>
+      </c>
+      <c r="B25">
+        <v>3.93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>82800</v>
+      </c>
+      <c r="B26">
+        <v>3.9350000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>86400</v>
+      </c>
+      <c r="B27">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>90000</v>
+      </c>
+      <c r="B28">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>93600</v>
+      </c>
+      <c r="B29">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>97200</v>
+      </c>
+      <c r="B30">
+        <v>3.8149999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>100800</v>
+      </c>
+      <c r="B31">
+        <v>3.8149999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>104400</v>
+      </c>
+      <c r="B32">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>108000</v>
+      </c>
+      <c r="B33">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>111600</v>
+      </c>
+      <c r="B34">
+        <v>3.7949999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>115200</v>
+      </c>
+      <c r="B35">
+        <v>3.7850000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>118800</v>
+      </c>
+      <c r="B36">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>122400</v>
+      </c>
+      <c r="B37">
+        <v>3.7850000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>126000</v>
+      </c>
+      <c r="B38">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>129600</v>
+      </c>
+      <c r="B39">
+        <v>3.7949999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>133200</v>
+      </c>
+      <c r="B40">
+        <v>3.7650000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>136800</v>
+      </c>
+      <c r="B41">
+        <v>3.7549999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>140400</v>
+      </c>
+      <c r="B42">
+        <v>3.7549999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>144000</v>
+      </c>
+      <c r="B43">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>147600</v>
+      </c>
+      <c r="B44">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>151200</v>
+      </c>
+      <c r="B45">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>154800</v>
+      </c>
+      <c r="B46">
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>158400</v>
+      </c>
+      <c r="B47">
+        <v>3.9049999999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>162000</v>
+      </c>
+      <c r="B48">
+        <v>3.9249999999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>165600</v>
+      </c>
+      <c r="B49">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>169200</v>
+      </c>
+      <c r="B50">
+        <v>3.9950000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>172800</v>
+      </c>
+      <c r="B51">
+        <v>3.9849999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>176400</v>
+      </c>
+      <c r="B52">
+        <v>3.9750000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>180000</v>
+      </c>
+      <c r="B53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>183600</v>
+      </c>
+      <c r="B54">
+        <v>3.9950000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>187200</v>
+      </c>
+      <c r="B55">
+        <v>4.0049999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>190800</v>
+      </c>
+      <c r="B56">
+        <v>4.0049999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>194400</v>
+      </c>
+      <c r="B57">
+        <v>3.9849999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>198000</v>
+      </c>
+      <c r="B58">
+        <v>3.9449999999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>201600</v>
+      </c>
+      <c r="B59">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>205200</v>
+      </c>
+      <c r="B60">
+        <v>3.7850000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>208800</v>
+      </c>
+      <c r="B61">
+        <v>3.6749999999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>212400</v>
+      </c>
+      <c r="B62">
+        <v>3.7349999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>216000</v>
+      </c>
+      <c r="B63">
+        <v>3.625</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>219600</v>
+      </c>
+      <c r="B64">
+        <v>3.5750000000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>223200</v>
+      </c>
+      <c r="B65">
+        <v>3.6150000000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>226800</v>
+      </c>
+      <c r="B66">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>230400</v>
+      </c>
+      <c r="B67">
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>234000</v>
+      </c>
+      <c r="B68">
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>237600</v>
+      </c>
+      <c r="B69">
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>241200</v>
+      </c>
+      <c r="B70">
+        <v>3.5449999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>244800</v>
+      </c>
+      <c r="B71">
+        <v>3.5750000000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>248400</v>
+      </c>
+      <c r="B72">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>252000</v>
+      </c>
+      <c r="B73">
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>255600</v>
+      </c>
+      <c r="B74">
+        <v>3.6949999999999998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>259200</v>
+      </c>
+      <c r="B75">
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>262800</v>
+      </c>
+      <c r="B76">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>266400</v>
+      </c>
+      <c r="B77">
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>270000</v>
+      </c>
+      <c r="B78">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>273600</v>
+      </c>
+      <c r="B79">
+        <v>3.4750000000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>277200</v>
+      </c>
+      <c r="B80">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>280800</v>
+      </c>
+      <c r="B81">
+        <v>3.5049999999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>284400</v>
+      </c>
+      <c r="B82">
+        <v>3.4350000000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>288000</v>
+      </c>
+      <c r="B83">
+        <v>3.36</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>291600</v>
+      </c>
+      <c r="B84">
+        <v>3.2549999999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>295200</v>
+      </c>
+      <c r="B85">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>298800</v>
+      </c>
+      <c r="B86">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>302400</v>
+      </c>
+      <c r="B87">
+        <v>3.085</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>306000</v>
+      </c>
+      <c r="B88">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>309600</v>
+      </c>
+      <c r="B89">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>313200</v>
+      </c>
+      <c r="B90">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>316800</v>
+      </c>
+      <c r="B91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>320400</v>
+      </c>
+      <c r="B92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>324000</v>
+      </c>
+      <c r="B93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>327600</v>
+      </c>
+      <c r="B94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>331200</v>
+      </c>
+      <c r="B95">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>334800</v>
+      </c>
+      <c r="B96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>338400</v>
+      </c>
+      <c r="B97">
+        <v>3.0049999999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>342000</v>
+      </c>
+      <c r="B98">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>345600</v>
+      </c>
+      <c r="B99">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>349200</v>
+      </c>
+      <c r="B100">
+        <v>3.3149999999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>352800</v>
+      </c>
+      <c r="B101">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>356400</v>
+      </c>
+      <c r="B102">
+        <v>3.3250000000000002</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>360000</v>
+      </c>
+      <c r="B103">
+        <v>3.335</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>363600</v>
+      </c>
+      <c r="B104">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>367200</v>
+      </c>
+      <c r="B105">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>370800</v>
+      </c>
+      <c r="B106">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>374400</v>
+      </c>
+      <c r="B107">
+        <v>3.3450000000000002</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>378000</v>
+      </c>
+      <c r="B108">
+        <v>3.3149999999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>381600</v>
+      </c>
+      <c r="B109">
+        <v>3.29</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>385200</v>
+      </c>
+      <c r="B110">
+        <v>3.2450000000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>388800</v>
+      </c>
+      <c r="B111">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>392400</v>
+      </c>
+      <c r="B112">
+        <v>3.3650000000000002</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>396000</v>
+      </c>
+      <c r="B113">
+        <v>3.2450000000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>399600</v>
+      </c>
+      <c r="B114">
+        <v>3.165</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>403200</v>
+      </c>
+      <c r="B115">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>406800</v>
+      </c>
+      <c r="B116">
+        <v>3.1549999999999998</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>410400</v>
+      </c>
+      <c r="B117">
+        <v>3.1749999999999998</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>414000</v>
+      </c>
+      <c r="B118">
+        <v>3.21</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>417600</v>
+      </c>
+      <c r="B119">
+        <v>3.26</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>421200</v>
+      </c>
+      <c r="B120">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>424800</v>
+      </c>
+      <c r="B121">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>428400</v>
+      </c>
+      <c r="B122">
+        <v>3.3050000000000002</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>432000</v>
+      </c>
+      <c r="B123">
+        <v>3.4449999999999998</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>435600</v>
+      </c>
+      <c r="B124">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>439200</v>
+      </c>
+      <c r="B125">
+        <v>3.4550000000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>442800</v>
+      </c>
+      <c r="B126">
+        <v>3.4550000000000001</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>446400</v>
+      </c>
+      <c r="B127">
+        <v>3.46</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>450000</v>
+      </c>
+      <c r="B128">
+        <v>3.4649999999999999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>453600</v>
+      </c>
+      <c r="B129">
+        <v>3.46</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>457200</v>
+      </c>
+      <c r="B130">
+        <v>3.4649999999999999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>460800</v>
+      </c>
+      <c r="B131">
+        <v>3.4649999999999999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>464400</v>
+      </c>
+      <c r="B132">
+        <v>3.4649999999999999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>468000</v>
+      </c>
+      <c r="B133">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>471600</v>
+      </c>
+      <c r="B134">
+        <v>3.4449999999999998</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>475200</v>
+      </c>
+      <c r="B135">
+        <v>3.3650000000000002</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>478800</v>
+      </c>
+      <c r="B136">
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>482400</v>
+      </c>
+      <c r="B137">
+        <v>3.355</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>486000</v>
+      </c>
+      <c r="B138">
+        <v>3.2949999999999999</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>489600</v>
+      </c>
+      <c r="B139">
+        <v>3.2949999999999999</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>493200</v>
+      </c>
+      <c r="B140">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>496800</v>
+      </c>
+      <c r="B141">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>500400</v>
+      </c>
+      <c r="B142">
+        <v>3.375</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>504000</v>
+      </c>
+      <c r="B143">
+        <v>3.47</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>507600</v>
+      </c>
+      <c r="B144">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>511200</v>
+      </c>
+      <c r="B145">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>514800</v>
+      </c>
+      <c r="B146">
+        <v>3.46</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>518400</v>
+      </c>
+      <c r="B147">
+        <v>3.895</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>522000</v>
+      </c>
+      <c r="B148">
+        <v>3.91</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>525600</v>
+      </c>
+      <c r="B149">
+        <v>3.9449999999999998</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>529200</v>
+      </c>
+      <c r="B150">
+        <v>3.94</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>532800</v>
+      </c>
+      <c r="B151">
+        <v>3.9449999999999998</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>536400</v>
+      </c>
+      <c r="B152">
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>540000</v>
+      </c>
+      <c r="B153">
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>543600</v>
+      </c>
+      <c r="B154">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>547200</v>
+      </c>
+      <c r="B155">
+        <v>3.8650000000000002</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>550800</v>
+      </c>
+      <c r="B156">
+        <v>3.835</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>554400</v>
+      </c>
+      <c r="B157">
+        <v>3.8149999999999999</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>558000</v>
+      </c>
+      <c r="B158">
+        <v>3.8149999999999999</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>561600</v>
+      </c>
+      <c r="B159">
+        <v>3.8149999999999999</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>565200</v>
+      </c>
+      <c r="B160">
+        <v>3.835</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>568800</v>
+      </c>
+      <c r="B161">
+        <v>3.83</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>572400</v>
+      </c>
+      <c r="B162">
+        <v>3.8450000000000002</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>576000</v>
+      </c>
+      <c r="B163">
+        <v>3.835</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>579600</v>
+      </c>
+      <c r="B164">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>583200</v>
+      </c>
+      <c r="B165">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>586800</v>
+      </c>
+      <c r="B166">
+        <v>3.855</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>590400</v>
+      </c>
+      <c r="B167">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>594000</v>
+      </c>
+      <c r="B168">
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>597600</v>
+      </c>
+      <c r="B169">
+        <v>3.9049999999999998</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>601200</v>
+      </c>
+      <c r="B170">
+        <v>3.9249999999999998</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>604800</v>
+      </c>
+      <c r="B171">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>608400</v>
+      </c>
+      <c r="B172">
+        <v>3.8149999999999999</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>612000</v>
+      </c>
+      <c r="B173">
+        <v>3.8050000000000002</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>615600</v>
+      </c>
+      <c r="B174">
+        <v>3.8149999999999999</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>619200</v>
+      </c>
+      <c r="B175">
+        <v>3.83</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>622800</v>
+      </c>
+      <c r="B176">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>626400</v>
+      </c>
+      <c r="B177">
+        <v>3.83</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>630000</v>
+      </c>
+      <c r="B178">
+        <v>3.875</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>633600</v>
+      </c>
+      <c r="B179">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>637200</v>
+      </c>
+      <c r="B180">
+        <v>3.835</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>640800</v>
+      </c>
+      <c r="B181">
+        <v>3.8450000000000002</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>644400</v>
+      </c>
+      <c r="B182">
+        <v>3.835</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>648000</v>
+      </c>
+      <c r="B183">
+        <v>3.8250000000000002</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>651600</v>
+      </c>
+      <c r="B184">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>655200</v>
+      </c>
+      <c r="B185">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>658800</v>
+      </c>
+      <c r="B186">
+        <v>3.8050000000000002</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>662400</v>
+      </c>
+      <c r="B187">
+        <v>3.83</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>666000</v>
+      </c>
+      <c r="B188">
+        <v>3.83</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>669600</v>
+      </c>
+      <c r="B189">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>673200</v>
+      </c>
+      <c r="B190">
+        <v>3.8450000000000002</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>676800</v>
+      </c>
+      <c r="B191">
+        <v>3.8250000000000002</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>680400</v>
+      </c>
+      <c r="B192">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>684000</v>
+      </c>
+      <c r="B193">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>687600</v>
+      </c>
+      <c r="B194">
+        <v>3.85</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Electrolyser/Text/Txt creator(hourly).xlsx
+++ b/Electrolyser/Text/Txt creator(hourly).xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="24">
   <si>
     <t>#1</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>Flexibility</t>
+  </si>
+  <si>
+    <t>ptg half</t>
+  </si>
+  <si>
+    <t>pth half</t>
   </si>
 </sst>
 </file>
@@ -486,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF656"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A616" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G272" sqref="G272:H656"/>
+    <sheetView tabSelected="1" topLeftCell="A245" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J274" sqref="J274:J465"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16131,6 +16137,12 @@
         <v>21</v>
       </c>
       <c r="E271" s="9"/>
+      <c r="G271" t="s">
+        <v>22</v>
+      </c>
+      <c r="J271" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="272" spans="2:32" x14ac:dyDescent="0.3">
       <c r="D272" t="s">
@@ -16139,16 +16151,22 @@
       <c r="G272" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="273" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="J272" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D273" t="s">
         <v>12</v>
       </c>
       <c r="G273" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="274" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="J273" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="274" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B274" s="7">
         <v>0</v>
       </c>
@@ -16165,10 +16183,16 @@
         <v>0</v>
       </c>
       <c r="H274">
+        <v>1.8930150000000001E-3</v>
+      </c>
+      <c r="J274">
         <v>0</v>
       </c>
-    </row>
-    <row r="275" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="K274">
+        <v>1.9550000000000001</v>
+      </c>
+    </row>
+    <row r="275" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B275" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -16182,13 +16206,19 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="G275">
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="H275">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.8912325E-3</v>
+      </c>
+      <c r="J275">
+        <v>3600</v>
+      </c>
+      <c r="K275">
+        <v>1.9525000000000001</v>
+      </c>
+    </row>
+    <row r="276" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B276" s="7">
         <v>8.3333333333333301E-2</v>
       </c>
@@ -16202,13 +16232,19 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="G276">
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="H276">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.8841025000000001E-3</v>
+      </c>
+      <c r="J276">
+        <v>7200</v>
+      </c>
+      <c r="K276">
+        <v>1.9424999999999999</v>
+      </c>
+    </row>
+    <row r="277" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B277" s="7">
         <v>0.125</v>
       </c>
@@ -16222,13 +16258,19 @@
         <v>6.25E-2</v>
       </c>
       <c r="G277">
-        <v>5400</v>
+        <v>10800</v>
       </c>
       <c r="H277">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.8751900000000001E-3</v>
+      </c>
+      <c r="J277">
+        <v>10800</v>
+      </c>
+      <c r="K277">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="278" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B278" s="7">
         <v>0.16666666666666699</v>
       </c>
@@ -16242,13 +16284,19 @@
         <v>8.3333333333333301E-2</v>
       </c>
       <c r="G278">
-        <v>7200</v>
+        <v>14400</v>
       </c>
       <c r="H278">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.8698425E-3</v>
+      </c>
+      <c r="J278">
+        <v>14400</v>
+      </c>
+      <c r="K278">
+        <v>1.9224999999999999</v>
+      </c>
+    </row>
+    <row r="279" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B279" s="7">
         <v>0.20833333333333301</v>
       </c>
@@ -16262,13 +16310,19 @@
         <v>0.104166666666667</v>
       </c>
       <c r="G279">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="H279">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.8573650000000001E-3</v>
+      </c>
+      <c r="J279">
+        <v>18000</v>
+      </c>
+      <c r="K279">
+        <v>1.905</v>
+      </c>
+    </row>
+    <row r="280" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B280" s="7">
         <v>0.25</v>
       </c>
@@ -16282,13 +16336,19 @@
         <v>0.125</v>
       </c>
       <c r="G280">
-        <v>10800</v>
+        <v>21600</v>
       </c>
       <c r="H280">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.8538000000000001E-3</v>
+      </c>
+      <c r="J280">
+        <v>21600</v>
+      </c>
+      <c r="K280">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="281" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B281" s="7">
         <v>0.29166666666666702</v>
       </c>
@@ -16302,13 +16362,19 @@
         <v>0.14583333333333301</v>
       </c>
       <c r="G281">
-        <v>12600</v>
+        <v>25200</v>
       </c>
       <c r="H281">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.88232E-3</v>
+      </c>
+      <c r="J281">
+        <v>25200</v>
+      </c>
+      <c r="K281">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="282" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B282" s="7">
         <v>0.33333333333333298</v>
       </c>
@@ -16322,13 +16388,19 @@
         <v>0.16666666666666699</v>
       </c>
       <c r="G282">
-        <v>14400</v>
+        <v>28800</v>
       </c>
       <c r="H282">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.8930150000000001E-3</v>
+      </c>
+      <c r="J282">
+        <v>28800</v>
+      </c>
+      <c r="K282">
+        <v>1.9550000000000001</v>
+      </c>
+    </row>
+    <row r="283" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B283" s="7">
         <v>0.375</v>
       </c>
@@ -16342,13 +16414,19 @@
         <v>0.1875</v>
       </c>
       <c r="G283">
-        <v>16200</v>
+        <v>32400</v>
       </c>
       <c r="H283">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.8947975000000001E-3</v>
+      </c>
+      <c r="J283">
+        <v>32400</v>
+      </c>
+      <c r="K283">
+        <v>1.9575</v>
+      </c>
+    </row>
+    <row r="284" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B284" s="7">
         <v>0.41666666666666702</v>
       </c>
@@ -16362,13 +16440,19 @@
         <v>0.20833333333333301</v>
       </c>
       <c r="G284">
-        <v>18000</v>
+        <v>36000</v>
       </c>
       <c r="H284">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.8876675000000002E-3</v>
+      </c>
+      <c r="J284">
+        <v>36000</v>
+      </c>
+      <c r="K284">
+        <v>1.9475</v>
+      </c>
+    </row>
+    <row r="285" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B285" s="7">
         <v>0.45833333333333298</v>
       </c>
@@ -16382,13 +16466,19 @@
         <v>0.22916666666666699</v>
       </c>
       <c r="G285">
-        <v>19800</v>
+        <v>39600</v>
       </c>
       <c r="H285">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.8751900000000001E-3</v>
+      </c>
+      <c r="J285">
+        <v>39600</v>
+      </c>
+      <c r="K285">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="286" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B286" s="7">
         <v>0.5</v>
       </c>
@@ -16402,13 +16492,19 @@
         <v>0.25</v>
       </c>
       <c r="G286">
-        <v>21600</v>
+        <v>43200</v>
       </c>
       <c r="H286">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.8698425E-3</v>
+      </c>
+      <c r="J286">
+        <v>43200</v>
+      </c>
+      <c r="K286">
+        <v>1.9224999999999999</v>
+      </c>
+    </row>
+    <row r="287" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B287" s="7">
         <v>0.54166666666666696</v>
       </c>
@@ -16422,13 +16518,19 @@
         <v>0.27083333333333298</v>
       </c>
       <c r="G287">
-        <v>23400</v>
+        <v>46800</v>
       </c>
       <c r="H287">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.86093E-3</v>
+      </c>
+      <c r="J287">
+        <v>46800</v>
+      </c>
+      <c r="K287">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="288" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B288" s="7">
         <v>0.58333333333333304</v>
       </c>
@@ -16442,13 +16544,19 @@
         <v>0.29166666666666702</v>
       </c>
       <c r="G288">
-        <v>25200</v>
+        <v>50400</v>
       </c>
       <c r="H288">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.86093E-3</v>
+      </c>
+      <c r="J288">
+        <v>50400</v>
+      </c>
+      <c r="K288">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="289" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B289" s="7">
         <v>0.625</v>
       </c>
@@ -16462,13 +16570,19 @@
         <v>0.3125</v>
       </c>
       <c r="G289">
-        <v>27000</v>
+        <v>54000</v>
       </c>
       <c r="H289">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.8680599999999999E-3</v>
+      </c>
+      <c r="J289">
+        <v>54000</v>
+      </c>
+      <c r="K289">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="290" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B290" s="7">
         <v>0.66666666666666696</v>
       </c>
@@ -16482,13 +16596,19 @@
         <v>0.33333333333333298</v>
       </c>
       <c r="G290">
-        <v>28800</v>
+        <v>57600</v>
       </c>
       <c r="H290">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.8751900000000001E-3</v>
+      </c>
+      <c r="J290">
+        <v>57600</v>
+      </c>
+      <c r="K290">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="291" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B291" s="7">
         <v>0.70833333333333304</v>
       </c>
@@ -16502,13 +16622,19 @@
         <v>0.35416666666666702</v>
       </c>
       <c r="G291">
-        <v>30600</v>
+        <v>61200</v>
       </c>
       <c r="H291">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.8858850000000001E-3</v>
+      </c>
+      <c r="J291">
+        <v>61200</v>
+      </c>
+      <c r="K291">
+        <v>1.9450000000000001</v>
+      </c>
+    </row>
+    <row r="292" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B292" s="7">
         <v>0.75</v>
       </c>
@@ -16522,13 +16648,19 @@
         <v>0.375</v>
       </c>
       <c r="G292">
-        <v>32400</v>
+        <v>64800</v>
       </c>
       <c r="H292">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.88945E-3</v>
+      </c>
+      <c r="J292">
+        <v>64800</v>
+      </c>
+      <c r="K292">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="293" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B293" s="7">
         <v>0.79166666666666696</v>
       </c>
@@ -16542,13 +16674,19 @@
         <v>0.39583333333333298</v>
       </c>
       <c r="G293">
-        <v>34200</v>
+        <v>68400</v>
       </c>
       <c r="H293">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.8912325E-3</v>
+      </c>
+      <c r="J293">
+        <v>68400</v>
+      </c>
+      <c r="K293">
+        <v>1.9525000000000001</v>
+      </c>
+    </row>
+    <row r="294" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B294" s="7">
         <v>0.83333333333333304</v>
       </c>
@@ -16562,13 +16700,19 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="G294">
-        <v>36000</v>
+        <v>72000</v>
       </c>
       <c r="H294">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.8947975000000001E-3</v>
+      </c>
+      <c r="J294">
+        <v>72000</v>
+      </c>
+      <c r="K294">
+        <v>1.9575</v>
+      </c>
+    </row>
+    <row r="295" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B295" s="7">
         <v>0.875</v>
       </c>
@@ -16582,13 +16726,19 @@
         <v>0.4375</v>
       </c>
       <c r="G295">
-        <v>37800</v>
+        <v>75600</v>
       </c>
       <c r="H295">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.8983625E-3</v>
+      </c>
+      <c r="J295">
+        <v>75600</v>
+      </c>
+      <c r="K295">
+        <v>1.9624999999999999</v>
+      </c>
+    </row>
+    <row r="296" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B296" s="7">
         <v>0.91666666666666696</v>
       </c>
@@ -16602,13 +16752,19 @@
         <v>0.45833333333333298</v>
       </c>
       <c r="G296">
-        <v>39600</v>
+        <v>79200</v>
       </c>
       <c r="H296">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="297" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.9001450000000002E-3</v>
+      </c>
+      <c r="J296">
+        <v>79200</v>
+      </c>
+      <c r="K296">
+        <v>1.9650000000000001</v>
+      </c>
+    </row>
+    <row r="297" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B297" s="7">
         <v>0.95833333333333304</v>
       </c>
@@ -16622,13 +16778,19 @@
         <v>0.47916666666666702</v>
       </c>
       <c r="G297">
-        <v>41400</v>
+        <v>82800</v>
       </c>
       <c r="H297">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="298" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.9019275E-3</v>
+      </c>
+      <c r="J297">
+        <v>82800</v>
+      </c>
+      <c r="K297">
+        <v>1.9675</v>
+      </c>
+    </row>
+    <row r="298" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B298" s="7">
         <v>0</v>
       </c>
@@ -16642,13 +16804,19 @@
         <v>0.5</v>
       </c>
       <c r="G298">
-        <v>43200</v>
+        <v>86400</v>
       </c>
       <c r="H298">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="299" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.86093E-3</v>
+      </c>
+      <c r="J298">
+        <v>86400</v>
+      </c>
+      <c r="K298">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="299" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B299" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -16662,13 +16830,19 @@
         <v>0.52083333333333304</v>
       </c>
       <c r="G299">
-        <v>45000</v>
+        <v>90000</v>
       </c>
       <c r="H299">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="300" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.8573650000000001E-3</v>
+      </c>
+      <c r="J299">
+        <v>90000</v>
+      </c>
+      <c r="K299">
+        <v>1.905</v>
+      </c>
+    </row>
+    <row r="300" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B300" s="7">
         <v>8.3333333333333301E-2</v>
       </c>
@@ -16682,13 +16856,19 @@
         <v>0.54166666666666696</v>
       </c>
       <c r="G300">
-        <v>46800</v>
+        <v>93600</v>
       </c>
       <c r="H300">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="301" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.8573650000000001E-3</v>
+      </c>
+      <c r="J300">
+        <v>93600</v>
+      </c>
+      <c r="K300">
+        <v>1.905</v>
+      </c>
+    </row>
+    <row r="301" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B301" s="7">
         <v>0.125</v>
       </c>
@@ -16702,13 +16882,19 @@
         <v>0.5625</v>
       </c>
       <c r="G301">
-        <v>48600</v>
+        <v>97200</v>
       </c>
       <c r="H301">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="302" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.8591475E-3</v>
+      </c>
+      <c r="J301">
+        <v>97200</v>
+      </c>
+      <c r="K301">
+        <v>1.9075</v>
+      </c>
+    </row>
+    <row r="302" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B302" s="7">
         <v>0.16666666666666699</v>
       </c>
@@ -16722,13 +16908,19 @@
         <v>0.58333333333333304</v>
       </c>
       <c r="G302">
-        <v>50400</v>
+        <v>100800</v>
       </c>
       <c r="H302">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="303" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.8591475E-3</v>
+      </c>
+      <c r="J302">
+        <v>100800</v>
+      </c>
+      <c r="K302">
+        <v>1.9075</v>
+      </c>
+    </row>
+    <row r="303" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B303" s="7">
         <v>0.20833333333333301</v>
       </c>
@@ -16742,13 +16934,19 @@
         <v>0.60416666666666696</v>
       </c>
       <c r="G303">
-        <v>52200</v>
+        <v>104400</v>
       </c>
       <c r="H303">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="304" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.8538000000000001E-3</v>
+      </c>
+      <c r="J303">
+        <v>104400</v>
+      </c>
+      <c r="K303">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="304" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B304" s="7">
         <v>0.25</v>
       </c>
@@ -16762,13 +16960,19 @@
         <v>0.625</v>
       </c>
       <c r="G304">
-        <v>54000</v>
+        <v>108000</v>
       </c>
       <c r="H304">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="305" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.850235E-3</v>
+      </c>
+      <c r="J304">
+        <v>108000</v>
+      </c>
+      <c r="K304">
+        <v>1.895</v>
+      </c>
+    </row>
+    <row r="305" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B305" s="7">
         <v>0.29166666666666702</v>
       </c>
@@ -16782,13 +16986,19 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="G305">
-        <v>55800</v>
+        <v>111600</v>
       </c>
       <c r="H305">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.8520175E-3</v>
+      </c>
+      <c r="J305">
+        <v>111600</v>
+      </c>
+      <c r="K305">
+        <v>1.8975</v>
+      </c>
+    </row>
+    <row r="306" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B306" s="7">
         <v>0.33333333333333298</v>
       </c>
@@ -16802,13 +17012,19 @@
         <v>0.66666666666666696</v>
       </c>
       <c r="G306">
-        <v>57600</v>
+        <v>115200</v>
       </c>
       <c r="H306">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="307" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.8484525000000002E-3</v>
+      </c>
+      <c r="J306">
+        <v>115200</v>
+      </c>
+      <c r="K306">
+        <v>1.8925000000000001</v>
+      </c>
+    </row>
+    <row r="307" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B307" s="7">
         <v>0.375</v>
       </c>
@@ -16822,13 +17038,19 @@
         <v>0.6875</v>
       </c>
       <c r="G307">
-        <v>59400</v>
+        <v>118800</v>
       </c>
       <c r="H307">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="308" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.8466700000000001E-3</v>
+      </c>
+      <c r="J307">
+        <v>118800</v>
+      </c>
+      <c r="K307">
+        <v>1.8900000000000001</v>
+      </c>
+    </row>
+    <row r="308" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B308" s="7">
         <v>0.41666666666666702</v>
       </c>
@@ -16842,13 +17064,19 @@
         <v>0.70833333333333304</v>
       </c>
       <c r="G308">
-        <v>61200</v>
+        <v>122400</v>
       </c>
       <c r="H308">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="309" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.8484525000000002E-3</v>
+      </c>
+      <c r="J308">
+        <v>122400</v>
+      </c>
+      <c r="K308">
+        <v>1.8925000000000001</v>
+      </c>
+    </row>
+    <row r="309" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B309" s="7">
         <v>0.45833333333333298</v>
       </c>
@@ -16862,13 +17090,19 @@
         <v>0.72916666666666696</v>
       </c>
       <c r="G309">
-        <v>63000</v>
+        <v>126000</v>
       </c>
       <c r="H309">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="310" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.8466700000000001E-3</v>
+      </c>
+      <c r="J309">
+        <v>126000</v>
+      </c>
+      <c r="K309">
+        <v>1.8900000000000001</v>
+      </c>
+    </row>
+    <row r="310" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B310" s="7">
         <v>0.5</v>
       </c>
@@ -16882,13 +17116,19 @@
         <v>0.75</v>
       </c>
       <c r="G310">
-        <v>64800</v>
+        <v>129600</v>
       </c>
       <c r="H310">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="311" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.8520175E-3</v>
+      </c>
+      <c r="J310">
+        <v>129600</v>
+      </c>
+      <c r="K310">
+        <v>1.8975</v>
+      </c>
+    </row>
+    <row r="311" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B311" s="7">
         <v>0.54166666666666696</v>
       </c>
@@ -16902,13 +17142,19 @@
         <v>0.77083333333333304</v>
       </c>
       <c r="G311">
-        <v>66600</v>
+        <v>133200</v>
       </c>
       <c r="H311">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="312" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.8413225E-3</v>
+      </c>
+      <c r="J311">
+        <v>133200</v>
+      </c>
+      <c r="K311">
+        <v>1.8825000000000001</v>
+      </c>
+    </row>
+    <row r="312" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B312" s="7">
         <v>0.58333333333333304</v>
       </c>
@@ -16922,13 +17168,19 @@
         <v>0.79166666666666696</v>
       </c>
       <c r="G312">
-        <v>68400</v>
+        <v>136800</v>
       </c>
       <c r="H312">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.8377574999999999E-3</v>
+      </c>
+      <c r="J312">
+        <v>136800</v>
+      </c>
+      <c r="K312">
+        <v>1.8774999999999999</v>
+      </c>
+    </row>
+    <row r="313" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B313" s="7">
         <v>0.625</v>
       </c>
@@ -16942,13 +17194,19 @@
         <v>0.8125</v>
       </c>
       <c r="G313">
-        <v>70200</v>
+        <v>140400</v>
       </c>
       <c r="H313">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.8377574999999999E-3</v>
+      </c>
+      <c r="J313">
+        <v>140400</v>
+      </c>
+      <c r="K313">
+        <v>1.8774999999999999</v>
+      </c>
+    </row>
+    <row r="314" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B314" s="7">
         <v>0.66666666666666696</v>
       </c>
@@ -16962,13 +17220,19 @@
         <v>0.83333333333333304</v>
       </c>
       <c r="G314">
-        <v>72000</v>
+        <v>144000</v>
       </c>
       <c r="H314">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="315" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.8466700000000001E-3</v>
+      </c>
+      <c r="J314">
+        <v>144000</v>
+      </c>
+      <c r="K314">
+        <v>1.8900000000000001</v>
+      </c>
+    </row>
+    <row r="315" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B315" s="7">
         <v>0.70833333333333304</v>
       </c>
@@ -16982,13 +17246,19 @@
         <v>0.85416666666666696</v>
       </c>
       <c r="G315">
-        <v>73800</v>
+        <v>147600</v>
       </c>
       <c r="H315">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.850235E-3</v>
+      </c>
+      <c r="J315">
+        <v>147600</v>
+      </c>
+      <c r="K315">
+        <v>1.895</v>
+      </c>
+    </row>
+    <row r="316" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B316" s="7">
         <v>0.75</v>
       </c>
@@ -17002,13 +17272,19 @@
         <v>0.875</v>
       </c>
       <c r="G316">
-        <v>75600</v>
+        <v>151200</v>
       </c>
       <c r="H316">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.8680599999999999E-3</v>
+      </c>
+      <c r="J316">
+        <v>151200</v>
+      </c>
+      <c r="K316">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="317" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B317" s="7">
         <v>0.79166666666666696</v>
       </c>
@@ -17022,13 +17298,19 @@
         <v>0.89583333333333304</v>
       </c>
       <c r="G317">
-        <v>77400</v>
+        <v>154800</v>
       </c>
       <c r="H317">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.8858850000000001E-3</v>
+      </c>
+      <c r="J317">
+        <v>154800</v>
+      </c>
+      <c r="K317">
+        <v>1.9450000000000001</v>
+      </c>
+    </row>
+    <row r="318" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B318" s="7">
         <v>0.83333333333333304</v>
       </c>
@@ -17042,13 +17324,19 @@
         <v>0.91666666666666696</v>
       </c>
       <c r="G318">
-        <v>79200</v>
+        <v>158400</v>
       </c>
       <c r="H318">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="319" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.8912325E-3</v>
+      </c>
+      <c r="J318">
+        <v>158400</v>
+      </c>
+      <c r="K318">
+        <v>1.9525000000000001</v>
+      </c>
+    </row>
+    <row r="319" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B319" s="7">
         <v>0.875</v>
       </c>
@@ -17062,13 +17350,19 @@
         <v>0.9375</v>
       </c>
       <c r="G319">
-        <v>81000</v>
+        <v>162000</v>
       </c>
       <c r="H319">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.8983625E-3</v>
+      </c>
+      <c r="J319">
+        <v>162000</v>
+      </c>
+      <c r="K319">
+        <v>1.9624999999999999</v>
+      </c>
+    </row>
+    <row r="320" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B320" s="7">
         <v>0.91666666666666696</v>
       </c>
@@ -17082,13 +17376,19 @@
         <v>0.95833333333333304</v>
       </c>
       <c r="G320">
-        <v>82800</v>
+        <v>165600</v>
       </c>
       <c r="H320">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="321" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.91084E-3</v>
+      </c>
+      <c r="J320">
+        <v>165600</v>
+      </c>
+      <c r="K320">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="321" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B321" s="7">
         <v>0.95833333333333304</v>
       </c>
@@ -17102,13 +17402,19 @@
         <v>0.97916666666666696</v>
       </c>
       <c r="G321">
-        <v>84600</v>
+        <v>169200</v>
       </c>
       <c r="H321">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.9233175000000001E-3</v>
+      </c>
+      <c r="J321">
+        <v>169200</v>
+      </c>
+      <c r="K321">
+        <v>1.9975000000000001</v>
+      </c>
+    </row>
+    <row r="322" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B322" s="7">
         <v>0</v>
       </c>
@@ -17122,13 +17428,19 @@
         <v>1</v>
       </c>
       <c r="G322">
-        <v>86400</v>
+        <v>172800</v>
       </c>
       <c r="H322">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.9197525E-3</v>
+      </c>
+      <c r="J322">
+        <v>172800</v>
+      </c>
+      <c r="K322">
+        <v>1.9924999999999999</v>
+      </c>
+    </row>
+    <row r="323" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B323" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -17142,13 +17454,19 @@
         <v>1.0208333333333299</v>
       </c>
       <c r="G323">
-        <v>88200</v>
+        <v>176400</v>
       </c>
       <c r="H323">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.9161875000000001E-3</v>
+      </c>
+      <c r="J323">
+        <v>176400</v>
+      </c>
+      <c r="K323">
+        <v>1.9875</v>
+      </c>
+    </row>
+    <row r="324" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B324" s="7">
         <v>8.3333333333333301E-2</v>
       </c>
@@ -17162,13 +17480,19 @@
         <v>1.0416666666666701</v>
       </c>
       <c r="G324">
-        <v>90000</v>
+        <v>180000</v>
       </c>
       <c r="H324">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.9251000000000003E-3</v>
+      </c>
+      <c r="J324">
+        <v>180000</v>
+      </c>
+      <c r="K324">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="325" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B325" s="7">
         <v>0.125</v>
       </c>
@@ -17182,13 +17506,19 @@
         <v>1.0625</v>
       </c>
       <c r="G325">
-        <v>91800</v>
+        <v>183600</v>
       </c>
       <c r="H325">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="326" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.9233175000000001E-3</v>
+      </c>
+      <c r="J325">
+        <v>183600</v>
+      </c>
+      <c r="K325">
+        <v>1.9975000000000001</v>
+      </c>
+    </row>
+    <row r="326" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B326" s="7">
         <v>0.16666666666666699</v>
       </c>
@@ -17202,13 +17532,19 @@
         <v>1.0833333333333299</v>
       </c>
       <c r="G326">
-        <v>93600</v>
+        <v>187200</v>
       </c>
       <c r="H326">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="327" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.9268824999999999E-3</v>
+      </c>
+      <c r="J326">
+        <v>187200</v>
+      </c>
+      <c r="K326">
+        <v>2.0024999999999999</v>
+      </c>
+    </row>
+    <row r="327" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B327" s="7">
         <v>0.20833333333333301</v>
       </c>
@@ -17222,13 +17558,19 @@
         <v>1.1041666666666701</v>
       </c>
       <c r="G327">
-        <v>95400</v>
+        <v>190800</v>
       </c>
       <c r="H327">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="328" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.9268824999999999E-3</v>
+      </c>
+      <c r="J327">
+        <v>190800</v>
+      </c>
+      <c r="K327">
+        <v>2.0024999999999999</v>
+      </c>
+    </row>
+    <row r="328" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B328" s="7">
         <v>0.25</v>
       </c>
@@ -17242,13 +17584,19 @@
         <v>1.125</v>
       </c>
       <c r="G328">
-        <v>97200</v>
+        <v>194400</v>
       </c>
       <c r="H328">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="329" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.9197525E-3</v>
+      </c>
+      <c r="J328">
+        <v>194400</v>
+      </c>
+      <c r="K328">
+        <v>1.9924999999999999</v>
+      </c>
+    </row>
+    <row r="329" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B329" s="7">
         <v>0.29166666666666702</v>
       </c>
@@ -17262,13 +17610,19 @@
         <v>1.1458333333333299</v>
       </c>
       <c r="G329">
-        <v>99000</v>
+        <v>198000</v>
       </c>
       <c r="H329">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="330" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.9054925000000001E-3</v>
+      </c>
+      <c r="J329">
+        <v>198000</v>
+      </c>
+      <c r="K329">
+        <v>1.9724999999999999</v>
+      </c>
+    </row>
+    <row r="330" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B330" s="7">
         <v>0.33333333333333298</v>
       </c>
@@ -17282,13 +17636,19 @@
         <v>1.1666666666666701</v>
       </c>
       <c r="G330">
-        <v>100800</v>
+        <v>201600</v>
       </c>
       <c r="H330">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="331" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.871625E-3</v>
+      </c>
+      <c r="J330">
+        <v>201600</v>
+      </c>
+      <c r="K330">
+        <v>1.925</v>
+      </c>
+    </row>
+    <row r="331" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B331" s="7">
         <v>0.375</v>
       </c>
@@ -17302,13 +17662,19 @@
         <v>1.1875</v>
       </c>
       <c r="G331">
-        <v>102600</v>
+        <v>205200</v>
       </c>
       <c r="H331">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="332" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.8484525000000002E-3</v>
+      </c>
+      <c r="J331">
+        <v>205200</v>
+      </c>
+      <c r="K331">
+        <v>1.8925000000000001</v>
+      </c>
+    </row>
+    <row r="332" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B332" s="7">
         <v>0.41666666666666702</v>
       </c>
@@ -17322,13 +17688,19 @@
         <v>1.2083333333333299</v>
       </c>
       <c r="G332">
-        <v>104400</v>
+        <v>208800</v>
       </c>
       <c r="H332">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="333" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.8092375000000002E-3</v>
+      </c>
+      <c r="J332">
+        <v>208800</v>
+      </c>
+      <c r="K332">
+        <v>1.8374999999999999</v>
+      </c>
+    </row>
+    <row r="333" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B333" s="7">
         <v>0.45833333333333298</v>
       </c>
@@ -17342,13 +17714,19 @@
         <v>1.2291666666666701</v>
       </c>
       <c r="G333">
-        <v>106200</v>
+        <v>212400</v>
       </c>
       <c r="H333">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.8306275E-3</v>
+      </c>
+      <c r="J333">
+        <v>212400</v>
+      </c>
+      <c r="K333">
+        <v>1.8674999999999999</v>
+      </c>
+    </row>
+    <row r="334" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B334" s="7">
         <v>0.5</v>
       </c>
@@ -17362,13 +17740,19 @@
         <v>1.25</v>
       </c>
       <c r="G334">
-        <v>108000</v>
+        <v>216000</v>
       </c>
       <c r="H334">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.7914125E-3</v>
+      </c>
+      <c r="J334">
+        <v>216000</v>
+      </c>
+      <c r="K334">
+        <v>1.8125</v>
+      </c>
+    </row>
+    <row r="335" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B335" s="7">
         <v>0.54166666666666696</v>
       </c>
@@ -17382,13 +17766,19 @@
         <v>1.2708333333333299</v>
       </c>
       <c r="G335">
-        <v>109800</v>
+        <v>219600</v>
       </c>
       <c r="H335">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="336" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.7735875E-3</v>
+      </c>
+      <c r="J335">
+        <v>219600</v>
+      </c>
+      <c r="K335">
+        <v>1.7875000000000001</v>
+      </c>
+    </row>
+    <row r="336" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B336" s="7">
         <v>0.58333333333333304</v>
       </c>
@@ -17402,13 +17792,19 @@
         <v>1.2916666666666701</v>
       </c>
       <c r="G336">
-        <v>111600</v>
+        <v>223200</v>
       </c>
       <c r="H336">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="337" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.7878475000000001E-3</v>
+      </c>
+      <c r="J336">
+        <v>223200</v>
+      </c>
+      <c r="K336">
+        <v>1.8075000000000001</v>
+      </c>
+    </row>
+    <row r="337" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B337" s="7">
         <v>0.625</v>
       </c>
@@ -17422,13 +17818,19 @@
         <v>1.3125</v>
       </c>
       <c r="G337">
-        <v>113400</v>
+        <v>226800</v>
       </c>
       <c r="H337">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="338" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.7646750000000001E-3</v>
+      </c>
+      <c r="J337">
+        <v>226800</v>
+      </c>
+      <c r="K337">
+        <v>1.7749999999999999</v>
+      </c>
+    </row>
+    <row r="338" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B338" s="7">
         <v>0.66666666666666696</v>
       </c>
@@ -17442,13 +17844,19 @@
         <v>1.3333333333333299</v>
       </c>
       <c r="G338">
-        <v>115200</v>
+        <v>230400</v>
       </c>
       <c r="H338">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="339" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.75398E-3</v>
+      </c>
+      <c r="J338">
+        <v>230400</v>
+      </c>
+      <c r="K338">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="339" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B339" s="7">
         <v>0.70833333333333304</v>
       </c>
@@ -17462,13 +17870,19 @@
         <v>1.3541666666666701</v>
       </c>
       <c r="G339">
-        <v>117000</v>
+        <v>234000</v>
       </c>
       <c r="H339">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="340" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.7575450000000001E-3</v>
+      </c>
+      <c r="J339">
+        <v>234000</v>
+      </c>
+      <c r="K339">
+        <v>1.7650000000000001</v>
+      </c>
+    </row>
+    <row r="340" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B340" s="7">
         <v>0.75</v>
       </c>
@@ -17482,13 +17896,19 @@
         <v>1.375</v>
       </c>
       <c r="G340">
-        <v>118800</v>
+        <v>237600</v>
       </c>
       <c r="H340">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="341" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.75398E-3</v>
+      </c>
+      <c r="J340">
+        <v>237600</v>
+      </c>
+      <c r="K340">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="341" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B341" s="7">
         <v>0.79166666666666696</v>
       </c>
@@ -17502,13 +17922,19 @@
         <v>1.3958333333333299</v>
       </c>
       <c r="G341">
-        <v>120600</v>
+        <v>241200</v>
       </c>
       <c r="H341">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="342" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.7628925E-3</v>
+      </c>
+      <c r="J341">
+        <v>241200</v>
+      </c>
+      <c r="K341">
+        <v>1.7725</v>
+      </c>
+    </row>
+    <row r="342" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B342" s="7">
         <v>0.83333333333333304</v>
       </c>
@@ -17522,13 +17948,19 @@
         <v>1.4166666666666701</v>
       </c>
       <c r="G342">
-        <v>122400</v>
+        <v>244800</v>
       </c>
       <c r="H342">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="343" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.7735875E-3</v>
+      </c>
+      <c r="J342">
+        <v>244800</v>
+      </c>
+      <c r="K342">
+        <v>1.7875000000000001</v>
+      </c>
+    </row>
+    <row r="343" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B343" s="7">
         <v>0.875</v>
       </c>
@@ -17542,13 +17974,19 @@
         <v>1.4375</v>
       </c>
       <c r="G343">
-        <v>124200</v>
+        <v>248400</v>
       </c>
       <c r="H343">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="344" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.7967600000000001E-3</v>
+      </c>
+      <c r="J343">
+        <v>248400</v>
+      </c>
+      <c r="K343">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="344" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B344" s="7">
         <v>0.91666666666666696</v>
       </c>
@@ -17562,13 +18000,19 @@
         <v>1.4583333333333299</v>
       </c>
       <c r="G344">
-        <v>126000</v>
+        <v>252000</v>
       </c>
       <c r="H344">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="345" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.8145850000000001E-3</v>
+      </c>
+      <c r="J344">
+        <v>252000</v>
+      </c>
+      <c r="K344">
+        <v>1.845</v>
+      </c>
+    </row>
+    <row r="345" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B345" s="7">
         <v>0.95833333333333304</v>
       </c>
@@ -17582,13 +18026,19 @@
         <v>1.4791666666666701</v>
       </c>
       <c r="G345">
-        <v>127800</v>
+        <v>255600</v>
       </c>
       <c r="H345">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="346" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.8163675000000001E-3</v>
+      </c>
+      <c r="J345">
+        <v>255600</v>
+      </c>
+      <c r="K345">
+        <v>1.8475000000000001</v>
+      </c>
+    </row>
+    <row r="346" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B346" s="7">
         <v>0</v>
       </c>
@@ -17602,13 +18052,19 @@
         <v>1.5</v>
       </c>
       <c r="G346">
-        <v>129600</v>
+        <v>259200</v>
       </c>
       <c r="H346">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="347" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.7183300000000001E-3</v>
+      </c>
+      <c r="J346">
+        <v>259200</v>
+      </c>
+      <c r="K346">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="347" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B347" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -17622,13 +18078,19 @@
         <v>1.5208333333333299</v>
       </c>
       <c r="G347">
-        <v>131400</v>
+        <v>262800</v>
       </c>
       <c r="H347">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="348" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.7112E-3</v>
+      </c>
+      <c r="J347">
+        <v>262800</v>
+      </c>
+      <c r="K347">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="348" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B348" s="7">
         <v>8.3333333333333301E-2</v>
       </c>
@@ -17642,13 +18104,19 @@
         <v>1.5416666666666701</v>
       </c>
       <c r="G348">
-        <v>133200</v>
+        <v>266400</v>
       </c>
       <c r="H348">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="349" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.7183300000000001E-3</v>
+      </c>
+      <c r="J348">
+        <v>266400</v>
+      </c>
+      <c r="K348">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="349" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B349" s="7">
         <v>0.125</v>
       </c>
@@ -17662,13 +18130,19 @@
         <v>1.5625</v>
       </c>
       <c r="G349">
-        <v>135000</v>
+        <v>270000</v>
       </c>
       <c r="H349">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="350" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.7290250000000001E-3</v>
+      </c>
+      <c r="J349">
+        <v>270000</v>
+      </c>
+      <c r="K349">
+        <v>1.7250000000000001</v>
+      </c>
+    </row>
+    <row r="350" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B350" s="7">
         <v>0.16666666666666699</v>
       </c>
@@ -17682,13 +18156,19 @@
         <v>1.5833333333333299</v>
       </c>
       <c r="G350">
-        <v>136800</v>
+        <v>273600</v>
       </c>
       <c r="H350">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="351" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.7379375000000001E-3</v>
+      </c>
+      <c r="J350">
+        <v>273600</v>
+      </c>
+      <c r="K350">
+        <v>1.7375</v>
+      </c>
+    </row>
+    <row r="351" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B351" s="7">
         <v>0.20833333333333301</v>
       </c>
@@ -17702,13 +18182,19 @@
         <v>1.6041666666666701</v>
       </c>
       <c r="G351">
-        <v>138600</v>
+        <v>277200</v>
       </c>
       <c r="H351">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="352" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.7468500000000001E-3</v>
+      </c>
+      <c r="J351">
+        <v>277200</v>
+      </c>
+      <c r="K351">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="352" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B352" s="7">
         <v>0.25</v>
       </c>
@@ -17722,13 +18208,19 @@
         <v>1.625</v>
       </c>
       <c r="G352">
-        <v>140400</v>
+        <v>280800</v>
       </c>
       <c r="H352">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="353" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.7486325000000001E-3</v>
+      </c>
+      <c r="J352">
+        <v>280800</v>
+      </c>
+      <c r="K352">
+        <v>1.7524999999999999</v>
+      </c>
+    </row>
+    <row r="353" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B353" s="7">
         <v>0.29166666666666702</v>
       </c>
@@ -17742,13 +18234,19 @@
         <v>1.6458333333333299</v>
       </c>
       <c r="G353">
-        <v>142200</v>
+        <v>284400</v>
       </c>
       <c r="H353">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.7236775E-3</v>
+      </c>
+      <c r="J353">
+        <v>284400</v>
+      </c>
+      <c r="K353">
+        <v>1.7175</v>
+      </c>
+    </row>
+    <row r="354" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B354" s="7">
         <v>0.33333333333333298</v>
       </c>
@@ -17762,13 +18260,19 @@
         <v>1.6666666666666701</v>
       </c>
       <c r="G354">
-        <v>144000</v>
+        <v>288000</v>
       </c>
       <c r="H354">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="355" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.6969400000000001E-3</v>
+      </c>
+      <c r="J354">
+        <v>288000</v>
+      </c>
+      <c r="K354">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="355" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B355" s="7">
         <v>0.375</v>
       </c>
@@ -17782,13 +18286,19 @@
         <v>1.6875</v>
       </c>
       <c r="G355">
-        <v>145800</v>
+        <v>291600</v>
       </c>
       <c r="H355">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="356" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.6595075000000001E-3</v>
+      </c>
+      <c r="J355">
+        <v>291600</v>
+      </c>
+      <c r="K355">
+        <v>1.6274999999999999</v>
+      </c>
+    </row>
+    <row r="356" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B356" s="7">
         <v>0.41666666666666702</v>
       </c>
@@ -17802,13 +18312,19 @@
         <v>1.7083333333333299</v>
       </c>
       <c r="G356">
-        <v>147600</v>
+        <v>295200</v>
       </c>
       <c r="H356">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="357" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.6185100000000001E-3</v>
+      </c>
+      <c r="J356">
+        <v>295200</v>
+      </c>
+      <c r="K356">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="357" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B357" s="7">
         <v>0.45833333333333298</v>
       </c>
@@ -17822,13 +18338,19 @@
         <v>1.7291666666666701</v>
       </c>
       <c r="G357">
-        <v>149400</v>
+        <v>298800</v>
       </c>
       <c r="H357">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="358" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.5792950000000001E-3</v>
+      </c>
+      <c r="J357">
+        <v>298800</v>
+      </c>
+      <c r="K357">
+        <v>1.5150000000000001</v>
+      </c>
+    </row>
+    <row r="358" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B358" s="7">
         <v>0.5</v>
       </c>
@@ -17842,13 +18364,19 @@
         <v>1.75</v>
       </c>
       <c r="G358">
-        <v>151200</v>
+        <v>302400</v>
       </c>
       <c r="H358">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="359" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.5989025000000001E-3</v>
+      </c>
+      <c r="J358">
+        <v>302400</v>
+      </c>
+      <c r="K358">
+        <v>1.5425</v>
+      </c>
+    </row>
+    <row r="359" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B359" s="7">
         <v>0.54166666666666696</v>
       </c>
@@ -17862,13 +18390,19 @@
         <v>1.7708333333333299</v>
       </c>
       <c r="G359">
-        <v>153000</v>
+        <v>306000</v>
       </c>
       <c r="H359">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="360" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.6078150000000001E-3</v>
+      </c>
+      <c r="J359">
+        <v>306000</v>
+      </c>
+      <c r="K359">
+        <v>1.5549999999999999</v>
+      </c>
+    </row>
+    <row r="360" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B360" s="7">
         <v>0.58333333333333304</v>
       </c>
@@ -17882,13 +18416,19 @@
         <v>1.7916666666666701</v>
       </c>
       <c r="G360">
-        <v>154800</v>
+        <v>309600</v>
       </c>
       <c r="H360">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="361" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.5828600000000002E-3</v>
+      </c>
+      <c r="J360">
+        <v>309600</v>
+      </c>
+      <c r="K360">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="361" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B361" s="7">
         <v>0.625</v>
       </c>
@@ -17902,13 +18442,19 @@
         <v>1.8125</v>
       </c>
       <c r="G361">
-        <v>156600</v>
+        <v>313200</v>
       </c>
       <c r="H361">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="362" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.586425E-3</v>
+      </c>
+      <c r="J361">
+        <v>313200</v>
+      </c>
+      <c r="K361">
+        <v>1.5249999999999999</v>
+      </c>
+    </row>
+    <row r="362" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B362" s="7">
         <v>0.66666666666666696</v>
       </c>
@@ -17922,13 +18468,19 @@
         <v>1.8333333333333299</v>
       </c>
       <c r="G362">
-        <v>158400</v>
+        <v>316800</v>
       </c>
       <c r="H362">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="363" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.5686000000000001E-3</v>
+      </c>
+      <c r="J362">
+        <v>316800</v>
+      </c>
+      <c r="K362">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="363" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B363" s="7">
         <v>0.70833333333333304</v>
       </c>
@@ -17942,13 +18494,19 @@
         <v>1.8541666666666701</v>
       </c>
       <c r="G363">
-        <v>160200</v>
+        <v>320400</v>
       </c>
       <c r="H363">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="364" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.5686000000000001E-3</v>
+      </c>
+      <c r="J363">
+        <v>320400</v>
+      </c>
+      <c r="K363">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="364" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B364" s="7">
         <v>0.75</v>
       </c>
@@ -17962,13 +18520,19 @@
         <v>1.875</v>
       </c>
       <c r="G364">
-        <v>162000</v>
+        <v>324000</v>
       </c>
       <c r="H364">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="365" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.5686000000000001E-3</v>
+      </c>
+      <c r="J364">
+        <v>324000</v>
+      </c>
+      <c r="K364">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="365" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B365" s="7">
         <v>0.79166666666666696</v>
       </c>
@@ -17982,13 +18546,19 @@
         <v>1.8958333333333299</v>
       </c>
       <c r="G365">
-        <v>163800</v>
+        <v>327600</v>
       </c>
       <c r="H365">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="366" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.5686000000000001E-3</v>
+      </c>
+      <c r="J365">
+        <v>327600</v>
+      </c>
+      <c r="K365">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="366" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B366" s="7">
         <v>0.83333333333333304</v>
       </c>
@@ -18002,13 +18572,19 @@
         <v>1.9166666666666701</v>
       </c>
       <c r="G366">
-        <v>165600</v>
+        <v>331200</v>
       </c>
       <c r="H366">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="367" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.5686000000000001E-3</v>
+      </c>
+      <c r="J366">
+        <v>331200</v>
+      </c>
+      <c r="K366">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="367" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B367" s="7">
         <v>0.875</v>
       </c>
@@ -18022,13 +18598,19 @@
         <v>1.9375</v>
       </c>
       <c r="G367">
-        <v>167400</v>
+        <v>334800</v>
       </c>
       <c r="H367">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="368" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.5686000000000001E-3</v>
+      </c>
+      <c r="J367">
+        <v>334800</v>
+      </c>
+      <c r="K367">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="368" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B368" s="7">
         <v>0.91666666666666696</v>
       </c>
@@ -18042,13 +18624,19 @@
         <v>1.9583333333333299</v>
       </c>
       <c r="G368">
-        <v>169200</v>
+        <v>338400</v>
       </c>
       <c r="H368">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="369" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.5703825000000001E-3</v>
+      </c>
+      <c r="J368">
+        <v>338400</v>
+      </c>
+      <c r="K368">
+        <v>1.5024999999999999</v>
+      </c>
+    </row>
+    <row r="369" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B369" s="7">
         <v>0.95833333333333304</v>
       </c>
@@ -18062,13 +18650,19 @@
         <v>1.9791666666666701</v>
       </c>
       <c r="G369">
-        <v>171000</v>
+        <v>342000</v>
       </c>
       <c r="H369">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="370" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.5828600000000002E-3</v>
+      </c>
+      <c r="J369">
+        <v>342000</v>
+      </c>
+      <c r="K369">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="370" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B370" s="7">
         <v>0</v>
       </c>
@@ -18082,13 +18676,19 @@
         <v>2</v>
       </c>
       <c r="G370">
-        <v>172800</v>
+        <v>345600</v>
       </c>
       <c r="H370">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="371" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.68268E-3</v>
+      </c>
+      <c r="J370">
+        <v>345600</v>
+      </c>
+      <c r="K370">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="371" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B371" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -18102,13 +18702,19 @@
         <v>2.0208333333333299</v>
       </c>
       <c r="G371">
-        <v>174600</v>
+        <v>349200</v>
       </c>
       <c r="H371">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="372" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.6808975000000002E-3</v>
+      </c>
+      <c r="J371">
+        <v>349200</v>
+      </c>
+      <c r="K371">
+        <v>1.6575</v>
+      </c>
+    </row>
+    <row r="372" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B372" s="7">
         <v>8.3333333333333301E-2</v>
       </c>
@@ -18122,13 +18728,19 @@
         <v>2.0416666666666701</v>
       </c>
       <c r="G372">
-        <v>176400</v>
+        <v>352800</v>
       </c>
       <c r="H372">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="373" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.6862450000000001E-3</v>
+      </c>
+      <c r="J372">
+        <v>352800</v>
+      </c>
+      <c r="K372">
+        <v>1.665</v>
+      </c>
+    </row>
+    <row r="373" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B373" s="7">
         <v>0.125</v>
       </c>
@@ -18142,13 +18754,19 @@
         <v>2.0625</v>
       </c>
       <c r="G373">
-        <v>178200</v>
+        <v>356400</v>
       </c>
       <c r="H373">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="374" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.6844625E-3</v>
+      </c>
+      <c r="J373">
+        <v>356400</v>
+      </c>
+      <c r="K373">
+        <v>1.6625000000000001</v>
+      </c>
+    </row>
+    <row r="374" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B374" s="7">
         <v>0.16666666666666699</v>
       </c>
@@ -18162,13 +18780,19 @@
         <v>2.0833333333333299</v>
       </c>
       <c r="G374">
-        <v>180000</v>
+        <v>360000</v>
       </c>
       <c r="H374">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="375" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.6880275000000001E-3</v>
+      </c>
+      <c r="J374">
+        <v>360000</v>
+      </c>
+      <c r="K374">
+        <v>1.6675</v>
+      </c>
+    </row>
+    <row r="375" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B375" s="7">
         <v>0.20833333333333301</v>
       </c>
@@ -18182,13 +18806,19 @@
         <v>2.1041666666666701</v>
       </c>
       <c r="G375">
-        <v>181800</v>
+        <v>363600</v>
       </c>
       <c r="H375">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="376" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.693375E-3</v>
+      </c>
+      <c r="J375">
+        <v>363600</v>
+      </c>
+      <c r="K375">
+        <v>1.675</v>
+      </c>
+    </row>
+    <row r="376" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B376" s="7">
         <v>0.25</v>
       </c>
@@ -18202,13 +18832,19 @@
         <v>2.125</v>
       </c>
       <c r="G376">
-        <v>183600</v>
+        <v>367200</v>
       </c>
       <c r="H376">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="377" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.693375E-3</v>
+      </c>
+      <c r="J376">
+        <v>367200</v>
+      </c>
+      <c r="K376">
+        <v>1.675</v>
+      </c>
+    </row>
+    <row r="377" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B377" s="7">
         <v>0.29166666666666702</v>
       </c>
@@ -18222,13 +18858,19 @@
         <v>2.1458333333333299</v>
       </c>
       <c r="G377">
-        <v>185400</v>
+        <v>370800</v>
       </c>
       <c r="H377">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="378" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.7076350000000001E-3</v>
+      </c>
+      <c r="J377">
+        <v>370800</v>
+      </c>
+      <c r="K377">
+        <v>1.6950000000000001</v>
+      </c>
+    </row>
+    <row r="378" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B378" s="7">
         <v>0.33333333333333298</v>
       </c>
@@ -18242,13 +18884,19 @@
         <v>2.1666666666666701</v>
       </c>
       <c r="G378">
-        <v>187200</v>
+        <v>374400</v>
       </c>
       <c r="H378">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="379" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.6915925E-3</v>
+      </c>
+      <c r="J378">
+        <v>374400</v>
+      </c>
+      <c r="K378">
+        <v>1.6724999999999999</v>
+      </c>
+    </row>
+    <row r="379" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B379" s="7">
         <v>0.375</v>
       </c>
@@ -18262,13 +18910,19 @@
         <v>2.1875</v>
       </c>
       <c r="G379">
-        <v>189000</v>
+        <v>378000</v>
       </c>
       <c r="H379">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="380" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.6808975000000002E-3</v>
+      </c>
+      <c r="J379">
+        <v>378000</v>
+      </c>
+      <c r="K379">
+        <v>1.6575</v>
+      </c>
+    </row>
+    <row r="380" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B380" s="7">
         <v>0.41666666666666702</v>
       </c>
@@ -18282,13 +18936,19 @@
         <v>2.2083333333333299</v>
       </c>
       <c r="G380">
-        <v>190800</v>
+        <v>381600</v>
       </c>
       <c r="H380">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="381" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.6719850000000002E-3</v>
+      </c>
+      <c r="J380">
+        <v>381600</v>
+      </c>
+      <c r="K380">
+        <v>1.645</v>
+      </c>
+    </row>
+    <row r="381" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B381" s="7">
         <v>0.45833333333333298</v>
       </c>
@@ -18302,13 +18962,19 @@
         <v>2.2291666666666701</v>
       </c>
       <c r="G381">
-        <v>192600</v>
+        <v>385200</v>
       </c>
       <c r="H381">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="382" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.6559425E-3</v>
+      </c>
+      <c r="J381">
+        <v>385200</v>
+      </c>
+      <c r="K381">
+        <v>1.6225000000000001</v>
+      </c>
+    </row>
+    <row r="382" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B382" s="7">
         <v>0.5</v>
       </c>
@@ -18322,13 +18988,19 @@
         <v>2.25</v>
       </c>
       <c r="G382">
-        <v>194400</v>
+        <v>388800</v>
       </c>
       <c r="H382">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="383" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.6505950000000001E-3</v>
+      </c>
+      <c r="J382">
+        <v>388800</v>
+      </c>
+      <c r="K382">
+        <v>1.615</v>
+      </c>
+    </row>
+    <row r="383" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B383" s="7">
         <v>0.54166666666666696</v>
       </c>
@@ -18342,13 +19014,19 @@
         <v>2.2708333333333299</v>
       </c>
       <c r="G383">
-        <v>196200</v>
+        <v>392400</v>
       </c>
       <c r="H383">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="384" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.6987225000000001E-3</v>
+      </c>
+      <c r="J383">
+        <v>392400</v>
+      </c>
+      <c r="K383">
+        <v>1.6825000000000001</v>
+      </c>
+    </row>
+    <row r="384" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B384" s="7">
         <v>0.58333333333333304</v>
       </c>
@@ -18362,13 +19040,19 @@
         <v>2.2916666666666701</v>
       </c>
       <c r="G384">
-        <v>198000</v>
+        <v>396000</v>
       </c>
       <c r="H384">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="385" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.6559425E-3</v>
+      </c>
+      <c r="J384">
+        <v>396000</v>
+      </c>
+      <c r="K384">
+        <v>1.6225000000000001</v>
+      </c>
+    </row>
+    <row r="385" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B385" s="7">
         <v>0.625</v>
       </c>
@@ -18382,13 +19066,19 @@
         <v>2.3125</v>
       </c>
       <c r="G385">
-        <v>199800</v>
+        <v>399600</v>
       </c>
       <c r="H385">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="386" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.6274225000000001E-3</v>
+      </c>
+      <c r="J385">
+        <v>399600</v>
+      </c>
+      <c r="K385">
+        <v>1.5825</v>
+      </c>
+    </row>
+    <row r="386" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B386" s="7">
         <v>0.66666666666666696</v>
       </c>
@@ -18402,13 +19092,19 @@
         <v>2.3333333333333299</v>
       </c>
       <c r="G386">
-        <v>201600</v>
+        <v>403200</v>
       </c>
       <c r="H386">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="387" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.62564E-3</v>
+      </c>
+      <c r="J386">
+        <v>403200</v>
+      </c>
+      <c r="K386">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="387" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B387" s="7">
         <v>0.70833333333333304</v>
       </c>
@@ -18422,13 +19118,19 @@
         <v>2.3541666666666701</v>
       </c>
       <c r="G387">
-        <v>203400</v>
+        <v>406800</v>
       </c>
       <c r="H387">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="388" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.6238575E-3</v>
+      </c>
+      <c r="J387">
+        <v>406800</v>
+      </c>
+      <c r="K387">
+        <v>1.5775000000000001</v>
+      </c>
+    </row>
+    <row r="388" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B388" s="7">
         <v>0.75</v>
       </c>
@@ -18442,13 +19144,19 @@
         <v>2.375</v>
       </c>
       <c r="G388">
-        <v>205200</v>
+        <v>410400</v>
       </c>
       <c r="H388">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="389" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.6309875000000001E-3</v>
+      </c>
+      <c r="J388">
+        <v>410400</v>
+      </c>
+      <c r="K388">
+        <v>1.5874999999999999</v>
+      </c>
+    </row>
+    <row r="389" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B389" s="7">
         <v>0.79166666666666696</v>
       </c>
@@ -18462,13 +19170,19 @@
         <v>2.3958333333333299</v>
       </c>
       <c r="G389">
-        <v>207000</v>
+        <v>414000</v>
       </c>
       <c r="H389">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="390" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.643465E-3</v>
+      </c>
+      <c r="J389">
+        <v>414000</v>
+      </c>
+      <c r="K389">
+        <v>1.605</v>
+      </c>
+    </row>
+    <row r="390" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B390" s="7">
         <v>0.83333333333333304</v>
       </c>
@@ -18482,13 +19196,19 @@
         <v>2.4166666666666701</v>
       </c>
       <c r="G390">
-        <v>208800</v>
+        <v>417600</v>
       </c>
       <c r="H390">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="391" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.6612900000000002E-3</v>
+      </c>
+      <c r="J390">
+        <v>417600</v>
+      </c>
+      <c r="K390">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="391" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B391" s="7">
         <v>0.875</v>
       </c>
@@ -18502,13 +19222,19 @@
         <v>2.4375</v>
       </c>
       <c r="G391">
-        <v>210600</v>
+        <v>421200</v>
       </c>
       <c r="H391">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="392" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.67555E-3</v>
+      </c>
+      <c r="J391">
+        <v>421200</v>
+      </c>
+      <c r="K391">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="392" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B392" s="7">
         <v>0.91666666666666696</v>
       </c>
@@ -18522,13 +19248,19 @@
         <v>2.4583333333333299</v>
       </c>
       <c r="G392">
-        <v>212400</v>
+        <v>424800</v>
       </c>
       <c r="H392">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="393" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.67555E-3</v>
+      </c>
+      <c r="J392">
+        <v>424800</v>
+      </c>
+      <c r="K392">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="393" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B393" s="7">
         <v>0.95833333333333304</v>
       </c>
@@ -18542,13 +19274,19 @@
         <v>2.4791666666666701</v>
       </c>
       <c r="G393">
-        <v>214200</v>
+        <v>428400</v>
       </c>
       <c r="H393">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="394" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.6773325000000001E-3</v>
+      </c>
+      <c r="J393">
+        <v>428400</v>
+      </c>
+      <c r="K393">
+        <v>1.6525000000000001</v>
+      </c>
+    </row>
+    <row r="394" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B394" s="7">
         <v>0</v>
       </c>
@@ -18562,13 +19300,19 @@
         <v>2.5</v>
       </c>
       <c r="G394">
-        <v>216000</v>
+        <v>432000</v>
       </c>
       <c r="H394">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="395" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.7272425000000001E-3</v>
+      </c>
+      <c r="J394">
+        <v>432000</v>
+      </c>
+      <c r="K394">
+        <v>1.7224999999999999</v>
+      </c>
+    </row>
+    <row r="395" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B395" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -18582,13 +19326,19 @@
         <v>2.5208333333333299</v>
       </c>
       <c r="G395">
-        <v>217800</v>
+        <v>435600</v>
       </c>
       <c r="H395">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="396" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.7290250000000001E-3</v>
+      </c>
+      <c r="J395">
+        <v>435600</v>
+      </c>
+      <c r="K395">
+        <v>1.7250000000000001</v>
+      </c>
+    </row>
+    <row r="396" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B396" s="7">
         <v>8.3333333333333301E-2</v>
       </c>
@@ -18602,13 +19352,19 @@
         <v>2.5416666666666701</v>
       </c>
       <c r="G396">
-        <v>219600</v>
+        <v>439200</v>
       </c>
       <c r="H396">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="397" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.7308075000000002E-3</v>
+      </c>
+      <c r="J396">
+        <v>439200</v>
+      </c>
+      <c r="K396">
+        <v>1.7275</v>
+      </c>
+    </row>
+    <row r="397" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B397" s="7">
         <v>0.125</v>
       </c>
@@ -18622,13 +19378,19 @@
         <v>2.5625</v>
       </c>
       <c r="G397">
-        <v>221400</v>
+        <v>442800</v>
       </c>
       <c r="H397">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="398" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.7308075000000002E-3</v>
+      </c>
+      <c r="J397">
+        <v>442800</v>
+      </c>
+      <c r="K397">
+        <v>1.7275</v>
+      </c>
+    </row>
+    <row r="398" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B398" s="7">
         <v>0.16666666666666699</v>
       </c>
@@ -18642,13 +19404,19 @@
         <v>2.5833333333333299</v>
       </c>
       <c r="G398">
-        <v>223200</v>
+        <v>446400</v>
       </c>
       <c r="H398">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="399" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.73259E-3</v>
+      </c>
+      <c r="J398">
+        <v>446400</v>
+      </c>
+      <c r="K398">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="399" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B399" s="7">
         <v>0.20833333333333301</v>
       </c>
@@ -18662,13 +19430,19 @@
         <v>2.6041666666666701</v>
       </c>
       <c r="G399">
-        <v>225000</v>
+        <v>450000</v>
       </c>
       <c r="H399">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="400" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.7343725E-3</v>
+      </c>
+      <c r="J399">
+        <v>450000</v>
+      </c>
+      <c r="K399">
+        <v>1.7324999999999999</v>
+      </c>
+    </row>
+    <row r="400" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B400" s="7">
         <v>0.25</v>
       </c>
@@ -18682,13 +19456,19 @@
         <v>2.625</v>
       </c>
       <c r="G400">
-        <v>226800</v>
+        <v>453600</v>
       </c>
       <c r="H400">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="401" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.73259E-3</v>
+      </c>
+      <c r="J400">
+        <v>453600</v>
+      </c>
+      <c r="K400">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="401" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B401" s="7">
         <v>0.29166666666666702</v>
       </c>
@@ -18702,13 +19482,19 @@
         <v>2.6458333333333299</v>
       </c>
       <c r="G401">
-        <v>228600</v>
+        <v>457200</v>
       </c>
       <c r="H401">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="402" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.7343725E-3</v>
+      </c>
+      <c r="J401">
+        <v>457200</v>
+      </c>
+      <c r="K401">
+        <v>1.7324999999999999</v>
+      </c>
+    </row>
+    <row r="402" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B402" s="7">
         <v>0.33333333333333298</v>
       </c>
@@ -18722,13 +19508,19 @@
         <v>2.6666666666666701</v>
       </c>
       <c r="G402">
-        <v>230400</v>
+        <v>460800</v>
       </c>
       <c r="H402">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="403" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.7343725E-3</v>
+      </c>
+      <c r="J402">
+        <v>460800</v>
+      </c>
+      <c r="K402">
+        <v>1.7324999999999999</v>
+      </c>
+    </row>
+    <row r="403" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B403" s="7">
         <v>0.375</v>
       </c>
@@ -18742,13 +19534,19 @@
         <v>2.6875</v>
       </c>
       <c r="G403">
-        <v>232200</v>
+        <v>464400</v>
       </c>
       <c r="H403">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="404" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.7343725E-3</v>
+      </c>
+      <c r="J403">
+        <v>464400</v>
+      </c>
+      <c r="K403">
+        <v>1.7324999999999999</v>
+      </c>
+    </row>
+    <row r="404" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B404" s="7">
         <v>0.41666666666666702</v>
       </c>
@@ -18762,13 +19560,19 @@
         <v>2.7083333333333299</v>
       </c>
       <c r="G404">
-        <v>234000</v>
+        <v>468000</v>
       </c>
       <c r="H404">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="405" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.7290250000000001E-3</v>
+      </c>
+      <c r="J404">
+        <v>468000</v>
+      </c>
+      <c r="K404">
+        <v>1.7250000000000001</v>
+      </c>
+    </row>
+    <row r="405" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B405" s="7">
         <v>0.45833333333333298</v>
       </c>
@@ -18782,13 +19586,19 @@
         <v>2.7291666666666701</v>
       </c>
       <c r="G405">
-        <v>235800</v>
+        <v>471600</v>
       </c>
       <c r="H405">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="406" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.7272425000000001E-3</v>
+      </c>
+      <c r="J405">
+        <v>471600</v>
+      </c>
+      <c r="K405">
+        <v>1.7224999999999999</v>
+      </c>
+    </row>
+    <row r="406" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B406" s="7">
         <v>0.5</v>
       </c>
@@ -18802,13 +19612,19 @@
         <v>2.75</v>
       </c>
       <c r="G406">
-        <v>237600</v>
+        <v>475200</v>
       </c>
       <c r="H406">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="407" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.6987225000000001E-3</v>
+      </c>
+      <c r="J406">
+        <v>475200</v>
+      </c>
+      <c r="K406">
+        <v>1.6825000000000001</v>
+      </c>
+    </row>
+    <row r="407" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B407" s="7">
         <v>0.54166666666666696</v>
       </c>
@@ -18822,13 +19638,19 @@
         <v>2.7708333333333299</v>
       </c>
       <c r="G407">
-        <v>239400</v>
+        <v>478800</v>
       </c>
       <c r="H407">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="408" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.714765E-3</v>
+      </c>
+      <c r="J407">
+        <v>478800</v>
+      </c>
+      <c r="K407">
+        <v>1.7050000000000001</v>
+      </c>
+    </row>
+    <row r="408" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B408" s="7">
         <v>0.58333333333333304</v>
       </c>
@@ -18842,13 +19664,19 @@
         <v>2.7916666666666701</v>
       </c>
       <c r="G408">
-        <v>241200</v>
+        <v>482400</v>
       </c>
       <c r="H408">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="409" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.6951575E-3</v>
+      </c>
+      <c r="J408">
+        <v>482400</v>
+      </c>
+      <c r="K408">
+        <v>1.6775</v>
+      </c>
+    </row>
+    <row r="409" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B409" s="7">
         <v>0.625</v>
       </c>
@@ -18862,13 +19690,19 @@
         <v>2.8125</v>
       </c>
       <c r="G409">
-        <v>243000</v>
+        <v>486000</v>
       </c>
       <c r="H409">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="410" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.6737675E-3</v>
+      </c>
+      <c r="J409">
+        <v>486000</v>
+      </c>
+      <c r="K409">
+        <v>1.6475</v>
+      </c>
+    </row>
+    <row r="410" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B410" s="7">
         <v>0.66666666666666696</v>
       </c>
@@ -18882,13 +19716,19 @@
         <v>2.8333333333333299</v>
       </c>
       <c r="G410">
-        <v>244800</v>
+        <v>489600</v>
       </c>
       <c r="H410">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="411" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.6737675E-3</v>
+      </c>
+      <c r="J410">
+        <v>489600</v>
+      </c>
+      <c r="K410">
+        <v>1.6475</v>
+      </c>
+    </row>
+    <row r="411" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B411" s="7">
         <v>0.70833333333333304</v>
       </c>
@@ -18902,13 +19742,19 @@
         <v>2.8541666666666701</v>
       </c>
       <c r="G411">
-        <v>246600</v>
+        <v>493200</v>
       </c>
       <c r="H411">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="412" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.6862450000000001E-3</v>
+      </c>
+      <c r="J411">
+        <v>493200</v>
+      </c>
+      <c r="K411">
+        <v>1.665</v>
+      </c>
+    </row>
+    <row r="412" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B412" s="7">
         <v>0.75</v>
       </c>
@@ -18922,13 +19768,19 @@
         <v>2.875</v>
       </c>
       <c r="G412">
-        <v>248400</v>
+        <v>496800</v>
       </c>
       <c r="H412">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="413" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.68268E-3</v>
+      </c>
+      <c r="J412">
+        <v>496800</v>
+      </c>
+      <c r="K412">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="413" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B413" s="7">
         <v>0.79166666666666696</v>
       </c>
@@ -18942,13 +19794,19 @@
         <v>2.8958333333333299</v>
       </c>
       <c r="G413">
-        <v>250200</v>
+        <v>500400</v>
       </c>
       <c r="H413">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="414" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.7022875E-3</v>
+      </c>
+      <c r="J413">
+        <v>500400</v>
+      </c>
+      <c r="K413">
+        <v>1.6875</v>
+      </c>
+    </row>
+    <row r="414" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B414" s="7">
         <v>0.83333333333333304</v>
       </c>
@@ -18962,13 +19820,19 @@
         <v>2.9166666666666701</v>
       </c>
       <c r="G414">
-        <v>252000</v>
+        <v>504000</v>
       </c>
       <c r="H414">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="415" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.7361550000000001E-3</v>
+      </c>
+      <c r="J414">
+        <v>504000</v>
+      </c>
+      <c r="K414">
+        <v>1.7350000000000001</v>
+      </c>
+    </row>
+    <row r="415" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B415" s="7">
         <v>0.875</v>
       </c>
@@ -18982,13 +19846,19 @@
         <v>2.9375</v>
       </c>
       <c r="G415">
-        <v>253800</v>
+        <v>507600</v>
       </c>
       <c r="H415">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="416" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.7468500000000001E-3</v>
+      </c>
+      <c r="J415">
+        <v>507600</v>
+      </c>
+      <c r="K415">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="416" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B416" s="7">
         <v>0.91666666666666696</v>
       </c>
@@ -19002,13 +19872,19 @@
         <v>2.9583333333333299</v>
       </c>
       <c r="G416">
-        <v>255600</v>
+        <v>511200</v>
       </c>
       <c r="H416">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="417" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.7682400000000001E-3</v>
+      </c>
+      <c r="J416">
+        <v>511200</v>
+      </c>
+      <c r="K416">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="417" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B417" s="7">
         <v>0.95833333333333304</v>
       </c>
@@ -19022,13 +19898,19 @@
         <v>2.9791666666666701</v>
       </c>
       <c r="G417">
-        <v>257400</v>
+        <v>514800</v>
       </c>
       <c r="H417">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="418" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.73259E-3</v>
+      </c>
+      <c r="J417">
+        <v>514800</v>
+      </c>
+      <c r="K417">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="418" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B418" s="7">
         <v>0</v>
       </c>
@@ -19042,13 +19924,19 @@
         <v>3</v>
       </c>
       <c r="G418">
-        <v>259200</v>
+        <v>518400</v>
       </c>
       <c r="H418">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="419" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.8876675000000002E-3</v>
+      </c>
+      <c r="J418">
+        <v>518400</v>
+      </c>
+      <c r="K418">
+        <v>1.9475</v>
+      </c>
+    </row>
+    <row r="419" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B419" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -19062,13 +19950,19 @@
         <v>3.0208333333333299</v>
       </c>
       <c r="G419">
-        <v>261000</v>
+        <v>522000</v>
       </c>
       <c r="H419">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="420" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.8930150000000001E-3</v>
+      </c>
+      <c r="J419">
+        <v>522000</v>
+      </c>
+      <c r="K419">
+        <v>1.9550000000000001</v>
+      </c>
+    </row>
+    <row r="420" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B420" s="7">
         <v>8.3333333333333301E-2</v>
       </c>
@@ -19082,13 +19976,19 @@
         <v>3.0416666666666701</v>
       </c>
       <c r="G420">
-        <v>262800</v>
+        <v>525600</v>
       </c>
       <c r="H420">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="421" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.9054925000000001E-3</v>
+      </c>
+      <c r="J420">
+        <v>525600</v>
+      </c>
+      <c r="K420">
+        <v>1.9724999999999999</v>
+      </c>
+    </row>
+    <row r="421" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B421" s="7">
         <v>0.125</v>
       </c>
@@ -19102,13 +20002,19 @@
         <v>3.0625</v>
       </c>
       <c r="G421">
-        <v>264600</v>
+        <v>529200</v>
       </c>
       <c r="H421">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="422" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.9037100000000001E-3</v>
+      </c>
+      <c r="J421">
+        <v>529200</v>
+      </c>
+      <c r="K421">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="422" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B422" s="7">
         <v>0.16666666666666699</v>
       </c>
@@ -19122,13 +20028,19 @@
         <v>3.0833333333333299</v>
       </c>
       <c r="G422">
-        <v>266400</v>
+        <v>532800</v>
       </c>
       <c r="H422">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="423" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.9054925000000001E-3</v>
+      </c>
+      <c r="J422">
+        <v>532800</v>
+      </c>
+      <c r="K422">
+        <v>1.9724999999999999</v>
+      </c>
+    </row>
+    <row r="423" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B423" s="7">
         <v>0.20833333333333301</v>
       </c>
@@ -19142,13 +20054,19 @@
         <v>3.1041666666666701</v>
       </c>
       <c r="G423">
-        <v>268200</v>
+        <v>536400</v>
       </c>
       <c r="H423">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="424" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.8858850000000001E-3</v>
+      </c>
+      <c r="J423">
+        <v>536400</v>
+      </c>
+      <c r="K423">
+        <v>1.9450000000000001</v>
+      </c>
+    </row>
+    <row r="424" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B424" s="7">
         <v>0.25</v>
       </c>
@@ -19162,13 +20080,19 @@
         <v>3.125</v>
       </c>
       <c r="G424">
-        <v>270000</v>
+        <v>540000</v>
       </c>
       <c r="H424">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="425" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.878755E-3</v>
+      </c>
+      <c r="J424">
+        <v>540000</v>
+      </c>
+      <c r="K424">
+        <v>1.9350000000000001</v>
+      </c>
+    </row>
+    <row r="425" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B425" s="7">
         <v>0.29166666666666702</v>
       </c>
@@ -19182,13 +20106,19 @@
         <v>3.1458333333333299</v>
       </c>
       <c r="G425">
-        <v>271800</v>
+        <v>543600</v>
       </c>
       <c r="H425">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="426" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.871625E-3</v>
+      </c>
+      <c r="J425">
+        <v>543600</v>
+      </c>
+      <c r="K425">
+        <v>1.925</v>
+      </c>
+    </row>
+    <row r="426" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B426" s="7">
         <v>0.33333333333333298</v>
       </c>
@@ -19202,13 +20132,19 @@
         <v>3.1666666666666701</v>
       </c>
       <c r="G426">
-        <v>273600</v>
+        <v>547200</v>
       </c>
       <c r="H426">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="427" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.8769725000000001E-3</v>
+      </c>
+      <c r="J426">
+        <v>547200</v>
+      </c>
+      <c r="K426">
+        <v>1.9325000000000001</v>
+      </c>
+    </row>
+    <row r="427" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B427" s="7">
         <v>0.375</v>
       </c>
@@ -19222,13 +20158,19 @@
         <v>3.1875</v>
       </c>
       <c r="G427">
-        <v>275400</v>
+        <v>550800</v>
       </c>
       <c r="H427">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="428" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.8662775000000001E-3</v>
+      </c>
+      <c r="J427">
+        <v>550800</v>
+      </c>
+      <c r="K427">
+        <v>1.9175</v>
+      </c>
+    </row>
+    <row r="428" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B428" s="7">
         <v>0.41666666666666702</v>
       </c>
@@ -19242,13 +20184,19 @@
         <v>3.2083333333333299</v>
       </c>
       <c r="G428">
-        <v>277200</v>
+        <v>554400</v>
       </c>
       <c r="H428">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="429" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.8591475E-3</v>
+      </c>
+      <c r="J428">
+        <v>554400</v>
+      </c>
+      <c r="K428">
+        <v>1.9075</v>
+      </c>
+    </row>
+    <row r="429" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B429" s="7">
         <v>0.45833333333333298</v>
       </c>
@@ -19262,13 +20210,19 @@
         <v>3.2291666666666701</v>
       </c>
       <c r="G429">
-        <v>279000</v>
+        <v>558000</v>
       </c>
       <c r="H429">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="430" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.8591475E-3</v>
+      </c>
+      <c r="J429">
+        <v>558000</v>
+      </c>
+      <c r="K429">
+        <v>1.9075</v>
+      </c>
+    </row>
+    <row r="430" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B430" s="7">
         <v>0.5</v>
       </c>
@@ -19282,13 +20236,19 @@
         <v>3.25</v>
       </c>
       <c r="G430">
-        <v>280800</v>
+        <v>561600</v>
       </c>
       <c r="H430">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="431" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.8591475E-3</v>
+      </c>
+      <c r="J430">
+        <v>561600</v>
+      </c>
+      <c r="K430">
+        <v>1.9075</v>
+      </c>
+    </row>
+    <row r="431" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B431" s="7">
         <v>0.54166666666666696</v>
       </c>
@@ -19302,13 +20262,19 @@
         <v>3.2708333333333299</v>
       </c>
       <c r="G431">
-        <v>282600</v>
+        <v>565200</v>
       </c>
       <c r="H431">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="432" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.8662775000000001E-3</v>
+      </c>
+      <c r="J431">
+        <v>565200</v>
+      </c>
+      <c r="K431">
+        <v>1.9175</v>
+      </c>
+    </row>
+    <row r="432" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B432" s="7">
         <v>0.58333333333333304</v>
       </c>
@@ -19322,13 +20288,19 @@
         <v>3.2916666666666701</v>
       </c>
       <c r="G432">
-        <v>284400</v>
+        <v>568800</v>
       </c>
       <c r="H432">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="433" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.8644950000000001E-3</v>
+      </c>
+      <c r="J432">
+        <v>568800</v>
+      </c>
+      <c r="K432">
+        <v>1.915</v>
+      </c>
+    </row>
+    <row r="433" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B433" s="7">
         <v>0.625</v>
       </c>
@@ -19342,13 +20314,19 @@
         <v>3.3125</v>
       </c>
       <c r="G433">
-        <v>286200</v>
+        <v>572400</v>
       </c>
       <c r="H433">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="434" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.8698425E-3</v>
+      </c>
+      <c r="J433">
+        <v>572400</v>
+      </c>
+      <c r="K433">
+        <v>1.9224999999999999</v>
+      </c>
+    </row>
+    <row r="434" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B434" s="7">
         <v>0.66666666666666696</v>
       </c>
@@ -19362,13 +20340,19 @@
         <v>3.3333333333333299</v>
       </c>
       <c r="G434">
-        <v>288000</v>
+        <v>576000</v>
       </c>
       <c r="H434">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="435" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.8662775000000001E-3</v>
+      </c>
+      <c r="J434">
+        <v>576000</v>
+      </c>
+      <c r="K434">
+        <v>1.9175</v>
+      </c>
+    </row>
+    <row r="435" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B435" s="7">
         <v>0.70833333333333304</v>
       </c>
@@ -19382,13 +20366,19 @@
         <v>3.3541666666666701</v>
       </c>
       <c r="G435">
-        <v>289800</v>
+        <v>579600</v>
       </c>
       <c r="H435">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="436" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.8573650000000001E-3</v>
+      </c>
+      <c r="J435">
+        <v>579600</v>
+      </c>
+      <c r="K435">
+        <v>1.905</v>
+      </c>
+    </row>
+    <row r="436" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B436" s="7">
         <v>0.75</v>
       </c>
@@ -19402,13 +20392,19 @@
         <v>3.375</v>
       </c>
       <c r="G436">
-        <v>291600</v>
+        <v>583200</v>
       </c>
       <c r="H436">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="437" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.850235E-3</v>
+      </c>
+      <c r="J436">
+        <v>583200</v>
+      </c>
+      <c r="K436">
+        <v>1.895</v>
+      </c>
+    </row>
+    <row r="437" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B437" s="7">
         <v>0.79166666666666696</v>
       </c>
@@ -19422,13 +20418,19 @@
         <v>3.3958333333333299</v>
       </c>
       <c r="G437">
-        <v>293400</v>
+        <v>586800</v>
       </c>
       <c r="H437">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="438" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.8734075000000001E-3</v>
+      </c>
+      <c r="J437">
+        <v>586800</v>
+      </c>
+      <c r="K437">
+        <v>1.9275</v>
+      </c>
+    </row>
+    <row r="438" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B438" s="7">
         <v>0.83333333333333304</v>
       </c>
@@ -19442,13 +20444,19 @@
         <v>3.4166666666666701</v>
       </c>
       <c r="G438">
-        <v>295200</v>
+        <v>590400</v>
       </c>
       <c r="H438">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="439" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.88232E-3</v>
+      </c>
+      <c r="J438">
+        <v>590400</v>
+      </c>
+      <c r="K438">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="439" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B439" s="7">
         <v>0.875</v>
       </c>
@@ -19462,13 +20470,19 @@
         <v>3.4375</v>
       </c>
       <c r="G439">
-        <v>297000</v>
+        <v>594000</v>
       </c>
       <c r="H439">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="440" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.8858850000000001E-3</v>
+      </c>
+      <c r="J439">
+        <v>594000</v>
+      </c>
+      <c r="K439">
+        <v>1.9450000000000001</v>
+      </c>
+    </row>
+    <row r="440" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B440" s="7">
         <v>0.91666666666666696</v>
       </c>
@@ -19482,13 +20496,19 @@
         <v>3.4583333333333299</v>
       </c>
       <c r="G440">
-        <v>298800</v>
+        <v>597600</v>
       </c>
       <c r="H440">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="441" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.8912325E-3</v>
+      </c>
+      <c r="J440">
+        <v>597600</v>
+      </c>
+      <c r="K440">
+        <v>1.9525000000000001</v>
+      </c>
+    </row>
+    <row r="441" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B441" s="7">
         <v>0.95833333333333304</v>
       </c>
@@ -19502,13 +20522,19 @@
         <v>3.4791666666666701</v>
       </c>
       <c r="G441">
-        <v>300600</v>
+        <v>601200</v>
       </c>
       <c r="H441">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="442" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.8983625E-3</v>
+      </c>
+      <c r="J441">
+        <v>601200</v>
+      </c>
+      <c r="K441">
+        <v>1.9624999999999999</v>
+      </c>
+    </row>
+    <row r="442" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B442" s="7">
         <v>0</v>
       </c>
@@ -19522,13 +20548,19 @@
         <v>3.5</v>
       </c>
       <c r="G442">
-        <v>302400</v>
+        <v>604800</v>
       </c>
       <c r="H442">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="443" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.86093E-3</v>
+      </c>
+      <c r="J442">
+        <v>604800</v>
+      </c>
+      <c r="K442">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="443" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B443" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -19542,13 +20574,19 @@
         <v>3.5208333333333299</v>
       </c>
       <c r="G443">
-        <v>304200</v>
+        <v>608400</v>
       </c>
       <c r="H443">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="444" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.8591475E-3</v>
+      </c>
+      <c r="J443">
+        <v>608400</v>
+      </c>
+      <c r="K443">
+        <v>1.9075</v>
+      </c>
+    </row>
+    <row r="444" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B444" s="7">
         <v>8.3333333333333301E-2</v>
       </c>
@@ -19562,13 +20600,19 @@
         <v>3.5416666666666701</v>
       </c>
       <c r="G444">
-        <v>306000</v>
+        <v>612000</v>
       </c>
       <c r="H444">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="445" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.8555825000000001E-3</v>
+      </c>
+      <c r="J444">
+        <v>612000</v>
+      </c>
+      <c r="K444">
+        <v>1.9025000000000001</v>
+      </c>
+    </row>
+    <row r="445" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B445" s="7">
         <v>0.125</v>
       </c>
@@ -19582,13 +20626,19 @@
         <v>3.5625</v>
       </c>
       <c r="G445">
-        <v>307800</v>
+        <v>615600</v>
       </c>
       <c r="H445">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="446" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.8591475E-3</v>
+      </c>
+      <c r="J445">
+        <v>615600</v>
+      </c>
+      <c r="K445">
+        <v>1.9075</v>
+      </c>
+    </row>
+    <row r="446" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B446" s="7">
         <v>0.16666666666666699</v>
       </c>
@@ -19602,13 +20652,19 @@
         <v>3.5833333333333299</v>
       </c>
       <c r="G446">
-        <v>309600</v>
+        <v>619200</v>
       </c>
       <c r="H446">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="447" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.8644950000000001E-3</v>
+      </c>
+      <c r="J446">
+        <v>619200</v>
+      </c>
+      <c r="K446">
+        <v>1.915</v>
+      </c>
+    </row>
+    <row r="447" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B447" s="7">
         <v>0.20833333333333301</v>
       </c>
@@ -19622,13 +20678,19 @@
         <v>3.6041666666666701</v>
       </c>
       <c r="G447">
-        <v>311400</v>
+        <v>622800</v>
       </c>
       <c r="H447">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="448" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.8680599999999999E-3</v>
+      </c>
+      <c r="J447">
+        <v>622800</v>
+      </c>
+      <c r="K447">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="448" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B448" s="7">
         <v>0.25</v>
       </c>
@@ -19642,13 +20704,19 @@
         <v>3.625</v>
       </c>
       <c r="G448">
-        <v>313200</v>
+        <v>626400</v>
       </c>
       <c r="H448">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="449" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.8644950000000001E-3</v>
+      </c>
+      <c r="J448">
+        <v>626400</v>
+      </c>
+      <c r="K448">
+        <v>1.915</v>
+      </c>
+    </row>
+    <row r="449" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B449" s="7">
         <v>0.29166666666666702</v>
       </c>
@@ -19662,13 +20730,19 @@
         <v>3.6458333333333299</v>
       </c>
       <c r="G449">
-        <v>315000</v>
+        <v>630000</v>
       </c>
       <c r="H449">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="450" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.8805375E-3</v>
+      </c>
+      <c r="J449">
+        <v>630000</v>
+      </c>
+      <c r="K449">
+        <v>1.9375</v>
+      </c>
+    </row>
+    <row r="450" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B450" s="7">
         <v>0.33333333333333298</v>
       </c>
@@ -19682,13 +20756,19 @@
         <v>3.6666666666666701</v>
       </c>
       <c r="G450">
-        <v>316800</v>
+        <v>633600</v>
       </c>
       <c r="H450">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="451" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.88232E-3</v>
+      </c>
+      <c r="J450">
+        <v>633600</v>
+      </c>
+      <c r="K450">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="451" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B451" s="7">
         <v>0.375</v>
       </c>
@@ -19702,13 +20782,19 @@
         <v>3.6875</v>
       </c>
       <c r="G451">
-        <v>318600</v>
+        <v>637200</v>
       </c>
       <c r="H451">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="452" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.8662775000000001E-3</v>
+      </c>
+      <c r="J451">
+        <v>637200</v>
+      </c>
+      <c r="K451">
+        <v>1.9175</v>
+      </c>
+    </row>
+    <row r="452" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B452" s="7">
         <v>0.41666666666666702</v>
       </c>
@@ -19722,13 +20808,19 @@
         <v>3.7083333333333299</v>
       </c>
       <c r="G452">
-        <v>320400</v>
+        <v>640800</v>
       </c>
       <c r="H452">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="453" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.8698425E-3</v>
+      </c>
+      <c r="J452">
+        <v>640800</v>
+      </c>
+      <c r="K452">
+        <v>1.9224999999999999</v>
+      </c>
+    </row>
+    <row r="453" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B453" s="7">
         <v>0.45833333333333298</v>
       </c>
@@ -19742,13 +20834,19 @@
         <v>3.7291666666666701</v>
       </c>
       <c r="G453">
-        <v>322200</v>
+        <v>644400</v>
       </c>
       <c r="H453">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="454" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.8662775000000001E-3</v>
+      </c>
+      <c r="J453">
+        <v>644400</v>
+      </c>
+      <c r="K453">
+        <v>1.9175</v>
+      </c>
+    </row>
+    <row r="454" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B454" s="7">
         <v>0.5</v>
       </c>
@@ -19762,13 +20860,19 @@
         <v>3.75</v>
       </c>
       <c r="G454">
-        <v>324000</v>
+        <v>648000</v>
       </c>
       <c r="H454">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="455" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.8627125E-3</v>
+      </c>
+      <c r="J454">
+        <v>648000</v>
+      </c>
+      <c r="K454">
+        <v>1.9125000000000001</v>
+      </c>
+    </row>
+    <row r="455" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B455" s="7">
         <v>0.54166666666666696</v>
       </c>
@@ -19782,13 +20886,19 @@
         <v>3.7708333333333299</v>
       </c>
       <c r="G455">
-        <v>325800</v>
+        <v>651600</v>
       </c>
       <c r="H455">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="456" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.8573650000000001E-3</v>
+      </c>
+      <c r="J455">
+        <v>651600</v>
+      </c>
+      <c r="K455">
+        <v>1.905</v>
+      </c>
+    </row>
+    <row r="456" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B456" s="7">
         <v>0.58333333333333304</v>
       </c>
@@ -19802,13 +20912,19 @@
         <v>3.7916666666666701</v>
       </c>
       <c r="G456">
-        <v>327600</v>
+        <v>655200</v>
       </c>
       <c r="H456">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="457" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.8573650000000001E-3</v>
+      </c>
+      <c r="J456">
+        <v>655200</v>
+      </c>
+      <c r="K456">
+        <v>1.905</v>
+      </c>
+    </row>
+    <row r="457" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B457" s="7">
         <v>0.625</v>
       </c>
@@ -19822,13 +20938,19 @@
         <v>3.8125</v>
       </c>
       <c r="G457">
-        <v>329400</v>
+        <v>658800</v>
       </c>
       <c r="H457">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="458" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.8555825000000001E-3</v>
+      </c>
+      <c r="J457">
+        <v>658800</v>
+      </c>
+      <c r="K457">
+        <v>1.9025000000000001</v>
+      </c>
+    </row>
+    <row r="458" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B458" s="7">
         <v>0.66666666666666696</v>
       </c>
@@ -19842,13 +20964,19 @@
         <v>3.8333333333333299</v>
       </c>
       <c r="G458">
-        <v>331200</v>
+        <v>662400</v>
       </c>
       <c r="H458">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="459" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.8644950000000001E-3</v>
+      </c>
+      <c r="J458">
+        <v>662400</v>
+      </c>
+      <c r="K458">
+        <v>1.915</v>
+      </c>
+    </row>
+    <row r="459" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B459" s="7">
         <v>0.70833333333333304</v>
       </c>
@@ -19862,13 +20990,19 @@
         <v>3.8541666666666701</v>
       </c>
       <c r="G459">
-        <v>333000</v>
+        <v>666000</v>
       </c>
       <c r="H459">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="460" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.8644950000000001E-3</v>
+      </c>
+      <c r="J459">
+        <v>666000</v>
+      </c>
+      <c r="K459">
+        <v>1.915</v>
+      </c>
+    </row>
+    <row r="460" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B460" s="7">
         <v>0.75</v>
       </c>
@@ -19882,13 +21016,19 @@
         <v>3.875</v>
       </c>
       <c r="G460">
-        <v>334800</v>
+        <v>669600</v>
       </c>
       <c r="H460">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="461" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.8680599999999999E-3</v>
+      </c>
+      <c r="J460">
+        <v>669600</v>
+      </c>
+      <c r="K460">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="461" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B461" s="7">
         <v>0.79166666666666696</v>
       </c>
@@ -19902,13 +21042,19 @@
         <v>3.8958333333333299</v>
       </c>
       <c r="G461">
-        <v>336600</v>
+        <v>673200</v>
       </c>
       <c r="H461">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="462" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.8698425E-3</v>
+      </c>
+      <c r="J461">
+        <v>673200</v>
+      </c>
+      <c r="K461">
+        <v>1.9224999999999999</v>
+      </c>
+    </row>
+    <row r="462" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B462" s="7">
         <v>0.83333333333333304</v>
       </c>
@@ -19922,13 +21068,19 @@
         <v>3.9166666666666701</v>
       </c>
       <c r="G462">
-        <v>338400</v>
+        <v>676800</v>
       </c>
       <c r="H462">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="463" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.8627125E-3</v>
+      </c>
+      <c r="J462">
+        <v>676800</v>
+      </c>
+      <c r="K462">
+        <v>1.9125000000000001</v>
+      </c>
+    </row>
+    <row r="463" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B463" s="7">
         <v>0.875</v>
       </c>
@@ -19942,13 +21094,19 @@
         <v>3.9375</v>
       </c>
       <c r="G463">
-        <v>340200</v>
+        <v>680400</v>
       </c>
       <c r="H463">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="464" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.8538000000000001E-3</v>
+      </c>
+      <c r="J463">
+        <v>680400</v>
+      </c>
+      <c r="K463">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="464" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B464" s="7">
         <v>0.91666666666666696</v>
       </c>
@@ -19962,13 +21120,19 @@
         <v>3.9583333333333299</v>
       </c>
       <c r="G464">
-        <v>342000</v>
+        <v>684000</v>
       </c>
       <c r="H464">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="465" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.86093E-3</v>
+      </c>
+      <c r="J464">
+        <v>684000</v>
+      </c>
+      <c r="K464">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="465" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B465" s="7">
         <v>0.95833333333333304</v>
       </c>
@@ -19982,2111 +21146,971 @@
         <v>3.9791666666666701</v>
       </c>
       <c r="G465">
-        <v>343800</v>
+        <v>687600</v>
       </c>
       <c r="H465">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="466" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.871625E-3</v>
+      </c>
+      <c r="J465">
+        <v>687600</v>
+      </c>
+      <c r="K465">
+        <v>1.925</v>
+      </c>
+    </row>
+    <row r="466" spans="2:11" x14ac:dyDescent="0.3">
       <c r="F466" s="7">
         <v>4</v>
       </c>
-      <c r="G466">
-        <v>345600</v>
-      </c>
-      <c r="H466">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="467" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="467" spans="2:11" x14ac:dyDescent="0.3">
       <c r="F467" s="7">
         <v>4.0208333333333304</v>
       </c>
-      <c r="G467">
-        <v>347400</v>
-      </c>
-      <c r="H467">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="468" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="468" spans="2:11" x14ac:dyDescent="0.3">
       <c r="F468" s="7">
         <v>4.0416666666666696</v>
       </c>
-      <c r="G468">
-        <v>349200</v>
-      </c>
-      <c r="H468">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="469" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="469" spans="2:11" x14ac:dyDescent="0.3">
       <c r="F469" s="7">
         <v>4.0625</v>
       </c>
-      <c r="G469">
-        <v>351000</v>
-      </c>
-      <c r="H469">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="470" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="470" spans="2:11" x14ac:dyDescent="0.3">
       <c r="F470" s="7">
         <v>4.0833333333333304</v>
       </c>
-      <c r="G470">
-        <v>352800</v>
-      </c>
-      <c r="H470">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="471" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="471" spans="2:11" x14ac:dyDescent="0.3">
       <c r="F471" s="7">
         <v>4.1041666666666696</v>
       </c>
-      <c r="G471">
-        <v>354600</v>
-      </c>
-      <c r="H471">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="472" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="472" spans="2:11" x14ac:dyDescent="0.3">
       <c r="F472" s="7">
         <v>4.125</v>
       </c>
-      <c r="G472">
-        <v>356400</v>
-      </c>
-      <c r="H472">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="473" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="473" spans="2:11" x14ac:dyDescent="0.3">
       <c r="F473" s="7">
         <v>4.1458333333333304</v>
       </c>
-      <c r="G473">
-        <v>358200</v>
-      </c>
-      <c r="H473">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="474" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="474" spans="2:11" x14ac:dyDescent="0.3">
       <c r="F474" s="7">
         <v>4.1666666666666696</v>
       </c>
-      <c r="G474">
-        <v>360000</v>
-      </c>
-      <c r="H474">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="475" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="475" spans="2:11" x14ac:dyDescent="0.3">
       <c r="F475" s="7">
         <v>4.1875</v>
       </c>
-      <c r="G475">
-        <v>361800</v>
-      </c>
-      <c r="H475">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="476" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="476" spans="2:11" x14ac:dyDescent="0.3">
       <c r="F476" s="7">
         <v>4.2083333333333304</v>
       </c>
-      <c r="G476">
-        <v>363600</v>
-      </c>
-      <c r="H476">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="477" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="477" spans="2:11" x14ac:dyDescent="0.3">
       <c r="F477" s="7">
         <v>4.2291666666666696</v>
       </c>
-      <c r="G477">
-        <v>365400</v>
-      </c>
-      <c r="H477">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="478" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="478" spans="2:11" x14ac:dyDescent="0.3">
       <c r="F478" s="7">
         <v>4.25</v>
       </c>
-      <c r="G478">
-        <v>367200</v>
-      </c>
-      <c r="H478">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="479" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="479" spans="2:11" x14ac:dyDescent="0.3">
       <c r="F479" s="7">
         <v>4.2708333333333304</v>
       </c>
-      <c r="G479">
-        <v>369000</v>
-      </c>
-      <c r="H479">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="480" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="480" spans="2:11" x14ac:dyDescent="0.3">
       <c r="F480" s="7">
         <v>4.2916666666666696</v>
       </c>
-      <c r="G480">
-        <v>370800</v>
-      </c>
-      <c r="H480">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="481" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="481" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F481" s="7">
         <v>4.3125</v>
       </c>
-      <c r="G481">
-        <v>372600</v>
-      </c>
-      <c r="H481">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="482" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="482" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F482" s="7">
         <v>4.3333333333333304</v>
       </c>
-      <c r="G482">
-        <v>374400</v>
-      </c>
-      <c r="H482">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="483" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="483" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F483" s="7">
         <v>4.3541666666666696</v>
       </c>
-      <c r="G483">
-        <v>376200</v>
-      </c>
-      <c r="H483">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="484" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="484" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F484" s="7">
         <v>4.375</v>
       </c>
-      <c r="G484">
-        <v>378000</v>
-      </c>
-      <c r="H484">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="485" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="485" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F485" s="7">
         <v>4.3958333333333304</v>
       </c>
-      <c r="G485">
-        <v>379800</v>
-      </c>
-      <c r="H485">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="486" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="486" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F486" s="7">
         <v>4.4166666666666696</v>
       </c>
-      <c r="G486">
-        <v>381600</v>
-      </c>
-      <c r="H486">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="487" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="487" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F487" s="7">
         <v>4.4375</v>
       </c>
-      <c r="G487">
-        <v>383400</v>
-      </c>
-      <c r="H487">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="488" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="488" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F488" s="7">
         <v>4.4583333333333304</v>
       </c>
-      <c r="G488">
-        <v>385200</v>
-      </c>
-      <c r="H488">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="489" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="489" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F489" s="7">
         <v>4.4791666666666696</v>
       </c>
-      <c r="G489">
-        <v>387000</v>
-      </c>
-      <c r="H489">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="490" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="490" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F490" s="7">
         <v>4.5</v>
       </c>
-      <c r="G490">
-        <v>388800</v>
-      </c>
-      <c r="H490">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="491" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="491" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F491" s="7">
         <v>4.5208333333333304</v>
       </c>
-      <c r="G491">
-        <v>390600</v>
-      </c>
-      <c r="H491">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="492" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="492" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F492" s="7">
         <v>4.5416666666666696</v>
       </c>
-      <c r="G492">
-        <v>392400</v>
-      </c>
-      <c r="H492">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="493" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="493" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F493" s="7">
         <v>4.5625</v>
       </c>
-      <c r="G493">
-        <v>394200</v>
-      </c>
-      <c r="H493">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="494" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="494" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F494" s="7">
         <v>4.5833333333333304</v>
       </c>
-      <c r="G494">
-        <v>396000</v>
-      </c>
-      <c r="H494">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="495" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="495" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F495" s="7">
         <v>4.6041666666666696</v>
       </c>
-      <c r="G495">
-        <v>397800</v>
-      </c>
-      <c r="H495">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="496" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="496" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F496" s="7">
         <v>4.625</v>
       </c>
-      <c r="G496">
-        <v>399600</v>
-      </c>
-      <c r="H496">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="497" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="497" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F497" s="7">
         <v>4.6458333333333304</v>
       </c>
-      <c r="G497">
-        <v>401400</v>
-      </c>
-      <c r="H497">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="498" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="498" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F498" s="7">
         <v>4.6666666666666696</v>
       </c>
-      <c r="G498">
-        <v>403200</v>
-      </c>
-      <c r="H498">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="499" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="499" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F499" s="7">
         <v>4.6875</v>
       </c>
-      <c r="G499">
-        <v>405000</v>
-      </c>
-      <c r="H499">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="500" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="500" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F500" s="7">
         <v>4.7083333333333304</v>
       </c>
-      <c r="G500">
-        <v>406800</v>
-      </c>
-      <c r="H500">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="501" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="501" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F501" s="7">
         <v>4.7291666666666696</v>
       </c>
-      <c r="G501">
-        <v>408600</v>
-      </c>
-      <c r="H501">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="502" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="502" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F502" s="7">
         <v>4.75</v>
       </c>
-      <c r="G502">
-        <v>410400</v>
-      </c>
-      <c r="H502">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="503" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="503" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F503" s="7">
         <v>4.7708333333333304</v>
       </c>
-      <c r="G503">
-        <v>412200</v>
-      </c>
-      <c r="H503">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="504" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="504" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F504" s="7">
         <v>4.7916666666666696</v>
       </c>
-      <c r="G504">
-        <v>414000</v>
-      </c>
-      <c r="H504">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="505" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="505" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F505" s="7">
         <v>4.8125</v>
       </c>
-      <c r="G505">
-        <v>415800</v>
-      </c>
-      <c r="H505">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="506" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="506" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F506" s="7">
         <v>4.8333333333333304</v>
       </c>
-      <c r="G506">
-        <v>417600</v>
-      </c>
-      <c r="H506">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="507" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="507" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F507" s="7">
         <v>4.8541666666666696</v>
       </c>
-      <c r="G507">
-        <v>419400</v>
-      </c>
-      <c r="H507">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="508" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="508" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F508" s="7">
         <v>4.875</v>
       </c>
-      <c r="G508">
-        <v>421200</v>
-      </c>
-      <c r="H508">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="509" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="509" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F509" s="7">
         <v>4.8958333333333304</v>
       </c>
-      <c r="G509">
-        <v>423000</v>
-      </c>
-      <c r="H509">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="510" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="510" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F510" s="7">
         <v>4.9166666666666696</v>
       </c>
-      <c r="G510">
-        <v>424800</v>
-      </c>
-      <c r="H510">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="511" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="511" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F511" s="7">
         <v>4.9375</v>
       </c>
-      <c r="G511">
-        <v>426600</v>
-      </c>
-      <c r="H511">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="512" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="512" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F512" s="7">
         <v>4.9583333333333304</v>
       </c>
-      <c r="G512">
-        <v>428400</v>
-      </c>
-      <c r="H512">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="513" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="513" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F513" s="7">
         <v>4.9791666666666696</v>
       </c>
-      <c r="G513">
-        <v>430200</v>
-      </c>
-      <c r="H513">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="514" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="514" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F514" s="7">
         <v>5</v>
       </c>
-      <c r="G514">
-        <v>432000</v>
-      </c>
-      <c r="H514">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="515" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="515" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F515" s="7">
         <v>5.0208333333333304</v>
       </c>
-      <c r="G515">
-        <v>433800</v>
-      </c>
-      <c r="H515">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="516" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="516" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F516" s="7">
         <v>5.0416666666666696</v>
       </c>
-      <c r="G516">
-        <v>435600</v>
-      </c>
-      <c r="H516">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="517" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="517" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F517" s="7">
         <v>5.0625</v>
       </c>
-      <c r="G517">
-        <v>437400</v>
-      </c>
-      <c r="H517">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="518" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="518" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F518" s="7">
         <v>5.0833333333333304</v>
       </c>
-      <c r="G518">
-        <v>439200</v>
-      </c>
-      <c r="H518">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="519" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="519" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F519" s="7">
         <v>5.1041666666666696</v>
       </c>
-      <c r="G519">
-        <v>441000</v>
-      </c>
-      <c r="H519">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="520" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="520" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F520" s="7">
         <v>5.125</v>
       </c>
-      <c r="G520">
-        <v>442800</v>
-      </c>
-      <c r="H520">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="521" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="521" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F521" s="7">
         <v>5.1458333333333304</v>
       </c>
-      <c r="G521">
-        <v>444600</v>
-      </c>
-      <c r="H521">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="522" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="522" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F522" s="7">
         <v>5.1666666666666696</v>
       </c>
-      <c r="G522">
-        <v>446400</v>
-      </c>
-      <c r="H522">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="523" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="523" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F523" s="7">
         <v>5.1875</v>
       </c>
-      <c r="G523">
-        <v>448200</v>
-      </c>
-      <c r="H523">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="524" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="524" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F524" s="7">
         <v>5.2083333333333304</v>
       </c>
-      <c r="G524">
-        <v>450000</v>
-      </c>
-      <c r="H524">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="525" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="525" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F525" s="7">
         <v>5.2291666666666696</v>
       </c>
-      <c r="G525">
-        <v>451800</v>
-      </c>
-      <c r="H525">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="526" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="526" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F526" s="7">
         <v>5.25</v>
       </c>
-      <c r="G526">
-        <v>453600</v>
-      </c>
-      <c r="H526">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="527" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="527" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F527" s="7">
         <v>5.2708333333333304</v>
       </c>
-      <c r="G527">
-        <v>455400</v>
-      </c>
-      <c r="H527">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="528" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="528" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F528" s="7">
         <v>5.2916666666666696</v>
       </c>
-      <c r="G528">
-        <v>457200</v>
-      </c>
-      <c r="H528">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="529" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="529" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F529" s="7">
         <v>5.3125</v>
       </c>
-      <c r="G529">
-        <v>459000</v>
-      </c>
-      <c r="H529">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="530" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="530" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F530" s="7">
         <v>5.3333333333333304</v>
       </c>
-      <c r="G530">
-        <v>460800</v>
-      </c>
-      <c r="H530">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="531" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="531" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F531" s="7">
         <v>5.3541666666666696</v>
       </c>
-      <c r="G531">
-        <v>462600</v>
-      </c>
-      <c r="H531">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="532" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="532" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F532" s="7">
         <v>5.375</v>
       </c>
-      <c r="G532">
-        <v>464400</v>
-      </c>
-      <c r="H532">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="533" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="533" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F533" s="7">
         <v>5.3958333333333304</v>
       </c>
-      <c r="G533">
-        <v>466200</v>
-      </c>
-      <c r="H533">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="534" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="534" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F534" s="7">
         <v>5.4166666666666696</v>
       </c>
-      <c r="G534">
-        <v>468000</v>
-      </c>
-      <c r="H534">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="535" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="535" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F535" s="7">
         <v>5.4375</v>
       </c>
-      <c r="G535">
-        <v>469800</v>
-      </c>
-      <c r="H535">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="536" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="536" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F536" s="7">
         <v>5.4583333333333304</v>
       </c>
-      <c r="G536">
-        <v>471600</v>
-      </c>
-      <c r="H536">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="537" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="537" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F537" s="7">
         <v>5.4791666666666696</v>
       </c>
-      <c r="G537">
-        <v>473400</v>
-      </c>
-      <c r="H537">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="538" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="538" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F538" s="7">
         <v>5.5</v>
       </c>
-      <c r="G538">
-        <v>475200</v>
-      </c>
-      <c r="H538">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="539" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="539" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F539" s="7">
         <v>5.5208333333333304</v>
       </c>
-      <c r="G539">
-        <v>477000</v>
-      </c>
-      <c r="H539">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="540" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="540" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F540" s="7">
         <v>5.5416666666666696</v>
       </c>
-      <c r="G540">
-        <v>478800</v>
-      </c>
-      <c r="H540">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="541" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="541" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F541" s="7">
         <v>5.5625</v>
       </c>
-      <c r="G541">
-        <v>480600</v>
-      </c>
-      <c r="H541">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="542" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="542" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F542" s="7">
         <v>5.5833333333333304</v>
       </c>
-      <c r="G542">
-        <v>482400</v>
-      </c>
-      <c r="H542">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="543" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="543" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F543" s="7">
         <v>5.6041666666666696</v>
       </c>
-      <c r="G543">
-        <v>484200</v>
-      </c>
-      <c r="H543">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="544" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="544" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F544" s="7">
         <v>5.625</v>
       </c>
-      <c r="G544">
-        <v>486000</v>
-      </c>
-      <c r="H544">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="545" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="545" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F545" s="7">
         <v>5.6458333333333304</v>
       </c>
-      <c r="G545">
-        <v>487800</v>
-      </c>
-      <c r="H545">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="546" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="546" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F546" s="7">
         <v>5.6666666666666696</v>
       </c>
-      <c r="G546">
-        <v>489600</v>
-      </c>
-      <c r="H546">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="547" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="547" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F547" s="7">
         <v>5.6875</v>
       </c>
-      <c r="G547">
-        <v>491400</v>
-      </c>
-      <c r="H547">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="548" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="548" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F548" s="7">
         <v>5.7083333333333304</v>
       </c>
-      <c r="G548">
-        <v>493200</v>
-      </c>
-      <c r="H548">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="549" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="549" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F549" s="7">
         <v>5.7291666666666696</v>
       </c>
-      <c r="G549">
-        <v>495000</v>
-      </c>
-      <c r="H549">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="550" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="550" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F550" s="7">
         <v>5.75</v>
       </c>
-      <c r="G550">
-        <v>496800</v>
-      </c>
-      <c r="H550">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="551" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="551" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F551" s="7">
         <v>5.7708333333333304</v>
       </c>
-      <c r="G551">
-        <v>498600</v>
-      </c>
-      <c r="H551">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="552" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="552" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F552" s="7">
         <v>5.7916666666666696</v>
       </c>
-      <c r="G552">
-        <v>500400</v>
-      </c>
-      <c r="H552">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="553" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="553" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F553" s="7">
         <v>5.8125</v>
       </c>
-      <c r="G553">
-        <v>502200</v>
-      </c>
-      <c r="H553">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="554" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="554" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F554" s="7">
         <v>5.8333333333333304</v>
       </c>
-      <c r="G554">
-        <v>504000</v>
-      </c>
-      <c r="H554">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="555" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="555" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F555" s="7">
         <v>5.8541666666666696</v>
       </c>
-      <c r="G555">
-        <v>505800</v>
-      </c>
-      <c r="H555">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="556" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="556" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F556" s="7">
         <v>5.875</v>
       </c>
-      <c r="G556">
-        <v>507600</v>
-      </c>
-      <c r="H556">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="557" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="557" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F557" s="7">
         <v>5.8958333333333304</v>
       </c>
-      <c r="G557">
-        <v>509400</v>
-      </c>
-      <c r="H557">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="558" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="558" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F558" s="7">
         <v>5.9166666666666696</v>
       </c>
-      <c r="G558">
-        <v>511200</v>
-      </c>
-      <c r="H558">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="559" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="559" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F559" s="7">
         <v>5.9375</v>
       </c>
-      <c r="G559">
-        <v>513000</v>
-      </c>
-      <c r="H559">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="560" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="560" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F560" s="7">
         <v>5.9583333333333304</v>
       </c>
-      <c r="G560">
-        <v>514800</v>
-      </c>
-      <c r="H560">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="561" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="561" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F561" s="7">
         <v>5.9791666666666696</v>
       </c>
-      <c r="G561">
-        <v>516600</v>
-      </c>
-      <c r="H561">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="562" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="562" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F562" s="7">
         <v>6</v>
       </c>
-      <c r="G562">
-        <v>518400</v>
-      </c>
-      <c r="H562">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="563" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="563" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F563" s="7">
         <v>6.0208333333333304</v>
       </c>
-      <c r="G563">
-        <v>520200</v>
-      </c>
-      <c r="H563">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="564" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="564" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F564" s="7">
         <v>6.0416666666666696</v>
       </c>
-      <c r="G564">
-        <v>522000</v>
-      </c>
-      <c r="H564">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="565" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="565" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F565" s="7">
         <v>6.0625</v>
       </c>
-      <c r="G565">
-        <v>523800</v>
-      </c>
-      <c r="H565">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="566" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="566" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F566" s="7">
         <v>6.0833333333333304</v>
       </c>
-      <c r="G566">
-        <v>525600</v>
-      </c>
-      <c r="H566">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="567" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="567" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F567" s="7">
         <v>6.1041666666666696</v>
       </c>
-      <c r="G567">
-        <v>527400</v>
-      </c>
-      <c r="H567">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="568" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="568" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F568" s="7">
         <v>6.125</v>
       </c>
-      <c r="G568">
-        <v>529200</v>
-      </c>
-      <c r="H568">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="569" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="569" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F569" s="7">
         <v>6.1458333333333304</v>
       </c>
-      <c r="G569">
-        <v>531000</v>
-      </c>
-      <c r="H569">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="570" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="570" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F570" s="7">
         <v>6.1666666666666696</v>
       </c>
-      <c r="G570">
-        <v>532800</v>
-      </c>
-      <c r="H570">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="571" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="571" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F571" s="7">
         <v>6.1875</v>
       </c>
-      <c r="G571">
-        <v>534600</v>
-      </c>
-      <c r="H571">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="572" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="572" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F572" s="7">
         <v>6.2083333333333304</v>
       </c>
-      <c r="G572">
-        <v>536400</v>
-      </c>
-      <c r="H572">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="573" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="573" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F573" s="7">
         <v>6.2291666666666696</v>
       </c>
-      <c r="G573">
-        <v>538200</v>
-      </c>
-      <c r="H573">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="574" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="574" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F574" s="7">
         <v>6.25</v>
       </c>
-      <c r="G574">
-        <v>540000</v>
-      </c>
-      <c r="H574">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="575" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="575" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F575" s="7">
         <v>6.2708333333333304</v>
       </c>
-      <c r="G575">
-        <v>541800</v>
-      </c>
-      <c r="H575">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="576" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="576" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F576" s="7">
         <v>6.2916666666666696</v>
       </c>
-      <c r="G576">
-        <v>543600</v>
-      </c>
-      <c r="H576">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="577" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="577" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F577" s="7">
         <v>6.3125</v>
       </c>
-      <c r="G577">
-        <v>545400</v>
-      </c>
-      <c r="H577">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="578" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="578" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F578" s="7">
         <v>6.3333333333333304</v>
       </c>
-      <c r="G578">
-        <v>547200</v>
-      </c>
-      <c r="H578">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="579" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="579" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F579" s="7">
         <v>6.3541666666666696</v>
       </c>
-      <c r="G579">
-        <v>549000</v>
-      </c>
-      <c r="H579">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="580" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="580" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F580" s="7">
         <v>6.375</v>
       </c>
-      <c r="G580">
-        <v>550800</v>
-      </c>
-      <c r="H580">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="581" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="581" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F581" s="7">
         <v>6.3958333333333304</v>
       </c>
-      <c r="G581">
-        <v>552600</v>
-      </c>
-      <c r="H581">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="582" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="582" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F582" s="7">
         <v>6.4166666666666696</v>
       </c>
-      <c r="G582">
-        <v>554400</v>
-      </c>
-      <c r="H582">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="583" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="583" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F583" s="7">
         <v>6.4375</v>
       </c>
-      <c r="G583">
-        <v>556200</v>
-      </c>
-      <c r="H583">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="584" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="584" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F584" s="7">
         <v>6.4583333333333304</v>
       </c>
-      <c r="G584">
-        <v>558000</v>
-      </c>
-      <c r="H584">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="585" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="585" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F585" s="7">
         <v>6.4791666666666696</v>
       </c>
-      <c r="G585">
-        <v>559800</v>
-      </c>
-      <c r="H585">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="586" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="586" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F586" s="7">
         <v>6.5</v>
       </c>
-      <c r="G586">
-        <v>561600</v>
-      </c>
-      <c r="H586">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="587" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="587" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F587" s="7">
         <v>6.5208333333333304</v>
       </c>
-      <c r="G587">
-        <v>563400</v>
-      </c>
-      <c r="H587">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="588" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="588" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F588" s="7">
         <v>6.5416666666666696</v>
       </c>
-      <c r="G588">
-        <v>565200</v>
-      </c>
-      <c r="H588">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="589" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="589" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F589" s="7">
         <v>6.5625</v>
       </c>
-      <c r="G589">
-        <v>567000</v>
-      </c>
-      <c r="H589">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="590" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="590" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F590" s="7">
         <v>6.5833333333333304</v>
       </c>
-      <c r="G590">
-        <v>568800</v>
-      </c>
-      <c r="H590">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="591" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="591" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F591" s="7">
         <v>6.6041666666666696</v>
       </c>
-      <c r="G591">
-        <v>570600</v>
-      </c>
-      <c r="H591">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="592" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="592" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F592" s="7">
         <v>6.625</v>
       </c>
-      <c r="G592">
-        <v>572400</v>
-      </c>
-      <c r="H592">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="593" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="593" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F593" s="7">
         <v>6.6458333333333304</v>
       </c>
-      <c r="G593">
-        <v>574200</v>
-      </c>
-      <c r="H593">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="594" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="594" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F594" s="7">
         <v>6.6666666666666696</v>
       </c>
-      <c r="G594">
-        <v>576000</v>
-      </c>
-      <c r="H594">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="595" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="595" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F595" s="7">
         <v>6.6875</v>
       </c>
-      <c r="G595">
-        <v>577800</v>
-      </c>
-      <c r="H595">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="596" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="596" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F596" s="7">
         <v>6.7083333333333304</v>
       </c>
-      <c r="G596">
-        <v>579600</v>
-      </c>
-      <c r="H596">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="597" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="597" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F597" s="7">
         <v>6.7291666666666696</v>
       </c>
-      <c r="G597">
-        <v>581400</v>
-      </c>
-      <c r="H597">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="598" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="598" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F598" s="7">
         <v>6.75</v>
       </c>
-      <c r="G598">
-        <v>583200</v>
-      </c>
-      <c r="H598">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="599" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="599" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F599" s="7">
         <v>6.7708333333333304</v>
       </c>
-      <c r="G599">
-        <v>585000</v>
-      </c>
-      <c r="H599">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="600" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="600" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F600" s="7">
         <v>6.7916666666666696</v>
       </c>
-      <c r="G600">
-        <v>586800</v>
-      </c>
-      <c r="H600">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="601" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="601" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F601" s="7">
         <v>6.8125</v>
       </c>
-      <c r="G601">
-        <v>588600</v>
-      </c>
-      <c r="H601">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="602" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="602" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F602" s="7">
         <v>6.8333333333333304</v>
       </c>
-      <c r="G602">
-        <v>590400</v>
-      </c>
-      <c r="H602">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="603" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="603" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F603" s="7">
         <v>6.8541666666666696</v>
       </c>
-      <c r="G603">
-        <v>592200</v>
-      </c>
-      <c r="H603">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="604" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="604" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F604" s="7">
         <v>6.875</v>
       </c>
-      <c r="G604">
-        <v>594000</v>
-      </c>
-      <c r="H604">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="605" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="605" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F605" s="7">
         <v>6.8958333333333304</v>
       </c>
-      <c r="G605">
-        <v>595800</v>
-      </c>
-      <c r="H605">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="606" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="606" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F606" s="7">
         <v>6.9166666666666696</v>
       </c>
-      <c r="G606">
-        <v>597600</v>
-      </c>
-      <c r="H606">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="607" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="607" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F607" s="7">
         <v>6.9375</v>
       </c>
-      <c r="G607">
-        <v>599400</v>
-      </c>
-      <c r="H607">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="608" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="608" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F608" s="7">
         <v>6.9583333333333304</v>
       </c>
-      <c r="G608">
-        <v>601200</v>
-      </c>
-      <c r="H608">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="609" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="609" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F609" s="7">
         <v>6.9791666666666696</v>
       </c>
-      <c r="G609">
-        <v>603000</v>
-      </c>
-      <c r="H609">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="610" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="610" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F610" s="7">
         <v>7</v>
       </c>
-      <c r="G610">
-        <v>604800</v>
-      </c>
-      <c r="H610">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="611" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="611" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F611" s="7">
         <v>7.0208333333333304</v>
       </c>
-      <c r="G611">
-        <v>606600</v>
-      </c>
-      <c r="H611">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="612" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="612" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F612" s="7">
         <v>7.0416666666666696</v>
       </c>
-      <c r="G612">
-        <v>608400</v>
-      </c>
-      <c r="H612">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="613" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="613" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F613" s="7">
         <v>7.0625</v>
       </c>
-      <c r="G613">
-        <v>610200</v>
-      </c>
-      <c r="H613">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="614" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="614" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F614" s="7">
         <v>7.0833333333333304</v>
       </c>
-      <c r="G614">
-        <v>612000</v>
-      </c>
-      <c r="H614">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="615" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="615" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F615" s="7">
         <v>7.1041666666666696</v>
       </c>
-      <c r="G615">
-        <v>613800</v>
-      </c>
-      <c r="H615">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="616" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="616" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F616" s="7">
         <v>7.125</v>
       </c>
-      <c r="G616">
-        <v>615600</v>
-      </c>
-      <c r="H616">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="617" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="617" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F617" s="7">
         <v>7.1458333333333304</v>
       </c>
-      <c r="G617">
-        <v>617400</v>
-      </c>
-      <c r="H617">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="618" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="618" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F618" s="7">
         <v>7.1666666666666696</v>
       </c>
-      <c r="G618">
-        <v>619200</v>
-      </c>
-      <c r="H618">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="619" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="619" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F619" s="7">
         <v>7.1875</v>
       </c>
-      <c r="G619">
-        <v>621000</v>
-      </c>
-      <c r="H619">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="620" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="620" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F620" s="7">
         <v>7.2083333333333304</v>
       </c>
-      <c r="G620">
-        <v>622800</v>
-      </c>
-      <c r="H620">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="621" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="621" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F621" s="7">
         <v>7.2291666666666696</v>
       </c>
-      <c r="G621">
-        <v>624600</v>
-      </c>
-      <c r="H621">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="622" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="622" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F622" s="7">
         <v>7.25</v>
       </c>
-      <c r="G622">
-        <v>626400</v>
-      </c>
-      <c r="H622">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="623" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="623" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F623" s="7">
         <v>7.2708333333333304</v>
       </c>
-      <c r="G623">
-        <v>628200</v>
-      </c>
-      <c r="H623">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="624" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="624" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F624" s="7">
         <v>7.2916666666666696</v>
       </c>
-      <c r="G624">
-        <v>630000</v>
-      </c>
-      <c r="H624">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="625" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="625" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F625" s="7">
         <v>7.3125</v>
       </c>
-      <c r="G625">
-        <v>631800</v>
-      </c>
-      <c r="H625">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="626" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="626" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F626" s="7">
         <v>7.3333333333333304</v>
       </c>
-      <c r="G626">
-        <v>633600</v>
-      </c>
-      <c r="H626">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="627" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="627" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F627" s="7">
         <v>7.3541666666666696</v>
       </c>
-      <c r="G627">
-        <v>635400</v>
-      </c>
-      <c r="H627">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="628" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="628" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F628" s="7">
         <v>7.375</v>
       </c>
-      <c r="G628">
-        <v>637200</v>
-      </c>
-      <c r="H628">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="629" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="629" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F629" s="7">
         <v>7.3958333333333304</v>
       </c>
-      <c r="G629">
-        <v>639000</v>
-      </c>
-      <c r="H629">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="630" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="630" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F630" s="7">
         <v>7.4166666666666696</v>
       </c>
-      <c r="G630">
-        <v>640800</v>
-      </c>
-      <c r="H630">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="631" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="631" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F631" s="7">
         <v>7.4375</v>
       </c>
-      <c r="G631">
-        <v>642600</v>
-      </c>
-      <c r="H631">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="632" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="632" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F632" s="7">
         <v>7.4583333333333304</v>
       </c>
-      <c r="G632">
-        <v>644400</v>
-      </c>
-      <c r="H632">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="633" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="633" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F633" s="7">
         <v>7.4791666666666696</v>
       </c>
-      <c r="G633">
-        <v>646200</v>
-      </c>
-      <c r="H633">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="634" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="634" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F634" s="7">
         <v>7.5</v>
       </c>
-      <c r="G634">
-        <v>648000</v>
-      </c>
-      <c r="H634">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="635" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="635" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F635" s="7">
         <v>7.5208333333333304</v>
       </c>
-      <c r="G635">
-        <v>649800</v>
-      </c>
-      <c r="H635">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="636" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="636" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F636" s="7">
         <v>7.5416666666666696</v>
       </c>
-      <c r="G636">
-        <v>651600</v>
-      </c>
-      <c r="H636">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="637" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="637" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F637" s="7">
         <v>7.5625</v>
       </c>
-      <c r="G637">
-        <v>653400</v>
-      </c>
-      <c r="H637">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="638" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="638" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F638" s="7">
         <v>7.5833333333333304</v>
       </c>
-      <c r="G638">
-        <v>655200</v>
-      </c>
-      <c r="H638">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="639" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="639" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F639" s="7">
         <v>7.6041666666666696</v>
       </c>
-      <c r="G639">
-        <v>657000</v>
-      </c>
-      <c r="H639">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="640" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="640" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F640" s="7">
         <v>7.625</v>
       </c>
-      <c r="G640">
-        <v>658800</v>
-      </c>
-      <c r="H640">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="641" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="641" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F641" s="7">
         <v>7.6458333333333304</v>
       </c>
-      <c r="G641">
-        <v>660600</v>
-      </c>
-      <c r="H641">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="642" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="642" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F642" s="7">
         <v>7.6666666666666696</v>
       </c>
-      <c r="G642">
-        <v>662400</v>
-      </c>
-      <c r="H642">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="643" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="643" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F643" s="7">
         <v>7.6875</v>
       </c>
-      <c r="G643">
-        <v>664200</v>
-      </c>
-      <c r="H643">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="644" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="644" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F644" s="7">
         <v>7.7083333333333304</v>
       </c>
-      <c r="G644">
-        <v>666000</v>
-      </c>
-      <c r="H644">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="645" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="645" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F645" s="7">
         <v>7.7291666666666696</v>
       </c>
-      <c r="G645">
-        <v>667800</v>
-      </c>
-      <c r="H645">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="646" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="646" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F646" s="7">
         <v>7.75</v>
       </c>
-      <c r="G646">
-        <v>669600</v>
-      </c>
-      <c r="H646">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="647" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="647" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F647" s="7">
         <v>7.7708333333333304</v>
       </c>
-      <c r="G647">
-        <v>671400</v>
-      </c>
-      <c r="H647">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="648" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="648" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F648" s="7">
         <v>7.7916666666666696</v>
       </c>
-      <c r="G648">
-        <v>673200</v>
-      </c>
-      <c r="H648">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="649" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="649" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F649" s="7">
         <v>7.8125</v>
       </c>
-      <c r="G649">
-        <v>675000</v>
-      </c>
-      <c r="H649">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="650" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="650" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F650" s="7">
         <v>7.8333333333333304</v>
       </c>
-      <c r="G650">
-        <v>676800</v>
-      </c>
-      <c r="H650">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="651" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="651" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F651" s="7">
         <v>7.8541666666666696</v>
       </c>
-      <c r="G651">
-        <v>678600</v>
-      </c>
-      <c r="H651">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="652" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="652" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F652" s="7">
         <v>7.875</v>
       </c>
-      <c r="G652">
-        <v>680400</v>
-      </c>
-      <c r="H652">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="653" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="653" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F653" s="7">
         <v>7.8958333333333304</v>
       </c>
-      <c r="G653">
-        <v>682200</v>
-      </c>
-      <c r="H653">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="654" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="654" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F654" s="7">
         <v>7.9166666666666696</v>
       </c>
-      <c r="G654">
-        <v>684000</v>
-      </c>
-      <c r="H654">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="655" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="655" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F655" s="7">
         <v>7.9375</v>
       </c>
-      <c r="G655">
-        <v>685800</v>
-      </c>
-      <c r="H655">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="656" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="656" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F656" s="7">
         <v>7.9583333333333304</v>
-      </c>
-      <c r="G656">
-        <v>687600</v>
-      </c>
-      <c r="H656">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
